--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AM$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AL$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="395">
   <si>
     <t>Note</t>
   </si>
@@ -44,6 +44,15 @@
     <t>Paper</t>
   </si>
   <si>
+    <t>Behavior  Data</t>
+  </si>
+  <si>
+    <t>Questionnaire Data</t>
+  </si>
+  <si>
+    <t>EEG Data</t>
+  </si>
+  <si>
     <t>Corresponding author</t>
   </si>
   <si>
@@ -101,18 +110,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Behavior  Data</t>
-  </si>
-  <si>
-    <t>Questionnaire Data</t>
-  </si>
-  <si>
-    <t>EEG Data</t>
-  </si>
-  <si>
     <t>Environmental Information</t>
   </si>
   <si>
@@ -140,10 +137,10 @@
     <t>File_Name</t>
   </si>
   <si>
-    <t>Open_Data</t>
-  </si>
-  <si>
-    <t>Data_Note</t>
+    <t>Repo_Link</t>
+  </si>
+  <si>
+    <t>License</t>
   </si>
   <si>
     <t>Pair Number</t>
@@ -365,6 +362,9 @@
     <t>P45</t>
   </si>
   <si>
+    <t>unavailable</t>
+  </si>
+  <si>
     <t>Sanjay Kumar</t>
   </si>
   <si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>Emotion valence: (happy/sad/neutral)</t>
-  </si>
-  <si>
-    <t>unavailable</t>
   </si>
   <si>
     <t>E-prime2.0</t>
@@ -900,9 +897,6 @@
     <t xml:space="preserve">Moral: </t>
   </si>
   <si>
-    <t>Citation()</t>
-  </si>
-  <si>
     <t>2(matching:match,mismatch)*2(reference:self,other)*3(moralcharacter:good,neutral,bad)</t>
   </si>
   <si>
@@ -1405,6 +1399,9 @@
     <t>https://doi.org/10.3758/s13415-024-01157-0.</t>
   </si>
   <si>
+    <t>Pa1E1</t>
+  </si>
+  <si>
     <t>Wang_2016_EPHPP</t>
   </si>
 </sst>
@@ -1433,6 +1430,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1441,14 +1450,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.05"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1471,12 +1474,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.05"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1605,18 +1602,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1958,13 +1949,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1988,16 +1979,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2006,16 +1997,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,10 +2018,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2036,10 +2030,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2048,10 +2042,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2060,10 +2054,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2072,10 +2066,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2084,11 +2078,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,13 +2092,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2116,13 +2119,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2131,28 +2131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2479,12 +2464,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KK68"/>
+  <dimension ref="A1:KJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2493,42 +2478,41 @@
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="5" width="6.08333333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="40.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="23.4166666666667" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="67.0833333333333" customWidth="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1"/>
-    <col min="12" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="20.0833333333333" customWidth="1"/>
-    <col min="15" max="15" width="21.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1"/>
-    <col min="17" max="17" width="13.0833333333333" customWidth="1"/>
-    <col min="18" max="18" width="14.25" customWidth="1"/>
-    <col min="19" max="19" width="12.9166666666667" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
-    <col min="22" max="22" width="7.58333333333333" customWidth="1"/>
-    <col min="23" max="23" width="41.6666666666667" customWidth="1"/>
-    <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="13.25" customWidth="1"/>
-    <col min="27" max="27" width="17.4166666666667" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="23.8333333333333" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5" customWidth="1"/>
-    <col min="31" max="31" width="17.5833333333333" customWidth="1"/>
-    <col min="32" max="32" width="14.5" customWidth="1"/>
-    <col min="33" max="33" width="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="9.925" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.1666666666667" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="118.833333333333" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="25.75" customWidth="1"/>
-    <col min="38" max="38" width="59.425" customWidth="1"/>
-    <col min="39" max="39" width="68.6416666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="10" max="10" width="40.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="23.4166666666667" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="67.0833333333333" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="20.0833333333333" customWidth="1"/>
+    <col min="18" max="18" width="21.5833333333333" customWidth="1"/>
+    <col min="19" max="19" width="11.75" customWidth="1"/>
+    <col min="20" max="20" width="13.0833333333333" customWidth="1"/>
+    <col min="21" max="21" width="14.25" customWidth="1"/>
+    <col min="22" max="22" width="12.9166666666667" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
+    <col min="25" max="25" width="7.58333333333333" customWidth="1"/>
+    <col min="26" max="26" width="41.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="29" customWidth="1"/>
+    <col min="28" max="28" width="23.8333333333333" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="17.5833333333333" customWidth="1"/>
+    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="32" max="32" width="9" customWidth="1"/>
+    <col min="33" max="33" width="9.925" customWidth="1"/>
+    <col min="34" max="34" width="15.1666666666667" customWidth="1"/>
+    <col min="35" max="35" width="118.833333333333" customWidth="1"/>
+    <col min="36" max="36" width="25.75" customWidth="1"/>
+    <col min="37" max="37" width="59.425" customWidth="1"/>
+    <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:39">
+    <row r="1" ht="15.5" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2572,25 +2556,25 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -2599,156 +2583,153 @@
       <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
       <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:296">
+      <c r="A2" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:297">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2">
+      <c r="V2" s="2">
+        <v>96</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" ref="Y2:Y7" si="0">S2-X2</f>
         <v>28</v>
       </c>
-      <c r="Q2" s="2">
-        <v>20</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="2">
-        <v>96</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" ref="V2:V7" si="0">P2-U2</f>
-        <v>28</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="2">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AI2" s="2"/>
       <c r="AJ2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
@@ -3007,108 +2988,107 @@
       <c r="KH2" s="2"/>
       <c r="KI2" s="2"/>
       <c r="KJ2" s="2"/>
-      <c r="KK2" s="2"/>
     </row>
-    <row r="3" ht="15.5" spans="1:297">
+    <row r="3" ht="15.5" spans="1:296">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="2">
+        <v>28</v>
+      </c>
+      <c r="T3" s="2">
+        <v>20</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>20</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="V3" s="2">
         <v>96</v>
       </c>
-      <c r="T3" s="2">
+      <c r="W3" s="2">
         <v>3</v>
       </c>
-      <c r="U3" s="2">
+      <c r="X3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="2">
+      <c r="Y3" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="AD3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>22</v>
-      </c>
-      <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -3367,108 +3347,107 @@
       <c r="KH3" s="2"/>
       <c r="KI3" s="2"/>
       <c r="KJ3" s="2"/>
-      <c r="KK3" s="2"/>
     </row>
-    <row r="4" ht="15.5" spans="1:297">
+    <row r="4" ht="15.5" spans="1:296">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2">
+      <c r="R4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="2">
+        <v>28</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="2">
+        <v>96</v>
+      </c>
+      <c r="W4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>20</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="2">
-        <v>96</v>
-      </c>
-      <c r="T4" s="2">
-        <v>3</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="X4" s="2">
         <v>0</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="AD4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG4" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>14</v>
-      </c>
-      <c r="AI4" s="2"/>
       <c r="AJ4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
@@ -3727,106 +3706,105 @@
       <c r="KH4" s="2"/>
       <c r="KI4" s="2"/>
       <c r="KJ4" s="2"/>
-      <c r="KK4" s="2"/>
     </row>
-    <row r="5" ht="15.5" spans="1:297">
+    <row r="5" ht="15.5" spans="1:296">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="2">
         <v>40</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="2">
         <v>50</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="2">
         <v>80</v>
       </c>
-      <c r="T5" s="2">
+      <c r="W5" s="2">
         <v>8</v>
       </c>
-      <c r="U5" s="2">
+      <c r="X5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Y5" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="AD5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>14</v>
       </c>
       <c r="AG5" s="2">
         <v>14</v>
       </c>
-      <c r="AH5" s="2">
-        <v>14</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
@@ -4085,120 +4063,119 @@
       <c r="KH5" s="2"/>
       <c r="KI5" s="2"/>
       <c r="KJ5" s="2"/>
-      <c r="KK5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:297">
+    <row r="6" ht="18" customHeight="1" spans="1:296">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="S6" s="2">
         <v>92</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>24</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="2">
         <v>240</v>
       </c>
-      <c r="T6" s="2">
+      <c r="W6" s="2">
         <v>4</v>
       </c>
-      <c r="U6" s="2">
+      <c r="X6" s="2">
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y6" s="2">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2"/>
       <c r="AD6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AE6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>19</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
@@ -4457,81 +4434,82 @@
       <c r="KH6" s="2"/>
       <c r="KI6" s="2"/>
       <c r="KJ6" s="2"/>
-      <c r="KK6" s="2"/>
     </row>
-    <row r="7" ht="15.5" spans="1:297">
+    <row r="7" ht="15.5" spans="1:296">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>46</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>48</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="2">
         <v>312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>14</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>5</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>83</v>
@@ -4542,23 +4520,21 @@
       <c r="AE7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AG7" s="2">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>27</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AL7" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -4817,112 +4793,111 @@
       <c r="KH7" s="2"/>
       <c r="KI7" s="2"/>
       <c r="KJ7" s="2"/>
-      <c r="KK7" s="2"/>
     </row>
-    <row r="8" ht="31" spans="1:297">
+    <row r="8" ht="31" spans="1:296">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="R8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="2">
+        <v>31</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="2">
+        <v>100</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="2">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="2">
-        <v>100</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>31</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="2"/>
       <c r="AD8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AE8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>17</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>17</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>14</v>
-      </c>
-      <c r="AI8" s="2"/>
       <c r="AJ8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AL8" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
@@ -5181,112 +5156,111 @@
       <c r="KH8" s="2"/>
       <c r="KI8" s="2"/>
       <c r="KJ8" s="2"/>
-      <c r="KK8" s="2"/>
     </row>
-    <row r="9" ht="62" spans="1:297">
+    <row r="9" ht="62" spans="1:296">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="J9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L9" s="2">
         <v>2021</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="P9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="2">
         <v>40</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>12</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="2">
         <v>960</v>
       </c>
-      <c r="T9" s="2">
+      <c r="W9" s="2">
         <v>7</v>
       </c>
-      <c r="U9" s="2">
+      <c r="X9" s="2">
         <v>7</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Y9" s="2">
         <v>33</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="Z9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
       <c r="AC9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD9" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AE9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AF9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>32</v>
-      </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2" t="s">
+      <c r="AK9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AL9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AM9" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -5544,108 +5518,107 @@
       <c r="KH9" s="2"/>
       <c r="KI9" s="2"/>
       <c r="KJ9" s="2"/>
-      <c r="KK9" s="2"/>
     </row>
-    <row r="10" ht="15.5" spans="1:297">
+    <row r="10" ht="15.5" spans="1:296">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2" t="s">
+      <c r="J10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="2">
         <v>56</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>8</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="2">
         <v>192</v>
       </c>
-      <c r="T10" s="2">
+      <c r="W10" s="2">
         <v>4</v>
       </c>
-      <c r="U10" s="2">
+      <c r="X10" s="2">
         <v>5</v>
       </c>
-      <c r="V10" s="2">
-        <f>P10-U10</f>
+      <c r="Y10" s="2">
+        <f>S10-X10</f>
         <v>51</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="AD10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>25</v>
       </c>
       <c r="AG10" s="2">
-        <v>25</v>
-      </c>
-      <c r="AH10" s="2">
         <v>31</v>
       </c>
-      <c r="AI10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="AJ10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AK10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AL10" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -5904,117 +5877,116 @@
       <c r="KH10" s="2"/>
       <c r="KI10" s="2"/>
       <c r="KJ10" s="2"/>
-      <c r="KK10" s="2"/>
     </row>
-    <row r="11" ht="31" spans="1:297">
+    <row r="11" ht="31" spans="1:296">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="J11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="S11" s="2">
+        <v>26</v>
+      </c>
+      <c r="T11" s="2">
+        <v>10</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="2">
+        <v>144</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>S11-X11</f>
+        <v>24</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" s="2">
         <v>10</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" s="2">
-        <v>144</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="2">
-        <v>2</v>
-      </c>
-      <c r="V11" s="2">
-        <f>P11-U11</f>
-        <v>24</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>16</v>
-      </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2" t="s">
+      <c r="AK11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AL11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AM11" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -6272,113 +6244,112 @@
       <c r="KH11" s="2"/>
       <c r="KI11" s="2"/>
       <c r="KJ11" s="2"/>
-      <c r="KK11" s="2"/>
     </row>
-    <row r="12" ht="31" spans="1:297">
+    <row r="12" ht="31" spans="1:296">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="S12" s="2">
+        <v>26</v>
+      </c>
+      <c r="T12" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="2">
+        <v>100</v>
+      </c>
+      <c r="W12" s="2">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>S12-X12</f>
+        <v>25</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" s="2">
-        <v>100</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" s="2">
-        <f>P12-U12</f>
-        <v>25</v>
-      </c>
-      <c r="W12" s="2" t="s">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>19</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>19</v>
-      </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AL12" s="12" t="s">
+      <c r="AL12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -6636,88 +6607,89 @@
       <c r="KH12" s="2"/>
       <c r="KI12" s="2"/>
       <c r="KJ12" s="2"/>
-      <c r="KK12" s="2"/>
     </row>
-    <row r="13" ht="46.5" spans="1:297">
+    <row r="13" ht="46.5" spans="1:296">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="J13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="2">
+        <v>103</v>
+      </c>
+      <c r="T13" s="2">
+        <v>48</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="2">
+        <v>144</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>S13-X13</f>
+        <v>103</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="P13" s="2">
-        <v>103</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>48</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="2">
-        <v>144</v>
-      </c>
-      <c r="T13" s="2">
-        <v>3</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <f>P13-U13</f>
-        <v>103</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>147</v>
@@ -6725,28 +6697,26 @@
       <c r="AE13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AG13" s="2">
-        <v>13</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" s="2"/>
       <c r="AJ13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AK13" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AL13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AM13" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -7004,121 +6974,120 @@
       <c r="KH13" s="2"/>
       <c r="KI13" s="2"/>
       <c r="KJ13" s="2"/>
-      <c r="KK13" s="2"/>
     </row>
-    <row r="14" ht="28" spans="1:297">
+    <row r="14" ht="28" spans="1:296">
       <c r="A14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="J14" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="2">
-        <v>2018</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="2">
+        <v>19</v>
+      </c>
+      <c r="T14" s="2">
+        <v>24</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="2">
+        <v>672</v>
+      </c>
+      <c r="W14" s="2">
+        <v>4</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" ref="Y14:Y24" si="1">S14-X14</f>
+        <v>18</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>24</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="2">
-        <v>672</v>
-      </c>
-      <c r="T14" s="2">
-        <v>4</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" ref="V14:V24" si="1">P14-U14</f>
-        <v>18</v>
-      </c>
-      <c r="W14" s="2" t="s">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>162</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>9</v>
       </c>
       <c r="AG14" s="2">
         <v>9</v>
       </c>
-      <c r="AH14" s="2">
-        <v>9</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK14" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="AL14" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
@@ -7375,117 +7344,116 @@
       <c r="KH14" s="2"/>
       <c r="KI14" s="2"/>
       <c r="KJ14" s="2"/>
-      <c r="KK14" s="2"/>
     </row>
-    <row r="15" ht="28" spans="1:297">
+    <row r="15" ht="28" spans="1:296">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="2">
-        <v>2018</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="O15" s="2">
         <v>2</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="P15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" s="2">
         <v>20</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="T15" s="2">
         <v>24</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="2">
         <v>672</v>
       </c>
-      <c r="T15" s="2">
+      <c r="W15" s="2">
         <v>4</v>
       </c>
-      <c r="U15" s="2">
+      <c r="X15" s="2">
         <v>2</v>
       </c>
-      <c r="V15" s="2">
+      <c r="Y15" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>162</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>9</v>
       </c>
       <c r="AG15" s="2">
         <v>9</v>
       </c>
-      <c r="AH15" s="2">
-        <v>9</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK15" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AL15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM15" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -7743,121 +7711,120 @@
       <c r="KH15" s="2"/>
       <c r="KI15" s="2"/>
       <c r="KJ15" s="2"/>
-      <c r="KK15" s="2"/>
     </row>
-    <row r="16" ht="15.5" spans="1:297">
+    <row r="16" ht="15.5" spans="1:296">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="J16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="L16" s="2">
         <v>2021</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
+      <c r="O16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="P16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="2">
         <v>30</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="T16" s="2">
         <v>12</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="2">
         <v>360</v>
       </c>
-      <c r="T16" s="2">
+      <c r="W16" s="2">
         <v>6</v>
       </c>
-      <c r="U16" s="2">
+      <c r="X16" s="2">
         <v>5</v>
       </c>
-      <c r="V16" s="2">
+      <c r="Y16" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AE16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>21</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AK16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AL16" s="9" t="s">
+      <c r="AL16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AM16" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -8115,113 +8082,112 @@
       <c r="KH16" s="2"/>
       <c r="KI16" s="2"/>
       <c r="KJ16" s="2"/>
-      <c r="KK16" s="2"/>
     </row>
-    <row r="17" ht="15.5" spans="1:297">
+    <row r="17" ht="15.5" spans="1:296">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="E17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="2">
         <v>2021</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="O17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="P17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="2">
         <v>30</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="T17" s="2">
         <v>12</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" s="2">
         <v>360</v>
       </c>
-      <c r="T17" s="2">
+      <c r="W17" s="2">
         <v>6</v>
       </c>
-      <c r="U17" s="2">
+      <c r="X17" s="2">
         <v>5</v>
       </c>
-      <c r="V17" s="2">
+      <c r="Y17" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="AD17" s="2" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>10</v>
       </c>
       <c r="AG17" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH17" s="2">
         <v>20</v>
       </c>
+      <c r="AH17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AI17" s="2" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK17" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AL17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AM17" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -8479,86 +8445,87 @@
       <c r="KH17" s="2"/>
       <c r="KI17" s="2"/>
       <c r="KJ17" s="2"/>
-      <c r="KK17" s="2"/>
     </row>
-    <row r="18" ht="15.5" spans="1:297">
+    <row r="18" ht="15.5" spans="1:296">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="J18" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="L18" s="2">
         <v>2021</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="O18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="2">
         <v>13</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="T18" s="2">
         <v>12</v>
       </c>
-      <c r="R18" s="2">
+      <c r="U18" s="2">
         <v>1</v>
       </c>
-      <c r="S18" s="2">
+      <c r="V18" s="2">
         <v>360</v>
       </c>
-      <c r="T18" s="2">
+      <c r="W18" s="2">
         <v>3</v>
       </c>
-      <c r="U18" s="2">
+      <c r="X18" s="2">
         <v>0</v>
       </c>
-      <c r="V18" s="2">
+      <c r="Y18" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>0</v>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>185</v>
@@ -8566,26 +8533,24 @@
       <c r="AE18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AF18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AG18" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2" t="s">
+      <c r="AK18" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="AL18" s="9" t="s">
+      <c r="AL18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AM18" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -8843,82 +8808,83 @@
       <c r="KH18" s="2"/>
       <c r="KI18" s="2"/>
       <c r="KJ18" s="2"/>
-      <c r="KK18" s="2"/>
     </row>
-    <row r="19" ht="15.5" spans="1:297">
+    <row r="19" ht="15.5" spans="1:296">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2021</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>2</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="Q19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="2">
         <v>27</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="T19" s="2">
         <v>12</v>
       </c>
-      <c r="R19" s="2">
+      <c r="U19" s="2">
         <v>1</v>
       </c>
-      <c r="S19" s="2">
+      <c r="V19" s="2">
         <v>360</v>
       </c>
-      <c r="T19" s="2">
+      <c r="W19" s="2">
         <v>3</v>
       </c>
-      <c r="U19" s="2">
+      <c r="X19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="Y19" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>0</v>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>185</v>
@@ -8926,26 +8892,24 @@
       <c r="AE19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AF19" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AG19" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>18</v>
-      </c>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2" t="s">
+      <c r="AK19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AL19" s="4" t="s">
+      <c r="AL19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AM19" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -9203,82 +9167,83 @@
       <c r="KH19" s="2"/>
       <c r="KI19" s="2"/>
       <c r="KJ19" s="2"/>
-      <c r="KK19" s="2"/>
     </row>
-    <row r="20" ht="15.5" spans="1:297">
+    <row r="20" ht="15.5" spans="1:296">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" s="2">
+        <v>180</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="2">
         <v>2021</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
         <v>3</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2">
         <v>3</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="2">
         <v>27</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="T20" s="2">
         <v>12</v>
       </c>
-      <c r="R20" s="2">
+      <c r="U20" s="2">
         <v>1</v>
       </c>
-      <c r="S20" s="2">
+      <c r="V20" s="2">
         <v>360</v>
       </c>
-      <c r="T20" s="2">
+      <c r="W20" s="2">
         <v>3</v>
       </c>
-      <c r="U20" s="2">
+      <c r="X20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="Y20" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>0</v>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>185</v>
@@ -9286,26 +9251,24 @@
       <c r="AE20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AF20" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AG20" s="2">
-        <v>12</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>15</v>
-      </c>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2" t="s">
+      <c r="AK20" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AL20" s="4" t="s">
+      <c r="AL20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AM20" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -9563,82 +9526,83 @@
       <c r="KH20" s="2"/>
       <c r="KI20" s="2"/>
       <c r="KJ20" s="2"/>
-      <c r="KK20" s="2"/>
     </row>
-    <row r="21" ht="15.5" spans="1:297">
+    <row r="21" ht="15.5" spans="1:296">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="2">
+        <v>180</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" s="2">
         <v>2021</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O21" s="2">
         <v>4</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S21" s="2">
         <v>26</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="T21" s="2">
         <v>12</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>360</v>
-      </c>
-      <c r="T21" s="2">
-        <v>3</v>
       </c>
       <c r="U21" s="2">
         <v>1</v>
       </c>
       <c r="V21" s="2">
+        <v>360</v>
+      </c>
+      <c r="W21" s="2">
+        <v>3</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>0</v>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>185</v>
@@ -9646,26 +9610,24 @@
       <c r="AE21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF21" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AG21" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>18</v>
-      </c>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2" t="s">
+      <c r="AK21" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AL21" s="4" t="s">
+      <c r="AL21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AM21" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -9923,110 +9885,109 @@
       <c r="KH21" s="2"/>
       <c r="KI21" s="2"/>
       <c r="KJ21" s="2"/>
-      <c r="KK21" s="2"/>
     </row>
-    <row r="22" ht="15.5" spans="1:297">
+    <row r="22" ht="15.5" spans="1:296">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="J22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="K22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="L22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="N22" s="2">
         <v>1</v>
       </c>
-      <c r="L22" s="2">
+      <c r="O22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" s="2">
         <v>38</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="T22" s="2">
         <v>84</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" s="2">
         <v>128</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="2">
         <v>4</v>
       </c>
-      <c r="V22" s="2">
+      <c r="Y22" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>0</v>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="AE22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>29</v>
-      </c>
-      <c r="AI22" s="2"/>
       <c r="AJ22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AK22" s="2" t="s">
+      <c r="AK22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AL22" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
@@ -10285,106 +10246,105 @@
       <c r="KH22" s="2"/>
       <c r="KI22" s="2"/>
       <c r="KJ22" s="2"/>
-      <c r="KK22" s="2"/>
     </row>
-    <row r="23" ht="15.5" spans="1:297">
+    <row r="23" ht="15.5" spans="1:296">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>2</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O23" s="2">
         <v>2</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" s="2">
         <v>33</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="T23" s="2">
         <v>24</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="2">
+      <c r="U23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" s="2">
         <v>240</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="W23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X23" s="2">
         <v>2</v>
       </c>
-      <c r="V23" s="2">
+      <c r="Y23" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>0</v>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>7</v>
       </c>
       <c r="AG23" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH23" s="2">
         <v>26</v>
       </c>
-      <c r="AI23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="AJ23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK23" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AL23" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -10643,106 +10603,105 @@
       <c r="KH23" s="2"/>
       <c r="KI23" s="2"/>
       <c r="KJ23" s="2"/>
-      <c r="KK23" s="2"/>
     </row>
-    <row r="24" ht="15.5" spans="1:297">
+    <row r="24" ht="15.5" spans="1:296">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="2">
-        <v>2020</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="N24" s="2">
         <v>3</v>
       </c>
-      <c r="L24" s="2">
+      <c r="O24" s="2">
         <v>3</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="P24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="2">
         <v>36</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="T24" s="2">
         <v>24</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="2">
+      <c r="U24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="2">
         <v>240</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="W24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="2">
         <v>1</v>
       </c>
-      <c r="V24" s="2">
+      <c r="Y24" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="16">
-        <v>0</v>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>7</v>
       </c>
       <c r="AG24" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH24" s="2">
         <v>29</v>
       </c>
-      <c r="AI24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="AJ24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK24" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AL24" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
@@ -11001,110 +10960,109 @@
       <c r="KH24" s="2"/>
       <c r="KI24" s="2"/>
       <c r="KJ24" s="2"/>
-      <c r="KK24" s="2"/>
     </row>
-    <row r="25" ht="15.5" spans="1:297">
+    <row r="25" ht="15.5" spans="1:296">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="J25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="K25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="L25" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I25" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2">
+        <v>20</v>
+      </c>
+      <c r="T25" s="2">
+        <v>10</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="2">
+        <v>200</v>
+      </c>
+      <c r="W25" s="2">
+        <v>4</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" ref="Y25:Y48" si="2">S25-X25</f>
+        <v>20</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>10</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" s="2">
-        <v>200</v>
-      </c>
-      <c r="T25" s="2">
-        <v>4</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <f t="shared" ref="V25:V48" si="2">P25-U25</f>
-        <v>20</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AE25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>14</v>
+      </c>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AF25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>14</v>
-      </c>
-      <c r="AI25" s="2"/>
       <c r="AJ25" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AK25" s="2" t="s">
+      <c r="AK25" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="AL25" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
@@ -11363,108 +11321,107 @@
       <c r="KH25" s="2"/>
       <c r="KI25" s="2"/>
       <c r="KJ25" s="2"/>
-      <c r="KK25" s="2"/>
     </row>
-    <row r="26" ht="15.5" spans="1:297">
+    <row r="26" ht="15.5" spans="1:296">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I26" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="N26" s="2">
         <v>2</v>
       </c>
-      <c r="L26" s="2">
+      <c r="O26" s="2">
         <v>2</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2">
+      <c r="P26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2">
         <v>24</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="T26" s="2">
         <v>10</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26" s="2">
+      <c r="U26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" s="2">
         <v>400</v>
       </c>
-      <c r="T26" s="2">
+      <c r="W26" s="2">
         <v>2</v>
       </c>
-      <c r="U26" s="2">
+      <c r="X26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="2">
+      <c r="Y26" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="Z26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH26" s="2">
-        <v>16</v>
-      </c>
-      <c r="AI26" s="2"/>
       <c r="AJ26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK26" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AL26" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
@@ -11723,108 +11680,107 @@
       <c r="KH26" s="2"/>
       <c r="KI26" s="2"/>
       <c r="KJ26" s="2"/>
-      <c r="KK26" s="2"/>
     </row>
-    <row r="27" ht="15.5" spans="1:297">
+    <row r="27" ht="15.5" spans="1:296">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I27" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="N27" s="2">
         <v>3</v>
       </c>
-      <c r="L27" s="2">
+      <c r="O27" s="2">
         <v>3</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
+      <c r="P27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2">
         <v>25</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="T27" s="2">
         <v>10</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S27" s="2">
+      <c r="U27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V27" s="2">
         <v>400</v>
       </c>
-      <c r="T27" s="2">
+      <c r="W27" s="2">
         <v>2</v>
       </c>
-      <c r="U27" s="2">
+      <c r="X27" s="2">
         <v>0</v>
       </c>
-      <c r="V27" s="2">
+      <c r="Y27" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="W27" s="2" t="s">
+      <c r="Z27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>18</v>
-      </c>
-      <c r="AI27" s="2"/>
       <c r="AJ27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK27" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AL27" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
@@ -12083,114 +12039,113 @@
       <c r="KH27" s="2"/>
       <c r="KI27" s="2"/>
       <c r="KJ27" s="2"/>
-      <c r="KK27" s="2"/>
     </row>
-    <row r="28" ht="31" spans="1:297">
+    <row r="28" ht="31" spans="1:296">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="J28" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="L28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="2">
-        <v>2021</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="N28" s="2">
         <v>1</v>
       </c>
-      <c r="L28" s="2">
+      <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="P28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="2">
         <v>105</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="T28" s="2">
         <v>12</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S28" s="2">
+      <c r="U28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="2">
         <v>360</v>
       </c>
-      <c r="T28" s="2">
+      <c r="W28" s="2">
         <v>3</v>
       </c>
-      <c r="U28" s="2">
+      <c r="X28" s="2">
         <v>0</v>
       </c>
-      <c r="V28" s="2">
+      <c r="Y28" s="2">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="Z28" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="AE28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>54</v>
-      </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2" t="s">
+      <c r="AK28" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AL28" s="12" t="s">
-        <v>235</v>
-      </c>
+      <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
@@ -12449,115 +12404,114 @@
       <c r="KH28" s="2"/>
       <c r="KI28" s="2"/>
       <c r="KJ28" s="2"/>
-      <c r="KK28" s="2"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:297">
+    <row r="29" ht="17" customHeight="1" spans="1:296">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="J29" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S29" s="2">
+        <v>302</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="2">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" s="2">
-        <v>302</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" s="2">
-        <v>64</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U29" s="2">
+      <c r="W29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X29" s="2">
         <v>3</v>
       </c>
-      <c r="V29" s="2">
+      <c r="Y29" s="2">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB29" s="16">
-        <v>0</v>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="AC29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AD29" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AE29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>161</v>
+      </c>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AF29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>132</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>161</v>
-      </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2" t="s">
+      <c r="AK29" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AL29" s="4" t="s">
+      <c r="AL29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AM29" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
@@ -12815,115 +12769,112 @@
       <c r="KH29" s="2"/>
       <c r="KI29" s="2"/>
       <c r="KJ29" s="2"/>
-      <c r="KK29" s="2"/>
     </row>
-    <row r="30" ht="15.5" spans="1:297">
+    <row r="30" ht="15.5" spans="1:296">
       <c r="A30" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2">
+      <c r="P30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30" s="2">
+        <v>23</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="2">
+        <v>90</v>
+      </c>
+      <c r="W30" s="2">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S30" s="2">
-        <v>90</v>
-      </c>
-      <c r="T30" s="2">
-        <v>2</v>
-      </c>
-      <c r="U30" s="2">
-        <v>1</v>
-      </c>
-      <c r="V30" s="2">
+      <c r="Y30" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="W30" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="2"/>
+      <c r="Z30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF30" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
+      <c r="AH30" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AI30" s="2" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="AJ30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AK30" s="2" t="s">
+      <c r="AL30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AL30" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
@@ -13181,91 +13132,90 @@
       <c r="KH30" s="2"/>
       <c r="KI30" s="2"/>
       <c r="KJ30" s="2"/>
-      <c r="KK30" s="2"/>
     </row>
-    <row r="31" ht="15.5" spans="1:297">
+    <row r="31" ht="15.5" spans="1:296">
       <c r="A31" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="L31" s="2">
         <v>2014</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="O31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P31" s="2">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31" s="2">
         <v>24</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2">
-        <v>40</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD31" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF31" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
@@ -13525,91 +13475,90 @@
       <c r="KH31" s="2"/>
       <c r="KI31" s="2"/>
       <c r="KJ31" s="2"/>
-      <c r="KK31" s="2"/>
     </row>
-    <row r="32" ht="15.5" spans="1:297">
+    <row r="32" ht="15.5" spans="1:296">
       <c r="A32" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I32" s="2">
+        <v>261</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="2">
         <v>2015</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="O32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" s="2">
+        <v>46</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" s="2">
         <v>20</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2">
-        <v>40</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD32" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF32" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
@@ -13869,91 +13818,90 @@
       <c r="KH32" s="2"/>
       <c r="KI32" s="2"/>
       <c r="KJ32" s="2"/>
-      <c r="KK32" s="2"/>
     </row>
-    <row r="33" ht="15.5" spans="1:297">
+    <row r="33" ht="15.5" spans="1:296">
       <c r="A33" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" s="2">
+        <v>261</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="2">
         <v>2015</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
         <v>2</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="O33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" s="2">
+        <v>46</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S33" s="2">
         <v>21</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2">
-        <v>40</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD33" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AE33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF33" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
@@ -14213,95 +14161,94 @@
       <c r="KH33" s="2"/>
       <c r="KI33" s="2"/>
       <c r="KJ33" s="2"/>
-      <c r="KK33" s="2"/>
     </row>
-    <row r="34" ht="15.5" spans="1:297">
+    <row r="34" ht="15.5" spans="1:296">
       <c r="A34" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="L34" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2" t="s">
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="2">
-        <v>2014</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S34" s="2">
         <v>24</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2">
-        <v>60</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2">
+        <v>60</v>
+      </c>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="W34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2"/>
+      <c r="Z34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD34" s="2" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
@@ -14561,95 +14508,94 @@
       <c r="KH34" s="2"/>
       <c r="KI34" s="2"/>
       <c r="KJ34" s="2"/>
-      <c r="KK34" s="2"/>
     </row>
-    <row r="35" ht="15.5" spans="1:297">
+    <row r="35" ht="15.5" spans="1:296">
       <c r="A35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2" t="s">
+      <c r="N35" s="2">
+        <v>2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I35" s="2">
-        <v>2014</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K35" s="2">
-        <v>2</v>
-      </c>
-      <c r="L35" s="2">
-        <v>2</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35" s="2">
         <v>18</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2">
-        <v>60</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2">
+        <v>60</v>
+      </c>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="W35" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="2"/>
+      <c r="Z35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD35" s="2" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
@@ -14909,95 +14855,94 @@
       <c r="KH35" s="2"/>
       <c r="KI35" s="2"/>
       <c r="KJ35" s="2"/>
-      <c r="KK35" s="2"/>
     </row>
-    <row r="36" ht="15.5" spans="1:297">
+    <row r="36" ht="15.5" spans="1:296">
       <c r="A36" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2" t="s">
+      <c r="N36" s="2">
+        <v>3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I36" s="2">
-        <v>2014</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K36" s="2">
-        <v>3</v>
-      </c>
-      <c r="L36" s="2">
-        <v>3</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S36" s="2">
         <v>22</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2">
-        <v>60</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2">
+        <v>60</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="W36" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2"/>
+      <c r="Z36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD36" s="2" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
@@ -15257,96 +15202,95 @@
       <c r="KH36" s="2"/>
       <c r="KI36" s="2"/>
       <c r="KJ36" s="2"/>
-      <c r="KK36" s="2"/>
     </row>
-    <row r="37" ht="15.5" spans="1:297">
+    <row r="37" ht="15.5" spans="1:296">
       <c r="A37" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="2" t="s">
+      <c r="N37" s="2">
+        <v>4</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I37" s="2">
-        <v>2014</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K37" s="2">
-        <v>4</v>
-      </c>
-      <c r="L37" s="2">
-        <v>4</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="2">
         <v>20</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2">
-        <v>60</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2">
+        <v>60</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="W37" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="2"/>
+      <c r="Z37" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="AD37" s="2" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL37" s="2"/>
+      <c r="AJ37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK37" s="2"/>
+      <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
@@ -15604,84 +15548,85 @@
       <c r="KH37" s="2"/>
       <c r="KI37" s="2"/>
       <c r="KJ37" s="2"/>
-      <c r="KK37" s="2"/>
     </row>
-    <row r="38" ht="15.5" spans="1:297">
+    <row r="38" ht="15.5" spans="1:296">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="J38" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="L38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I38" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>1</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="P38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S38" s="2">
         <v>40</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2">
+      <c r="T38" s="2"/>
+      <c r="U38" s="2">
         <v>24</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>240</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>4</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>3</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>1</v>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>147</v>
@@ -15689,28 +15634,26 @@
       <c r="AE38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AF38" s="2" t="s">
-        <v>149</v>
+      <c r="AF38" s="2">
+        <v>8</v>
       </c>
       <c r="AG38" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH38" s="2">
         <v>32</v>
       </c>
-      <c r="AI38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="AJ38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK38" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="AK38" s="2" t="s">
+      <c r="AL38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AL38" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
@@ -15968,113 +15911,112 @@
       <c r="KH38" s="2"/>
       <c r="KI38" s="2"/>
       <c r="KJ38" s="2"/>
-      <c r="KK38" s="2"/>
     </row>
-    <row r="39" ht="15.5" spans="1:297">
+    <row r="39" ht="15.5" spans="1:296">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="J39" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="L39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S39" s="2">
+        <v>144</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V39" s="2">
+        <v>60</v>
+      </c>
+      <c r="W39" s="2">
+        <v>2</v>
+      </c>
+      <c r="X39" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" ref="Y39:Y48" si="3">S39-X39</f>
+        <v>142</v>
+      </c>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD39" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I39" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J39" s="2" t="s">
+      <c r="AE39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="2">
-        <v>144</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S39" s="2">
-        <v>60</v>
-      </c>
-      <c r="T39" s="2">
-        <v>2</v>
-      </c>
-      <c r="U39" s="2">
-        <v>2</v>
-      </c>
-      <c r="V39" s="2">
-        <f t="shared" ref="V39:V48" si="3">P39-U39</f>
-        <v>142</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AK39" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="AF39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>31</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL39" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM39" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
@@ -16332,119 +16274,118 @@
       <c r="KH39" s="2"/>
       <c r="KI39" s="2"/>
       <c r="KJ39" s="2"/>
-      <c r="KK39" s="2"/>
     </row>
-    <row r="40" ht="62" spans="1:297">
+    <row r="40" ht="62" spans="1:296">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="J40" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="L40" s="2">
         <v>2021</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="M40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K40" s="2">
+      <c r="R40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" s="2">
+        <v>109</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" s="2">
+        <v>360</v>
+      </c>
+      <c r="W40" s="2">
+        <v>6</v>
+      </c>
+      <c r="X40" s="2">
         <v>1</v>
       </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P40" s="2">
-        <v>109</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S40" s="2">
-        <v>360</v>
-      </c>
-      <c r="T40" s="2">
-        <v>6</v>
-      </c>
-      <c r="U40" s="2">
-        <v>1</v>
-      </c>
-      <c r="V40" s="2">
+      <c r="Y40" s="2">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="W40" s="2" t="s">
+      <c r="Z40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>59</v>
+      </c>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="X40" s="2" t="s">
+      <c r="AK40" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>59</v>
-      </c>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2" t="s">
+      <c r="AL40" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="AL40" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM40" s="12" t="s">
-        <v>312</v>
-      </c>
+      <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
@@ -16702,100 +16643,99 @@
       <c r="KH40" s="2"/>
       <c r="KI40" s="2"/>
       <c r="KJ40" s="2"/>
-      <c r="KK40" s="2"/>
     </row>
-    <row r="41" ht="15.5" spans="1:297">
-      <c r="A41" s="6" t="s">
-        <v>313</v>
+    <row r="41" ht="15.5" spans="1:296">
+      <c r="A41" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="L41" s="2">
         <v>2023</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="M41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N41" s="2">
         <v>1</v>
       </c>
-      <c r="L41" s="2">
+      <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2">
+      <c r="P41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2">
         <v>40</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="T41" s="2">
         <v>24</v>
-      </c>
-      <c r="R41" s="2">
-        <v>1</v>
-      </c>
-      <c r="S41" s="2">
-        <v>300</v>
-      </c>
-      <c r="T41" s="2">
-        <v>1</v>
       </c>
       <c r="U41" s="2">
         <v>1</v>
       </c>
       <c r="V41" s="2">
+        <v>300</v>
+      </c>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2" t="s">
-        <v>149</v>
+      <c r="AE41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>8</v>
       </c>
       <c r="AG41" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH41" s="2">
         <v>32</v>
       </c>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
@@ -17056,117 +16996,116 @@
       <c r="KH41" s="2"/>
       <c r="KI41" s="2"/>
       <c r="KJ41" s="2"/>
-      <c r="KK41" s="2"/>
     </row>
-    <row r="42" ht="15.5" spans="1:297">
+    <row r="42" ht="15.5" spans="1:296">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="J42" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="L42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I42" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="N42" s="2">
         <v>1</v>
       </c>
-      <c r="L42" s="2">
+      <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P42" s="2">
+      <c r="P42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="2">
         <v>30</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="T42" s="2">
         <v>24</v>
       </c>
-      <c r="R42" s="2">
+      <c r="U42" s="2">
         <v>1</v>
       </c>
-      <c r="S42" s="2">
+      <c r="V42" s="2">
         <v>240</v>
       </c>
-      <c r="T42" s="2">
+      <c r="W42" s="2">
         <v>2</v>
       </c>
-      <c r="U42" s="2">
+      <c r="X42" s="2">
         <v>3</v>
       </c>
-      <c r="V42" s="2">
+      <c r="Y42" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="W42" s="2" t="s">
+      <c r="Z42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AD42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AE42" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AF42" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AG42" s="2">
-        <v>14</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>16</v>
-      </c>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2" t="s">
+      <c r="AK42" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AK42" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL42" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="AL42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
@@ -17424,113 +17363,112 @@
       <c r="KH42" s="2"/>
       <c r="KI42" s="2"/>
       <c r="KJ42" s="2"/>
-      <c r="KK42" s="2"/>
     </row>
-    <row r="43" ht="15.5" spans="1:297">
+    <row r="43" ht="15.5" spans="1:296">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I43" s="2">
+        <v>317</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" s="2">
         <v>2022</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="M43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N43" s="2">
         <v>2</v>
       </c>
-      <c r="L43" s="2">
+      <c r="O43" s="2">
         <v>2</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P43" s="2">
+      <c r="P43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S43" s="2">
         <v>104</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="T43" s="2">
         <v>24</v>
       </c>
-      <c r="R43" s="2">
+      <c r="U43" s="2">
         <v>1</v>
       </c>
-      <c r="S43" s="2">
+      <c r="V43" s="2">
         <v>240</v>
       </c>
-      <c r="T43" s="2">
+      <c r="W43" s="2">
         <v>2</v>
       </c>
-      <c r="U43" s="2">
+      <c r="X43" s="2">
         <v>2</v>
       </c>
-      <c r="V43" s="2">
+      <c r="Y43" s="2">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="W43" s="2" t="s">
+      <c r="Z43" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC43" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AD43" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AE43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AF43" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AG43" s="2">
-        <v>14</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2" t="s">
+      <c r="AK43" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AK43" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AL43" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM43" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="AL43" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
@@ -17788,115 +17726,114 @@
       <c r="KH43" s="2"/>
       <c r="KI43" s="2"/>
       <c r="KJ43" s="2"/>
-      <c r="KK43" s="2"/>
     </row>
-    <row r="44" ht="15.5" spans="1:297">
+    <row r="44" ht="15.5" spans="1:296">
       <c r="A44" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="J44" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="K44" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="L44" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I44" s="2">
-        <v>2022</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="N44" s="2">
         <v>1</v>
       </c>
-      <c r="L44" s="2">
+      <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P44" s="2">
+      <c r="P44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" s="2">
         <v>328</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" s="2">
         <v>360</v>
       </c>
-      <c r="T44" s="2">
+      <c r="W44" s="2">
         <v>3</v>
       </c>
-      <c r="U44" s="2">
+      <c r="X44" s="2">
         <v>40</v>
       </c>
-      <c r="V44" s="2">
+      <c r="Y44" s="2">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="17">
-        <v>0</v>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="AE44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK44" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="AF44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL44" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM44" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
@@ -18154,113 +18091,112 @@
       <c r="KH44" s="2"/>
       <c r="KI44" s="2"/>
       <c r="KJ44" s="2"/>
-      <c r="KK44" s="2"/>
     </row>
-    <row r="45" ht="15.5" spans="1:297">
+    <row r="45" ht="15.5" spans="1:296">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="2">
         <v>2020</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N45" s="2">
         <v>1</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>1</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P45" s="2">
+      <c r="P45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="2">
         <v>23</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="T45" s="2">
         <v>24</v>
       </c>
-      <c r="R45" s="2">
+      <c r="U45" s="2">
         <v>1</v>
       </c>
-      <c r="S45" s="2">
+      <c r="V45" s="2">
         <v>360</v>
       </c>
-      <c r="T45" s="2">
+      <c r="W45" s="2">
         <v>3</v>
       </c>
-      <c r="U45" s="2">
+      <c r="X45" s="2">
         <v>5</v>
       </c>
-      <c r="V45" s="2">
+      <c r="Y45" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2" t="s">
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>11</v>
+      </c>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>11</v>
-      </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2" t="s">
+      <c r="AK45" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="AK45" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL45" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM45" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
@@ -18518,109 +18454,108 @@
       <c r="KH45" s="2"/>
       <c r="KI45" s="2"/>
       <c r="KJ45" s="2"/>
-      <c r="KK45" s="2"/>
     </row>
-    <row r="46" ht="15.5" spans="1:297">
+    <row r="46" ht="15.5" spans="1:296">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="2">
+        <v>342</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L46" s="2">
         <v>2020</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="M46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N46" s="2">
         <v>1</v>
       </c>
-      <c r="L46" s="2">
+      <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P46" s="2">
+      <c r="P46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" s="2">
         <v>21</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="T46" s="2">
         <v>24</v>
       </c>
-      <c r="R46" s="2">
+      <c r="U46" s="2">
         <v>1</v>
       </c>
-      <c r="S46" s="2">
+      <c r="V46" s="2">
         <v>360</v>
       </c>
-      <c r="T46" s="2">
+      <c r="W46" s="2">
         <v>3</v>
       </c>
-      <c r="U46" s="2">
+      <c r="X46" s="2">
         <v>3</v>
       </c>
-      <c r="V46" s="2">
+      <c r="Y46" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="2" t="s">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH46" s="2">
-        <v>12</v>
-      </c>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2" t="s">
+      <c r="AK46" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AK46" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL46" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM46" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
@@ -18878,109 +18813,108 @@
       <c r="KH46" s="2"/>
       <c r="KI46" s="2"/>
       <c r="KJ46" s="2"/>
-      <c r="KK46" s="2"/>
     </row>
-    <row r="47" ht="15.5" spans="1:297">
+    <row r="47" ht="15.5" spans="1:296">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" s="2">
+        <v>342</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L47" s="2">
         <v>2020</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="M47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N47" s="2">
         <v>1</v>
       </c>
-      <c r="L47" s="2">
+      <c r="O47" s="2">
         <v>1</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P47" s="2">
+      <c r="P47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" s="2">
         <v>18</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="T47" s="2">
         <v>24</v>
       </c>
-      <c r="R47" s="2">
+      <c r="U47" s="2">
         <v>1</v>
       </c>
-      <c r="S47" s="2">
+      <c r="V47" s="2">
         <v>360</v>
       </c>
-      <c r="T47" s="2">
+      <c r="W47" s="2">
         <v>3</v>
       </c>
-      <c r="U47" s="2">
+      <c r="X47" s="2">
         <v>0</v>
       </c>
-      <c r="V47" s="2">
+      <c r="Y47" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="17">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF47" s="2">
         <v>0</v>
       </c>
-      <c r="AB47" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="2" t="s">
+      <c r="AG47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>18</v>
-      </c>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2" t="s">
+      <c r="AK47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AK47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL47" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM47" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
@@ -19238,107 +19172,106 @@
       <c r="KH47" s="2"/>
       <c r="KI47" s="2"/>
       <c r="KJ47" s="2"/>
-      <c r="KK47" s="2"/>
     </row>
-    <row r="48" ht="15.5" spans="1:297">
+    <row r="48" ht="15.5" spans="1:296">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="L48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="N48" s="2">
         <v>1</v>
       </c>
-      <c r="L48" s="2">
+      <c r="O48" s="2">
         <v>1</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P48" s="2">
+      <c r="P48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S48" s="2">
         <v>380</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="T48" s="2">
         <v>12</v>
       </c>
-      <c r="R48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S48" s="2">
+      <c r="U48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V48" s="2">
         <v>96</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U48" s="2">
+      <c r="W48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X48" s="2">
         <v>32</v>
       </c>
-      <c r="V48" s="2">
+      <c r="Y48" s="2">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AE48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AL48" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="AM48" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AH48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK48" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
@@ -19596,106 +19529,105 @@
       <c r="KH48" s="2"/>
       <c r="KI48" s="2"/>
       <c r="KJ48" s="2"/>
-      <c r="KK48" s="2"/>
     </row>
-    <row r="49" ht="31" spans="1:297">
+    <row r="49" ht="31" spans="1:296">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="J49" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="L49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I49" s="2">
-        <v>2021</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49" s="2">
+      <c r="N49" s="2">
         <v>1</v>
       </c>
-      <c r="L49" s="2">
+      <c r="O49" s="2">
         <v>1</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P49" s="2">
+      <c r="P49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S49" s="2">
         <v>84</v>
       </c>
-      <c r="Q49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R49" s="2">
+      <c r="T49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" s="2">
         <v>3</v>
       </c>
-      <c r="S49" s="2">
+      <c r="V49" s="2">
         <v>320</v>
       </c>
-      <c r="T49" s="2">
+      <c r="W49" s="2">
         <v>4</v>
       </c>
-      <c r="U49" s="2">
+      <c r="X49" s="2">
         <v>0</v>
       </c>
-      <c r="V49" s="2">
+      <c r="Y49" s="2">
         <v>84</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB49" s="17">
-        <v>0</v>
-      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="AF49" s="2">
+        <v>13</v>
+      </c>
       <c r="AG49" s="2">
-        <v>13</v>
-      </c>
-      <c r="AH49" s="2">
         <v>70</v>
       </c>
+      <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AL49" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AM49" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK49" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
@@ -19953,108 +19885,107 @@
       <c r="KH49" s="2"/>
       <c r="KI49" s="2"/>
       <c r="KJ49" s="2"/>
-      <c r="KK49" s="2"/>
     </row>
-    <row r="50" ht="15.5" spans="1:297">
+    <row r="50" ht="15.5" spans="1:296">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="J50" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="K50" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="L50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I50" s="2">
-        <v>2023</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="N50" s="2">
         <v>1</v>
       </c>
-      <c r="L50" s="2">
+      <c r="O50" s="2">
         <v>1</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P50" s="2">
+      <c r="P50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S50" s="2">
         <v>20</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="T50" s="2">
         <v>12</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S50" s="2">
+      <c r="U50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V50" s="2">
         <v>960</v>
       </c>
-      <c r="T50" s="2">
+      <c r="W50" s="2">
         <v>16</v>
       </c>
-      <c r="U50" s="2">
+      <c r="X50" s="2">
         <v>0</v>
       </c>
-      <c r="V50" s="2">
+      <c r="Y50" s="2">
         <v>20</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>1</v>
-      </c>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+      <c r="AF50" s="2">
+        <v>12</v>
+      </c>
       <c r="AG50" s="2">
-        <v>12</v>
-      </c>
-      <c r="AH50" s="2">
         <v>8</v>
       </c>
-      <c r="AI50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="AJ50" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK50" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AK50" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="AL50" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM50" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
@@ -20312,112 +20243,111 @@
       <c r="KH50" s="2"/>
       <c r="KI50" s="2"/>
       <c r="KJ50" s="2"/>
-      <c r="KK50" s="2"/>
     </row>
-    <row r="51" ht="15.5" spans="1:297">
+    <row r="51" ht="15.5" spans="1:296">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="J51" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="K51" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="L51" s="2">
+        <v>2024</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S51" s="2">
+        <v>32</v>
+      </c>
+      <c r="T51" s="2">
+        <v>20</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2">
+        <v>240</v>
+      </c>
+      <c r="W51" s="2">
+        <v>5</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I51" s="2">
-        <v>2024</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2">
-        <v>1</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>20</v>
-      </c>
-      <c r="R51" s="2">
-        <v>1</v>
-      </c>
-      <c r="S51" s="2">
-        <v>240</v>
-      </c>
-      <c r="T51" s="2">
+      <c r="AF51" s="2">
         <v>5</v>
       </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>32</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AG51" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2" t="s">
+      <c r="AJ51" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="AG51" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH51" s="2">
-        <v>27</v>
-      </c>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2" t="s">
+      <c r="AK51" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="AK51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL51" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM51" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
@@ -20675,101 +20605,100 @@
       <c r="KH51" s="2"/>
       <c r="KI51" s="2"/>
       <c r="KJ51" s="2"/>
-      <c r="KK51" s="2"/>
     </row>
-    <row r="52" ht="15.5" spans="1:297">
+    <row r="52" ht="15.5" spans="1:296">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="J52" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="L52" s="2">
+        <v>2024</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I52" s="2">
-        <v>2024</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K52" s="2">
+      <c r="R52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S52" s="2">
+        <v>70</v>
+      </c>
+      <c r="T52" s="2">
+        <v>24</v>
+      </c>
+      <c r="U52" s="2">
         <v>1</v>
       </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P52" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>24</v>
-      </c>
-      <c r="R52" s="2">
-        <v>1</v>
-      </c>
-      <c r="S52" s="2">
+      <c r="V52" s="2">
         <v>360</v>
       </c>
-      <c r="T52" s="2">
+      <c r="W52" s="2">
         <v>0</v>
       </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB52" s="15">
-        <v>1</v>
-      </c>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
+      <c r="AF52" s="2">
+        <v>49</v>
+      </c>
       <c r="AG52" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH52" s="2">
         <v>21</v>
       </c>
-      <c r="AI52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="AJ52" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK52" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="AK52" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL52" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -21028,12 +20957,15 @@
       <c r="KH52" s="2"/>
       <c r="KI52" s="2"/>
       <c r="KJ52" s="2"/>
-      <c r="KK52" s="2"/>
     </row>
-    <row r="53" ht="15.5" spans="1:297">
+    <row r="53" ht="15.5" spans="1:296">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -21066,10 +20998,10 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="AJ53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
@@ -21329,9 +21261,8 @@
       <c r="KH53" s="2"/>
       <c r="KI53" s="2"/>
       <c r="KJ53" s="2"/>
-      <c r="KK53" s="2"/>
     </row>
-    <row r="54" ht="15.5" spans="1:297">
+    <row r="54" ht="15.5" spans="1:296">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -21628,9 +21559,8 @@
       <c r="KH54" s="2"/>
       <c r="KI54" s="2"/>
       <c r="KJ54" s="2"/>
-      <c r="KK54" s="2"/>
     </row>
-    <row r="55" ht="15.5" spans="1:297">
+    <row r="55" ht="15.5" spans="1:296">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -21927,9 +21857,8 @@
       <c r="KH55" s="2"/>
       <c r="KI55" s="2"/>
       <c r="KJ55" s="2"/>
-      <c r="KK55" s="2"/>
     </row>
-    <row r="56" ht="15.5" spans="1:297">
+    <row r="56" ht="15.5" spans="1:296">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -22226,9 +22155,8 @@
       <c r="KH56" s="2"/>
       <c r="KI56" s="2"/>
       <c r="KJ56" s="2"/>
-      <c r="KK56" s="2"/>
     </row>
-    <row r="57" ht="15.5" spans="1:297">
+    <row r="57" ht="15.5" spans="1:296">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -22525,9 +22453,8 @@
       <c r="KH57" s="2"/>
       <c r="KI57" s="2"/>
       <c r="KJ57" s="2"/>
-      <c r="KK57" s="2"/>
     </row>
-    <row r="58" ht="15.5" spans="1:297">
+    <row r="58" ht="15.5" spans="1:296">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -22824,9 +22751,8 @@
       <c r="KH58" s="2"/>
       <c r="KI58" s="2"/>
       <c r="KJ58" s="2"/>
-      <c r="KK58" s="2"/>
     </row>
-    <row r="59" ht="15.5" spans="1:297">
+    <row r="59" ht="15.5" spans="1:296">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -23123,9 +23049,8 @@
       <c r="KH59" s="2"/>
       <c r="KI59" s="2"/>
       <c r="KJ59" s="2"/>
-      <c r="KK59" s="2"/>
     </row>
-    <row r="60" ht="15.5" spans="1:297">
+    <row r="60" ht="15.5" spans="1:296">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -23422,9 +23347,8 @@
       <c r="KH60" s="2"/>
       <c r="KI60" s="2"/>
       <c r="KJ60" s="2"/>
-      <c r="KK60" s="2"/>
     </row>
-    <row r="61" ht="15.5" spans="1:297">
+    <row r="61" ht="15.5" spans="1:296">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -23721,9 +23645,8 @@
       <c r="KH61" s="2"/>
       <c r="KI61" s="2"/>
       <c r="KJ61" s="2"/>
-      <c r="KK61" s="2"/>
     </row>
-    <row r="62" ht="15.5" spans="1:297">
+    <row r="62" ht="15.5" spans="1:296">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -24020,9 +23943,8 @@
       <c r="KH62" s="2"/>
       <c r="KI62" s="2"/>
       <c r="KJ62" s="2"/>
-      <c r="KK62" s="2"/>
     </row>
-    <row r="63" ht="15.5" spans="1:297">
+    <row r="63" ht="15.5" spans="1:296">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -24319,9 +24241,8 @@
       <c r="KH63" s="2"/>
       <c r="KI63" s="2"/>
       <c r="KJ63" s="2"/>
-      <c r="KK63" s="2"/>
     </row>
-    <row r="64" ht="15.5" spans="1:297">
+    <row r="64" ht="15.5" spans="1:296">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -24618,9 +24539,8 @@
       <c r="KH64" s="2"/>
       <c r="KI64" s="2"/>
       <c r="KJ64" s="2"/>
-      <c r="KK64" s="2"/>
     </row>
-    <row r="65" ht="15.5" spans="1:297">
+    <row r="65" ht="15.5" spans="1:296">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -24917,9 +24837,8 @@
       <c r="KH65" s="2"/>
       <c r="KI65" s="2"/>
       <c r="KJ65" s="2"/>
-      <c r="KK65" s="2"/>
     </row>
-    <row r="66" ht="15.5" spans="1:297">
+    <row r="66" ht="15.5" spans="1:296">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -25216,9 +25135,8 @@
       <c r="KH66" s="2"/>
       <c r="KI66" s="2"/>
       <c r="KJ66" s="2"/>
-      <c r="KK66" s="2"/>
     </row>
-    <row r="67" ht="15.5" spans="1:297">
+    <row r="67" ht="15.5" spans="1:296">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -25515,17 +25433,13 @@
       <c r="KH67" s="2"/>
       <c r="KI67" s="2"/>
       <c r="KJ67" s="2"/>
-      <c r="KK67" s="2"/>
     </row>
-    <row r="68" ht="15.5" spans="1:15">
+    <row r="68" ht="15.5" spans="1:18">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -25533,64 +25447,67 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AM53" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AL53" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
-    <hyperlink ref="G2" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="G6" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="G7" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="G10" r:id="rId2" display="merryndconstable@gmail.com"/>
-    <hyperlink ref="G11" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
-    <hyperlink ref="G13" r:id="rId5" display="schaefers@uni-trier.de"/>
-    <hyperlink ref="G14" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
-    <hyperlink ref="G9" r:id="rId7" display="skumar@brookes.ac.uk"/>
-    <hyperlink ref="G16" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
-    <hyperlink ref="G18" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
-    <hyperlink ref="G22" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
-    <hyperlink ref="G30" r:id="rId3" display="hcp4715@gmail.com"/>
-    <hyperlink ref="G48" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
-    <hyperlink ref="G50" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
-    <hyperlink ref="G51" r:id="rId13" display="lfuentes@um.es"/>
-    <hyperlink ref="AL16" r:id="rId14" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
-    <hyperlink ref="AL17" r:id="rId14" display="https://osf.io/8bktn/"/>
-    <hyperlink ref="AL2" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AL3" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AL4" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AL5" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AL6" r:id="rId16" display="https://osf.io/5zaej/" tooltip="https://osf.io/5zaej/"/>
-    <hyperlink ref="AL7" r:id="rId17" display="https://osf.io/4zvkm/" tooltip="https://osf.io/4zvkm/"/>
-    <hyperlink ref="AL10" r:id="rId18" display="https://osf.io/khyjq/" tooltip="https://osf.io/khyjq/"/>
-    <hyperlink ref="AL18" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AL19" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AL20" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AL21" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AL22" r:id="rId20" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AL23" r:id="rId20" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AL24" r:id="rId20" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AL38" r:id="rId21" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d" tooltip="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="AL39" r:id="rId22" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
-    <hyperlink ref="AL25" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AL26" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AL27" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AL29" r:id="rId24" display="https://osf.io/4n6j7/" tooltip="https://osf.io/4n6j7/"/>
-    <hyperlink ref="AL30" r:id="rId25" display="https://zenodo.org/records/8031086" tooltip="https://zenodo.org/records/8031086"/>
-    <hyperlink ref="AL40" r:id="rId26" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae." tooltip="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="AL42" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW" tooltip="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="AL43" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="AL44" r:id="rId28" display="https://doi.org/10.26180/20011142" tooltip="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="AL45" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AL46" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AL47" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AL48" r:id="rId30" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497" tooltip="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="AM11" r:id="rId31" display="https://osf.io/bw27c"/>
-    <hyperlink ref="AL15" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="AL14" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025" tooltip="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="AL51" r:id="rId33" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
-    <hyperlink ref="AL52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
+    <hyperlink ref="M52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
+    <hyperlink ref="J2" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="J6" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="J7" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="J10" r:id="rId2" display="merryndconstable@gmail.com"/>
+    <hyperlink ref="J11" r:id="rId4" display="gaoxp@shnu.edu.cn."/>
+    <hyperlink ref="J13" r:id="rId5" display="schaefers@uni-trier.de"/>
+    <hyperlink ref="J14" r:id="rId6" display="mateusz.wozniak@monash.edu"/>
+    <hyperlink ref="J9" r:id="rId7" display="skumar@brookes.ac.uk"/>
+    <hyperlink ref="J16" r:id="rId8" display="marius.golubickis@plymouth.ac.uk"/>
+    <hyperlink ref="J18" r:id="rId9" display="mayanna@post.bgu.ac.il"/>
+    <hyperlink ref="J22" r:id="rId10" display="gabriela.orellana-corrales@uni-tuebingen.de"/>
+    <hyperlink ref="J30" r:id="rId3" display="hcp4715@gmail.com"/>
+    <hyperlink ref="J48" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
+    <hyperlink ref="J50" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
+    <hyperlink ref="J51" r:id="rId13" display="lfuentes@um.es"/>
+    <hyperlink ref="AK16" r:id="rId14" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
+    <hyperlink ref="AK17" r:id="rId14" display="https://osf.io/8bktn/"/>
+    <hyperlink ref="AK2" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AK3" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AK4" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AK5" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AK6" r:id="rId16" display="https://osf.io/5zaej/" tooltip="https://osf.io/5zaej/"/>
+    <hyperlink ref="AK7" r:id="rId17" display="https://osf.io/4zvkm/" tooltip="https://osf.io/4zvkm/"/>
+    <hyperlink ref="AK10" r:id="rId18" display="https://osf.io/khyjq/" tooltip="https://osf.io/khyjq/"/>
+    <hyperlink ref="AK18" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AK19" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AK20" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AK21" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AK22" r:id="rId20" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AK23" r:id="rId20" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AK24" r:id="rId20" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AK38" r:id="rId21" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d" tooltip="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="AK39" r:id="rId22" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="AK25" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AK26" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AK27" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AK29" r:id="rId24" display="https://osf.io/4n6j7/" tooltip="https://osf.io/4n6j7/"/>
+    <hyperlink ref="AK30" r:id="rId25" display="https://zenodo.org/records/8031086" tooltip="https://zenodo.org/records/8031086"/>
+    <hyperlink ref="AK40" r:id="rId26" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae." tooltip="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="AK42" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW" tooltip="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="AK43" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="AK44" r:id="rId28" display="https://doi.org/10.26180/20011142" tooltip="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="AK45" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AK46" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AK47" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AK48" r:id="rId30" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497" tooltip="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="AL11" r:id="rId31" display="https://osf.io/bw27c"/>
+    <hyperlink ref="AK15" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="AK14" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025" tooltip="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="AK51" r:id="rId33" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="AK52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -2466,10 +2466,10 @@
   <sheetPr/>
   <dimension ref="A1:KJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D53" sqref="D53"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="396">
   <si>
     <t>Note</t>
   </si>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>Wang_2016_EPHPP</t>
+  </si>
+  <si>
+    <t>Pa2E1</t>
   </si>
 </sst>
 </file>
@@ -2466,10 +2469,10 @@
   <sheetPr/>
   <dimension ref="A1:KJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -21264,8 +21267,12 @@
     </row>
     <row r="54" ht="15.5" spans="1:296">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AL$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AK$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
   <si>
     <t>Note</t>
   </si>
@@ -83,19 +83,43 @@
     <t>Others</t>
   </si>
   <si>
+    <t>Practice_Trial</t>
+  </si>
+  <si>
+    <t>Practice_Block</t>
+  </si>
+  <si>
+    <t>Formal_Trials</t>
+  </si>
+  <si>
+    <t>Formal_Block</t>
+  </si>
+  <si>
+    <t>Extra_Var</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Environmental Information</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Stimu_language</t>
+  </si>
+  <si>
     <t>Sample_Size</t>
   </si>
   <si>
-    <t>Practice_Trial</t>
-  </si>
-  <si>
-    <t>Practice_Block</t>
-  </si>
-  <si>
-    <t>Formal_Trials</t>
-  </si>
-  <si>
-    <t>Formal_Block</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Drop_Subject</t>
@@ -104,33 +128,6 @@
     <t>Remain</t>
   </si>
   <si>
-    <t>Extra_Var</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Environmental Information</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Stimu_language</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>No Gender Data</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
   </si>
   <si>
     <t>P5E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
   </si>
   <si>
     <t>P5E3</t>
@@ -897,6 +891,9 @@
     <t xml:space="preserve">Moral: </t>
   </si>
   <si>
+    <t>No Gender Data</t>
+  </si>
+  <si>
     <t>2(matching:match,mismatch)*2(reference:self,other)*3(moralcharacter:good,neutral,bad)</t>
   </si>
   <si>
@@ -1015,9 +1012,6 @@
   </si>
   <si>
     <t>https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d</t>
-  </si>
-  <si>
-    <t>CC-By Attribution 4.0 International</t>
   </si>
   <si>
     <t>Pt2E1</t>
@@ -1402,10 +1396,43 @@
     <t>Pa1E1</t>
   </si>
   <si>
+    <t>Pa1</t>
+  </si>
+  <si>
     <t>Wang_2016_EPHPP</t>
   </si>
   <si>
     <t>Pa2E1</t>
+  </si>
+  <si>
+    <t>Pa2</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso</t>
+  </si>
+  <si>
+    <t>mario.dalmaso@unipd.it</t>
+  </si>
+  <si>
+    <t>Mario Dalmaso et al.</t>
+  </si>
+  <si>
+    <t>PsychoPy + MATLAB toolbox</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>2(Condition:self_Asian vs. self_White)*2(Trials:MatchingnNonmatching)*2(Identity:Self,Other)</t>
+  </si>
+  <si>
+    <t>Dalmaso_2024_CC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/XA4H8</t>
+  </si>
+  <si>
+    <t>Pa2E2</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,11 +2155,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2467,12 +2500,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:KJ68"/>
+  <dimension ref="A1:KI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AB31" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D54" sqref="D54"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2493,29 +2528,28 @@
     <col min="15" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="20.0833333333333" customWidth="1"/>
     <col min="18" max="18" width="21.5833333333333" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
-    <col min="20" max="20" width="13.0833333333333" customWidth="1"/>
-    <col min="21" max="21" width="14.25" customWidth="1"/>
-    <col min="22" max="22" width="12.9166666666667" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="12.75" customWidth="1"/>
-    <col min="25" max="25" width="7.58333333333333" customWidth="1"/>
-    <col min="26" max="26" width="41.6666666666667" customWidth="1"/>
-    <col min="27" max="27" width="29" customWidth="1"/>
-    <col min="28" max="28" width="23.8333333333333" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" customWidth="1"/>
-    <col min="30" max="30" width="17.5833333333333" customWidth="1"/>
-    <col min="31" max="31" width="14.5" customWidth="1"/>
-    <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="9.925" customWidth="1"/>
-    <col min="34" max="34" width="15.1666666666667" customWidth="1"/>
-    <col min="35" max="35" width="118.833333333333" customWidth="1"/>
-    <col min="36" max="36" width="25.75" customWidth="1"/>
-    <col min="37" max="37" width="59.425" customWidth="1"/>
-    <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
+    <col min="19" max="19" width="13.0833333333333" customWidth="1"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="21" max="21" width="12.9166666666667" customWidth="1"/>
+    <col min="22" max="22" width="13.25" customWidth="1"/>
+    <col min="23" max="23" width="41.6666666666667" customWidth="1"/>
+    <col min="24" max="24" width="29" customWidth="1"/>
+    <col min="25" max="25" width="28.4166666666667" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5833333333333" customWidth="1"/>
+    <col min="28" max="28" width="14.5" customWidth="1"/>
+    <col min="29" max="29" width="11.75" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="31" width="9.925" customWidth="1"/>
+    <col min="32" max="32" width="12.75" customWidth="1"/>
+    <col min="33" max="33" width="7.58333333333333" customWidth="1"/>
+    <col min="34" max="34" width="118.833333333333" customWidth="1"/>
+    <col min="35" max="35" width="25.75" customWidth="1"/>
+    <col min="36" max="36" width="59.425" customWidth="1"/>
+    <col min="37" max="37" width="68.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:38">
+    <row r="1" ht="15.5" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2616,31 +2650,28 @@
       <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
       <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:295">
+      <c r="A2" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:296">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4">
@@ -2653,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L2" s="2">
         <v>2019</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -2677,61 +2708,61 @@
         <v>14</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
+        <v>96</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2">
         <v>28</v>
       </c>
-      <c r="T2" s="2">
-        <v>20</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2">
-        <v>96</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="AD2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="2">
         <v>0</v>
       </c>
-      <c r="Y2" s="2">
-        <f t="shared" ref="Y2:Y7" si="0">S2-X2</f>
+      <c r="AG2" s="2">
+        <f t="shared" ref="AG2:AG7" si="0">AC2-AF2</f>
         <v>28</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="2">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AH2" s="2"/>
       <c r="AI2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
@@ -2990,20 +3021,19 @@
       <c r="KG2" s="2"/>
       <c r="KH2" s="2"/>
       <c r="KI2" s="2"/>
-      <c r="KJ2" s="2"/>
     </row>
-    <row r="3" ht="15.5" spans="1:296">
+    <row r="3" ht="15.5" spans="1:295">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4">
@@ -3018,13 +3048,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="10"/>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2">
         <v>2019</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>2</v>
@@ -3036,61 +3066,61 @@
         <v>14</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
+        <v>96</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="2">
         <v>28</v>
       </c>
-      <c r="T3" s="2">
-        <v>20</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="2">
-        <v>96</v>
-      </c>
-      <c r="W3" s="2">
-        <v>3</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="AD3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2">
         <v>0</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AG3" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="2">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>22</v>
-      </c>
-      <c r="AH3" s="2"/>
       <c r="AI3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
@@ -3349,20 +3379,19 @@
       <c r="KG3" s="2"/>
       <c r="KH3" s="2"/>
       <c r="KI3" s="2"/>
-      <c r="KJ3" s="2"/>
     </row>
-    <row r="4" ht="15.5" spans="1:296">
+    <row r="4" ht="15.5" spans="1:295">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
@@ -3377,13 +3406,13 @@
       <c r="I4" s="2"/>
       <c r="J4" s="10"/>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2">
         <v>2019</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
@@ -3395,61 +3424,61 @@
         <v>14</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U4" s="2">
+        <v>96</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="2">
         <v>28</v>
       </c>
-      <c r="T4" s="2">
-        <v>20</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="2">
-        <v>96</v>
-      </c>
-      <c r="W4" s="2">
-        <v>3</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="AD4" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="2">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AG4" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>14</v>
-      </c>
-      <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -3708,20 +3737,19 @@
       <c r="KG4" s="2"/>
       <c r="KH4" s="2"/>
       <c r="KI4" s="2"/>
-      <c r="KJ4" s="2"/>
     </row>
-    <row r="5" ht="15.5" spans="1:296">
+    <row r="5" ht="15.5" spans="1:295">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
@@ -3736,13 +3764,13 @@
       <c r="I5" s="2"/>
       <c r="J5" s="10"/>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2">
         <v>2019</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3751,62 +3779,62 @@
         <v>4</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2">
+        <v>50</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="2">
+        <v>80</v>
+      </c>
+      <c r="V5" s="2">
+        <v>8</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="AC5" s="2">
         <v>40</v>
       </c>
-      <c r="T5" s="2">
-        <v>50</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="2">
-        <v>80</v>
-      </c>
-      <c r="W5" s="2">
-        <v>8</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="AD5" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="2">
         <v>0</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AG5" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>14</v>
-      </c>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK5" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
@@ -4065,23 +4093,22 @@
       <c r="KG5" s="2"/>
       <c r="KH5" s="2"/>
       <c r="KI5" s="2"/>
-      <c r="KJ5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:296">
+    <row r="6" ht="18" customHeight="1" spans="1:295">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -4093,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2">
         <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -4117,67 +4144,65 @@
         <v>14</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="2">
+        <v>24</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="2">
+        <v>240</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="2">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="2">
         <v>92</v>
       </c>
-      <c r="T6" s="2">
-        <v>24</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="2">
-        <v>240</v>
-      </c>
-      <c r="W6" s="2">
-        <v>4</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="AD6" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="2">
         <v>0</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AG6" s="2">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
@@ -4436,18 +4461,17 @@
       <c r="KG6" s="2"/>
       <c r="KH6" s="2"/>
       <c r="KI6" s="2"/>
-      <c r="KJ6" s="2"/>
     </row>
-    <row r="7" ht="15.5" spans="1:296">
+    <row r="7" ht="15.5" spans="1:295">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
@@ -4460,19 +4484,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="L7" s="2">
         <v>2020</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -4485,58 +4509,58 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="2">
+        <v>48</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="2">
+        <v>312</v>
+      </c>
+      <c r="V7" s="2">
+        <v>14</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="2">
+      <c r="AA7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="2">
         <v>46</v>
       </c>
-      <c r="T7" s="2">
-        <v>48</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" s="2">
-        <v>312</v>
-      </c>
-      <c r="W7" s="2">
-        <v>14</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="AD7" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="2">
         <v>5</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AG7" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AF7" s="2">
-        <v>19</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>27</v>
-      </c>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
@@ -4795,23 +4819,22 @@
       <c r="KG7" s="2"/>
       <c r="KH7" s="2"/>
       <c r="KI7" s="2"/>
-      <c r="KJ7" s="2"/>
     </row>
-    <row r="8" ht="31" spans="1:296">
+    <row r="8" ht="31" spans="1:295">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4823,19 +4846,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="L8" s="2">
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -4847,59 +4870,59 @@
         <v>14</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="2">
+        <v>100</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="AB8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="2">
         <v>31</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="2">
-        <v>100</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="AD8" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AG8" s="2">
         <v>31</v>
       </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>14</v>
-      </c>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
@@ -5158,43 +5181,42 @@
       <c r="KG8" s="2"/>
       <c r="KH8" s="2"/>
       <c r="KI8" s="2"/>
-      <c r="KJ8" s="2"/>
     </row>
-    <row r="9" ht="62" spans="1:296">
+    <row r="9" ht="62" spans="1:295">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="L9" s="2">
         <v>2021</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
@@ -5207,62 +5229,62 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S9" s="2">
+        <v>12</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="2">
+        <v>960</v>
+      </c>
+      <c r="V9" s="2">
+        <v>7</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="2">
         <v>40</v>
       </c>
-      <c r="T9" s="2">
-        <v>12</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="2">
-        <v>960</v>
-      </c>
-      <c r="W9" s="2">
+      <c r="AD9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="2">
         <v>7</v>
       </c>
-      <c r="X9" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="2">
+      <c r="AG9" s="2">
         <v>33</v>
       </c>
-      <c r="Z9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AK9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -5520,18 +5542,17 @@
       <c r="KG9" s="2"/>
       <c r="KH9" s="2"/>
       <c r="KI9" s="2"/>
-      <c r="KJ9" s="2"/>
     </row>
-    <row r="10" ht="15.5" spans="1:296">
+    <row r="10" ht="15.5" spans="1:295">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="4">
@@ -5544,19 +5565,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="L10" s="2">
         <v>2020</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N10" s="2">
         <v>2</v>
@@ -5569,58 +5590,58 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S10" s="2">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="2">
+        <v>192</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="2">
         <v>56</v>
       </c>
-      <c r="T10" s="2">
-        <v>8</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="2">
-        <v>192</v>
-      </c>
-      <c r="W10" s="2">
-        <v>4</v>
-      </c>
-      <c r="X10" s="2">
+      <c r="AD10" s="2">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="2">
         <v>5</v>
       </c>
-      <c r="Y10" s="2">
-        <f>S10-X10</f>
+      <c r="AG10" s="2">
+        <f>AC10-AF10</f>
         <v>51</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>25</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>31</v>
-      </c>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="AI10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK10" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
@@ -5879,23 +5900,22 @@
       <c r="KG10" s="2"/>
       <c r="KH10" s="2"/>
       <c r="KI10" s="2"/>
-      <c r="KJ10" s="2"/>
     </row>
-    <row r="11" ht="31" spans="1:296">
+    <row r="11" ht="31" spans="1:295">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -5907,19 +5927,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="L11" s="2">
         <v>2020</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -5932,63 +5952,63 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="2">
+        <v>10</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="2">
+        <v>144</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="S11" s="2">
+      <c r="AB11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" s="2">
         <v>26</v>
       </c>
-      <c r="T11" s="2">
+      <c r="AD11" s="2">
         <v>10</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="2">
-        <v>144</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="AE11" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="2">
         <v>2</v>
       </c>
-      <c r="Y11" s="2">
-        <f>S11-X11</f>
+      <c r="AG11" s="2">
+        <f>AC11-AF11</f>
         <v>24</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>16</v>
-      </c>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AK11" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -6246,21 +6266,20 @@
       <c r="KG11" s="2"/>
       <c r="KH11" s="2"/>
       <c r="KI11" s="2"/>
-      <c r="KJ11" s="2"/>
     </row>
-    <row r="12" ht="31" spans="1:296">
+    <row r="12" ht="31" spans="1:295">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6274,13 +6293,13 @@
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
       <c r="K12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L12" s="2">
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N12" s="2">
         <v>2</v>
@@ -6293,65 +6312,65 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="2">
+        <v>100</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>AC12-AF12</f>
+        <v>25</v>
+      </c>
+      <c r="AH12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S12" s="2">
-        <v>26</v>
-      </c>
-      <c r="T12" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="2">
-        <v>100</v>
-      </c>
-      <c r="W12" s="2">
-        <v>2</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="2">
-        <f>S12-X12</f>
-        <v>25</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>19</v>
-      </c>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AK12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL12" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -6609,45 +6628,44 @@
       <c r="KG12" s="2"/>
       <c r="KH12" s="2"/>
       <c r="KI12" s="2"/>
-      <c r="KJ12" s="2"/>
     </row>
-    <row r="13" ht="46.5" spans="1:296">
+    <row r="13" ht="46.5" spans="1:295">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="L13" s="2">
         <v>2019</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -6659,66 +6677,66 @@
         <v>14</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" s="2">
+        <v>48</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="2">
         <v>144</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="V13" s="2">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="S13" s="2">
+      <c r="AB13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC13" s="2">
         <v>103</v>
       </c>
-      <c r="T13" s="2">
-        <v>48</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="2">
-        <v>144</v>
-      </c>
-      <c r="W13" s="2">
-        <v>3</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="AD13" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF13" s="2">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <f>S13-X13</f>
+      <c r="AG13" s="2">
+        <f>AC13-AF13</f>
         <v>103</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AH13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="2">
-        <v>13</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2" t="s">
+      <c r="AJ13" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AK13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -6976,23 +6994,22 @@
       <c r="KG13" s="2"/>
       <c r="KH13" s="2"/>
       <c r="KI13" s="2"/>
-      <c r="KJ13" s="2"/>
     </row>
-    <row r="14" ht="28" spans="1:296">
+    <row r="14" ht="28" spans="1:295">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -7004,19 +7021,19 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="L14" s="2">
         <v>2018</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -7028,68 +7045,66 @@
         <v>14</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S14" s="2">
+        <v>24</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="2">
+        <v>672</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC14" s="2">
         <v>19</v>
       </c>
-      <c r="T14" s="2">
-        <v>24</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="2">
-        <v>672</v>
-      </c>
-      <c r="W14" s="2">
-        <v>4</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="AD14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="2">
         <v>1</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" ref="Y14:Y24" si="1">S14-X14</f>
+      <c r="AG14" s="2">
+        <f t="shared" ref="AG14:AG24" si="1">AC14-AF14</f>
         <v>18</v>
       </c>
-      <c r="Z14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AJ14" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK14" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -7346,23 +7361,22 @@
       <c r="KG14" s="2"/>
       <c r="KH14" s="2"/>
       <c r="KI14" s="2"/>
-      <c r="KJ14" s="2"/>
     </row>
-    <row r="15" ht="28" spans="1:296">
+    <row r="15" ht="28" spans="1:295">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -7376,13 +7390,13 @@
       <c r="I15" s="2"/>
       <c r="J15" s="10"/>
       <c r="K15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" s="2">
         <v>2018</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N15" s="2">
         <v>2</v>
@@ -7394,68 +7408,66 @@
         <v>14</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S15" s="2">
+        <v>24</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="2">
+        <v>672</v>
+      </c>
+      <c r="V15" s="2">
+        <v>4</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="2">
         <v>20</v>
       </c>
-      <c r="T15" s="2">
-        <v>24</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="2">
-        <v>672</v>
-      </c>
-      <c r="W15" s="2">
-        <v>4</v>
-      </c>
-      <c r="X15" s="2">
+      <c r="AD15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="2">
         <v>2</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AG15" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AJ15" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>9</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK15" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -7713,23 +7725,22 @@
       <c r="KG15" s="2"/>
       <c r="KH15" s="2"/>
       <c r="KI15" s="2"/>
-      <c r="KJ15" s="2"/>
     </row>
-    <row r="16" ht="15.5" spans="1:296">
+    <row r="16" ht="15.5" spans="1:295">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -7741,19 +7752,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="L16" s="2">
         <v>2021</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -7765,68 +7776,66 @@
         <v>14</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S16" s="2">
+        <v>12</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="2">
+        <v>360</v>
+      </c>
+      <c r="V16" s="2">
+        <v>6</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="2">
         <v>30</v>
       </c>
-      <c r="T16" s="2">
-        <v>12</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="2">
-        <v>360</v>
-      </c>
-      <c r="W16" s="2">
-        <v>6</v>
-      </c>
-      <c r="X16" s="2">
+      <c r="AD16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF16" s="2">
         <v>5</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AG16" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AE16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>21</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -8084,21 +8093,20 @@
       <c r="KG16" s="2"/>
       <c r="KH16" s="2"/>
       <c r="KI16" s="2"/>
-      <c r="KJ16" s="2"/>
     </row>
-    <row r="17" ht="15.5" spans="1:296">
+    <row r="17" ht="15.5" spans="1:295">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -8112,13 +8120,13 @@
       <c r="I17" s="2"/>
       <c r="J17" s="10"/>
       <c r="K17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L17" s="2">
         <v>2021</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N17" s="2">
         <v>2</v>
@@ -8130,66 +8138,64 @@
         <v>14</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S17" s="2">
+        <v>12</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="2">
+        <v>360</v>
+      </c>
+      <c r="V17" s="2">
+        <v>6</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="2">
         <v>30</v>
       </c>
-      <c r="T17" s="2">
-        <v>12</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" s="2">
-        <v>360</v>
-      </c>
-      <c r="W17" s="2">
-        <v>6</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="AD17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" s="2">
         <v>5</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AG17" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>20</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AJ17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK17" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
@@ -8447,21 +8453,20 @@
       <c r="KG17" s="2"/>
       <c r="KH17" s="2"/>
       <c r="KI17" s="2"/>
-      <c r="KJ17" s="2"/>
     </row>
-    <row r="18" ht="15.5" spans="1:296">
+    <row r="18" ht="15.5" spans="1:295">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -8473,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="L18" s="2">
         <v>2021</v>
@@ -8495,64 +8500,64 @@
         <v>14</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S18" s="2">
+        <v>12</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>360</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC18" s="2">
         <v>13</v>
       </c>
-      <c r="T18" s="2">
-        <v>12</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>360</v>
-      </c>
-      <c r="W18" s="2">
+      <c r="AD18" s="2">
         <v>3</v>
       </c>
-      <c r="X18" s="2">
+      <c r="AE18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="2">
         <v>0</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AG18" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AJ18" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="AF18" s="2">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2" t="s">
+      <c r="AK18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AK18" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -8810,21 +8815,20 @@
       <c r="KG18" s="2"/>
       <c r="KH18" s="2"/>
       <c r="KI18" s="2"/>
-      <c r="KJ18" s="2"/>
     </row>
-    <row r="19" ht="15.5" spans="1:296">
+    <row r="19" ht="15.5" spans="1:295">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -8838,7 +8842,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="10"/>
       <c r="K19" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L19" s="2">
         <v>2021</v>
@@ -8851,67 +8855,67 @@
         <v>2</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S19" s="2">
+        <v>12</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>360</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC19" s="2">
         <v>27</v>
       </c>
-      <c r="T19" s="2">
-        <v>12</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="2">
-        <v>360</v>
-      </c>
-      <c r="W19" s="2">
-        <v>3</v>
-      </c>
-      <c r="X19" s="2">
+      <c r="AD19" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF19" s="2">
         <v>0</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AG19" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AJ19" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AF19" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>18</v>
-      </c>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2" t="s">
+      <c r="AK19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AK19" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -9169,21 +9173,20 @@
       <c r="KG19" s="2"/>
       <c r="KH19" s="2"/>
       <c r="KI19" s="2"/>
-      <c r="KJ19" s="2"/>
     </row>
-    <row r="20" ht="15.5" spans="1:296">
+    <row r="20" ht="15.5" spans="1:295">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -9197,7 +9200,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="10"/>
       <c r="K20" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L20" s="2">
         <v>2021</v>
@@ -9213,64 +9216,64 @@
         <v>14</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S20" s="2">
+        <v>12</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>360</v>
+      </c>
+      <c r="V20" s="2">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC20" s="2">
         <v>27</v>
       </c>
-      <c r="T20" s="2">
+      <c r="AD20" s="2">
         <v>12</v>
       </c>
-      <c r="U20" s="2">
-        <v>1</v>
-      </c>
-      <c r="V20" s="2">
-        <v>360</v>
-      </c>
-      <c r="W20" s="2">
-        <v>3</v>
-      </c>
-      <c r="X20" s="2">
+      <c r="AE20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF20" s="2">
         <v>0</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AG20" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AJ20" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AF20" s="2">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>15</v>
-      </c>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2" t="s">
+      <c r="AK20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AK20" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -9528,21 +9531,20 @@
       <c r="KG20" s="2"/>
       <c r="KH20" s="2"/>
       <c r="KI20" s="2"/>
-      <c r="KJ20" s="2"/>
     </row>
-    <row r="21" ht="15.5" spans="1:296">
+    <row r="21" ht="15.5" spans="1:295">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -9556,7 +9558,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="10"/>
       <c r="K21" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L21" s="2">
         <v>2021</v>
@@ -9572,64 +9574,64 @@
         <v>14</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S21" s="2">
+        <v>12</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>360</v>
+      </c>
+      <c r="V21" s="2">
+        <v>3</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC21" s="2">
         <v>26</v>
       </c>
-      <c r="T21" s="2">
-        <v>12</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="AD21" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="2">
         <v>1</v>
       </c>
-      <c r="V21" s="2">
-        <v>360</v>
-      </c>
-      <c r="W21" s="2">
-        <v>3</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2">
+      <c r="AG21" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AJ21" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AF21" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>18</v>
-      </c>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2" t="s">
+      <c r="AK21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AK21" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
@@ -9887,18 +9889,17 @@
       <c r="KG21" s="2"/>
       <c r="KH21" s="2"/>
       <c r="KI21" s="2"/>
-      <c r="KJ21" s="2"/>
     </row>
-    <row r="22" ht="15.5" spans="1:296">
+    <row r="22" ht="15.5" spans="1:295">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4">
@@ -9911,19 +9912,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="L22" s="2">
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
@@ -9936,60 +9937,60 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S22" s="2">
+        <v>84</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="2">
+        <v>128</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC22" s="2">
         <v>38</v>
       </c>
-      <c r="T22" s="2">
-        <v>84</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V22" s="2">
-        <v>128</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X22" s="2">
+      <c r="AD22" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF22" s="2">
         <v>4</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AG22" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AE22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>9</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>29</v>
-      </c>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2" t="s">
+      <c r="AJ22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK22" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
@@ -10248,18 +10249,17 @@
       <c r="KG22" s="2"/>
       <c r="KH22" s="2"/>
       <c r="KI22" s="2"/>
-      <c r="KJ22" s="2"/>
     </row>
-    <row r="23" ht="15.5" spans="1:296">
+    <row r="23" ht="15.5" spans="1:295">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4">
@@ -10274,13 +10274,13 @@
       <c r="I23" s="2"/>
       <c r="J23" s="10"/>
       <c r="K23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L23" s="2">
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2">
         <v>2</v>
@@ -10293,60 +10293,60 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S23" s="2">
+        <v>24</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="2">
+        <v>240</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC23" s="2">
         <v>33</v>
       </c>
-      <c r="T23" s="2">
-        <v>24</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" s="2">
-        <v>240</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X23" s="2">
+      <c r="AD23" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF23" s="2">
         <v>2</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AG23" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AE23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>26</v>
-      </c>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK23" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="AJ23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
@@ -10605,18 +10605,17 @@
       <c r="KG23" s="2"/>
       <c r="KH23" s="2"/>
       <c r="KI23" s="2"/>
-      <c r="KJ23" s="2"/>
     </row>
-    <row r="24" ht="15.5" spans="1:296">
+    <row r="24" ht="15.5" spans="1:295">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -10631,13 +10630,13 @@
       <c r="I24" s="2"/>
       <c r="J24" s="10"/>
       <c r="K24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L24" s="2">
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2">
         <v>3</v>
@@ -10650,60 +10649,60 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S24" s="2">
+        <v>24</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="2">
+        <v>240</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC24" s="2">
         <v>36</v>
       </c>
-      <c r="T24" s="2">
-        <v>24</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24" s="2">
-        <v>240</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="2">
+      <c r="AD24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="2">
         <v>1</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AG24" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AE24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>29</v>
-      </c>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK24" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="AJ24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
@@ -10962,21 +10961,20 @@
       <c r="KG24" s="2"/>
       <c r="KH24" s="2"/>
       <c r="KI24" s="2"/>
-      <c r="KJ24" s="2"/>
     </row>
-    <row r="25" ht="15.5" spans="1:296">
+    <row r="25" ht="15.5" spans="1:295">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -10988,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="L25" s="2">
         <v>2022</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
@@ -11012,59 +11010,59 @@
         <v>14</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2">
+        <v>10</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="2">
+        <v>200</v>
+      </c>
+      <c r="V25" s="2">
+        <v>4</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC25" s="2">
         <v>20</v>
       </c>
-      <c r="T25" s="2">
-        <v>10</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="2">
-        <v>200</v>
-      </c>
-      <c r="W25" s="2">
-        <v>4</v>
-      </c>
-      <c r="X25" s="2">
+      <c r="AD25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="2">
         <v>0</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25:Y48" si="2">S25-X25</f>
+      <c r="AG25" s="2">
+        <f t="shared" ref="AG25:AG48" si="2">AC25-AF25</f>
         <v>20</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AH25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AE25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>6</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>14</v>
-      </c>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2" t="s">
+      <c r="AJ25" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="AJ25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK25" s="14" t="s">
-        <v>218</v>
-      </c>
+      <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
@@ -11323,21 +11321,20 @@
       <c r="KG25" s="2"/>
       <c r="KH25" s="2"/>
       <c r="KI25" s="2"/>
-      <c r="KJ25" s="2"/>
     </row>
-    <row r="26" ht="15.5" spans="1:296">
+    <row r="26" ht="15.5" spans="1:295">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -11351,13 +11348,13 @@
       <c r="I26" s="2"/>
       <c r="J26" s="10"/>
       <c r="K26" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L26" s="2">
         <v>2022</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2">
         <v>2</v>
@@ -11369,61 +11366,61 @@
         <v>14</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2">
+        <v>10</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U26" s="2">
+        <v>400</v>
+      </c>
+      <c r="V26" s="2">
+        <v>2</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" s="2">
         <v>24</v>
       </c>
-      <c r="T26" s="2">
-        <v>10</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V26" s="2">
-        <v>400</v>
-      </c>
-      <c r="W26" s="2">
-        <v>2</v>
-      </c>
-      <c r="X26" s="2">
+      <c r="AD26" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF26" s="2">
         <v>0</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AG26" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Z26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AH26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AE26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>16</v>
-      </c>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK26" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="AJ26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
@@ -11682,21 +11679,20 @@
       <c r="KG26" s="2"/>
       <c r="KH26" s="2"/>
       <c r="KI26" s="2"/>
-      <c r="KJ26" s="2"/>
     </row>
-    <row r="27" ht="15.5" spans="1:296">
+    <row r="27" ht="15.5" spans="1:295">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -11710,13 +11706,13 @@
       <c r="I27" s="2"/>
       <c r="J27" s="10"/>
       <c r="K27" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L27" s="2">
         <v>2022</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N27" s="2">
         <v>3</v>
@@ -11728,61 +11724,61 @@
         <v>14</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2">
+        <v>10</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="2">
+        <v>400</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC27" s="2">
         <v>25</v>
       </c>
-      <c r="T27" s="2">
-        <v>10</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V27" s="2">
-        <v>400</v>
-      </c>
-      <c r="W27" s="2">
-        <v>2</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="AD27" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF27" s="2">
         <v>0</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AG27" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="Z27" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD27" s="2" t="s">
+      <c r="AH27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AE27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>18</v>
-      </c>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK27" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="AJ27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
@@ -12041,21 +12037,20 @@
       <c r="KG27" s="2"/>
       <c r="KH27" s="2"/>
       <c r="KI27" s="2"/>
-      <c r="KJ27" s="2"/>
     </row>
-    <row r="28" ht="31" spans="1:296">
+    <row r="28" ht="31" spans="1:295">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -12067,19 +12062,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="L28" s="2">
         <v>2021</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -12091,63 +12086,63 @@
         <v>14</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S28" s="2">
+        <v>12</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" s="2">
+        <v>360</v>
+      </c>
+      <c r="V28" s="2">
+        <v>3</v>
+      </c>
+      <c r="W28" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC28" s="2">
         <v>105</v>
       </c>
-      <c r="T28" s="2">
-        <v>12</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V28" s="2">
-        <v>360</v>
-      </c>
-      <c r="W28" s="2">
-        <v>3</v>
-      </c>
-      <c r="X28" s="2">
+      <c r="AD28" s="2">
+        <v>51</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>54</v>
+      </c>
+      <c r="AF28" s="2">
         <v>0</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AG28" s="2">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AJ28" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="AE28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK28" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
@@ -12406,47 +12401,46 @@
       <c r="KG28" s="2"/>
       <c r="KH28" s="2"/>
       <c r="KI28" s="2"/>
-      <c r="KJ28" s="2"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:296">
+    <row r="29" ht="17" customHeight="1" spans="1:295">
       <c r="A29" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="L29" s="2">
         <v>2023</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>
@@ -12459,61 +12453,61 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="2">
+        <v>64</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC29" s="2">
         <v>302</v>
       </c>
-      <c r="T29" s="2">
-        <v>1</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V29" s="2">
-        <v>64</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X29" s="2">
+      <c r="AD29" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF29" s="2">
         <v>3</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AG29" s="2">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2" t="s">
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AC29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AJ29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AE29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>132</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>161</v>
-      </c>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2" t="s">
+      <c r="AK29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AK29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL29" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
@@ -12771,23 +12765,22 @@
       <c r="KG29" s="2"/>
       <c r="KH29" s="2"/>
       <c r="KI29" s="2"/>
-      <c r="KJ29" s="2"/>
     </row>
-    <row r="30" ht="15.5" spans="1:296">
+    <row r="30" ht="15.5" spans="1:295">
       <c r="A30" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -12799,13 +12792,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="L30" s="2">
         <v>2023</v>
@@ -12815,68 +12808,68 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S30" s="2">
+        <v>65</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="2">
+        <v>90</v>
+      </c>
+      <c r="V30" s="2">
+        <v>2</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC30" s="2">
         <v>23</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V30" s="2">
-        <v>90</v>
-      </c>
-      <c r="W30" s="2">
-        <v>2</v>
-      </c>
-      <c r="X30" s="2">
+      <c r="AD30" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="2">
         <v>1</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AG30" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="AH30" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="AI30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AJ30" s="2" t="s">
+      <c r="AJ30" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="AK30" s="10" t="s">
+      <c r="AK30" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL30" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
@@ -13134,23 +13127,22 @@
       <c r="KG30" s="2"/>
       <c r="KH30" s="2"/>
       <c r="KI30" s="2"/>
-      <c r="KJ30" s="2"/>
     </row>
-    <row r="31" ht="15.5" spans="1:296">
+    <row r="31" ht="15.5" spans="1:295">
       <c r="A31" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -13164,7 +13156,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="10"/>
       <c r="K31" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L31" s="2">
         <v>2014</v>
@@ -13174,50 +13166,50 @@
         <v>1</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S31" s="2">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2">
+      <c r="U31" s="2">
         <v>40</v>
       </c>
+      <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2">
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="AI31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
@@ -13477,23 +13469,22 @@
       <c r="KG31" s="2"/>
       <c r="KH31" s="2"/>
       <c r="KI31" s="2"/>
-      <c r="KJ31" s="2"/>
     </row>
-    <row r="32" ht="15.5" spans="1:296">
+    <row r="32" ht="15.5" spans="1:295">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -13507,7 +13498,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="10"/>
       <c r="K32" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L32" s="2">
         <v>2015</v>
@@ -13517,50 +13508,50 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S32" s="2">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2">
+      <c r="U32" s="2">
         <v>40</v>
       </c>
+      <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="AI32" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
@@ -13820,23 +13811,22 @@
       <c r="KG32" s="2"/>
       <c r="KH32" s="2"/>
       <c r="KI32" s="2"/>
-      <c r="KJ32" s="2"/>
     </row>
-    <row r="33" ht="15.5" spans="1:296">
+    <row r="33" ht="15.5" spans="1:295">
       <c r="A33" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -13850,7 +13840,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="10"/>
       <c r="K33" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L33" s="2">
         <v>2015</v>
@@ -13860,50 +13850,50 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S33" s="2">
-        <v>21</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2">
+      <c r="U33" s="2">
         <v>40</v>
       </c>
+      <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="AI33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
@@ -14163,23 +14153,22 @@
       <c r="KG33" s="2"/>
       <c r="KH33" s="2"/>
       <c r="KI33" s="2"/>
-      <c r="KJ33" s="2"/>
     </row>
-    <row r="34" ht="15.5" spans="1:296">
+    <row r="34" ht="15.5" spans="1:295">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -14193,13 +14182,13 @@
       <c r="I34" s="2"/>
       <c r="J34" s="10"/>
       <c r="K34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L34" s="2">
         <v>2014</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2">
         <v>1</v>
@@ -14211,46 +14200,46 @@
         <v>14</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2">
+        <v>60</v>
+      </c>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S34" s="2">
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC34" s="2">
         <v>24</v>
       </c>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2">
-        <v>60</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2">
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AE34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
@@ -14510,23 +14499,22 @@
       <c r="KG34" s="2"/>
       <c r="KH34" s="2"/>
       <c r="KI34" s="2"/>
-      <c r="KJ34" s="2"/>
     </row>
-    <row r="35" ht="15.5" spans="1:296">
+    <row r="35" ht="15.5" spans="1:295">
       <c r="A35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -14540,13 +14528,13 @@
       <c r="I35" s="2"/>
       <c r="J35" s="10"/>
       <c r="K35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L35" s="2">
         <v>2014</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2">
         <v>2</v>
@@ -14558,46 +14546,46 @@
         <v>14</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S35" s="2">
+        <v>65</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2">
+        <v>60</v>
+      </c>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC35" s="2">
         <v>18</v>
       </c>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2">
-        <v>60</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2">
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Z35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AE35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
@@ -14857,23 +14845,22 @@
       <c r="KG35" s="2"/>
       <c r="KH35" s="2"/>
       <c r="KI35" s="2"/>
-      <c r="KJ35" s="2"/>
     </row>
-    <row r="36" ht="15.5" spans="1:296">
+    <row r="36" ht="15.5" spans="1:295">
       <c r="A36" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -14887,13 +14874,13 @@
       <c r="I36" s="2"/>
       <c r="J36" s="10"/>
       <c r="K36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L36" s="2">
         <v>2014</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N36" s="2">
         <v>3</v>
@@ -14905,46 +14892,46 @@
         <v>14</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S36" s="2">
+        <v>65</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2">
+        <v>60</v>
+      </c>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC36" s="2">
         <v>22</v>
       </c>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2">
-        <v>60</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2">
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Z36" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AE36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
@@ -15204,23 +15191,22 @@
       <c r="KG36" s="2"/>
       <c r="KH36" s="2"/>
       <c r="KI36" s="2"/>
-      <c r="KJ36" s="2"/>
     </row>
-    <row r="37" ht="15.5" spans="1:296">
+    <row r="37" ht="15.5" spans="1:295">
       <c r="A37" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -15234,13 +15220,13 @@
       <c r="I37" s="2"/>
       <c r="J37" s="10"/>
       <c r="K37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="2">
         <v>2014</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N37" s="2">
         <v>4</v>
@@ -15252,47 +15238,47 @@
         <v>14</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" s="2">
+        <v>65</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2">
+        <v>60</v>
+      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC37" s="2">
         <v>20</v>
       </c>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2">
-        <v>60</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2">
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z37" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AE37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -15550,21 +15536,20 @@
       <c r="KG37" s="2"/>
       <c r="KH37" s="2"/>
       <c r="KI37" s="2"/>
-      <c r="KJ37" s="2"/>
     </row>
-    <row r="38" ht="15.5" spans="1:296">
+    <row r="38" ht="15.5" spans="1:295">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -15576,19 +15561,19 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="L38" s="2">
         <v>2023</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N38" s="2">
         <v>1</v>
@@ -15601,61 +15586,61 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S38" s="2">
+        <v>65</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2">
+        <v>24</v>
+      </c>
+      <c r="U38" s="2">
+        <v>240</v>
+      </c>
+      <c r="V38" s="2">
+        <v>4</v>
+      </c>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC38" s="2">
         <v>40</v>
       </c>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2">
-        <v>24</v>
-      </c>
-      <c r="V38" s="2">
-        <v>240</v>
-      </c>
-      <c r="W38" s="2">
-        <v>4</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="AD38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF38" s="2">
         <v>3</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AG38" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AI38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AJ38" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="AK38" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="AK38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
@@ -15913,21 +15898,20 @@
       <c r="KG38" s="2"/>
       <c r="KH38" s="2"/>
       <c r="KI38" s="2"/>
-      <c r="KJ38" s="2"/>
     </row>
-    <row r="39" ht="15.5" spans="1:296">
+    <row r="39" ht="15.5" spans="1:295">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -15939,19 +15923,19 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L39" s="2">
         <v>2023</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N39" s="2">
         <v>1</v>
@@ -15963,62 +15947,62 @@
         <v>14</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S39" s="2">
+        <v>65</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="2">
+        <v>60</v>
+      </c>
+      <c r="V39" s="2">
+        <v>2</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" s="2">
         <v>144</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V39" s="2">
-        <v>60</v>
-      </c>
-      <c r="W39" s="2">
+      <c r="AD39" s="2">
+        <v>31</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF39" s="2">
         <v>2</v>
       </c>
-      <c r="X39" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="2">
-        <f t="shared" ref="Y39:Y48" si="3">S39-X39</f>
+      <c r="AG39" s="2">
+        <f t="shared" ref="AG39:AG48" si="3">AC39-AF39</f>
         <v>142</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ39" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="AE39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AK39" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -16276,21 +16260,20 @@
       <c r="KG39" s="2"/>
       <c r="KH39" s="2"/>
       <c r="KI39" s="2"/>
-      <c r="KJ39" s="2"/>
     </row>
-    <row r="40" ht="62" spans="1:296">
+    <row r="40" ht="62" spans="1:295">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -16302,19 +16285,19 @@
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="L40" s="2">
         <v>2021</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N40" s="2">
         <v>1</v>
@@ -16326,68 +16309,68 @@
         <v>14</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S40" s="2">
+        <v>65</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" s="2">
+        <v>360</v>
+      </c>
+      <c r="V40" s="2">
+        <v>6</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC40" s="2">
         <v>109</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V40" s="2">
-        <v>360</v>
-      </c>
-      <c r="W40" s="2">
-        <v>6</v>
-      </c>
-      <c r="X40" s="2">
+      <c r="AD40" s="2">
+        <v>50</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>59</v>
+      </c>
+      <c r="AF40" s="2">
         <v>1</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="AG40" s="2">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AJ40" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="AB40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>59</v>
-      </c>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2" t="s">
+      <c r="AK40" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AK40" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL40" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
@@ -16645,23 +16628,22 @@
       <c r="KG40" s="2"/>
       <c r="KH40" s="2"/>
       <c r="KI40" s="2"/>
-      <c r="KJ40" s="2"/>
     </row>
-    <row r="41" ht="15.5" spans="1:296">
+    <row r="41" ht="15.5" spans="1:295">
       <c r="A41" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -16675,13 +16657,13 @@
       <c r="I41" s="2"/>
       <c r="J41" s="10"/>
       <c r="K41" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L41" s="2">
         <v>2023</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N41" s="2">
         <v>1</v>
@@ -16693,51 +16675,51 @@
         <v>14</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="T41" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U41" s="2">
+        <v>300</v>
+      </c>
+      <c r="V41" s="2">
         <v>1</v>
       </c>
-      <c r="V41" s="2">
-        <v>300</v>
-      </c>
-      <c r="W41" s="2">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="2">
-        <f t="shared" si="3"/>
-        <v>39</v>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>32</v>
       </c>
       <c r="AF41" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2" t="s">
-        <v>315</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
@@ -16998,21 +16980,20 @@
       <c r="KG41" s="2"/>
       <c r="KH41" s="2"/>
       <c r="KI41" s="2"/>
-      <c r="KJ41" s="2"/>
     </row>
-    <row r="42" ht="15.5" spans="1:296">
+    <row r="42" ht="15.5" spans="1:295">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -17024,19 +17005,19 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="L42" s="2">
         <v>2022</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2">
         <v>1</v>
@@ -17049,65 +17030,65 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S42" s="2">
+        <v>24</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>240</v>
+      </c>
+      <c r="V42" s="2">
+        <v>2</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC42" s="2">
         <v>30</v>
       </c>
-      <c r="T42" s="2">
-        <v>24</v>
-      </c>
-      <c r="U42" s="2">
-        <v>1</v>
-      </c>
-      <c r="V42" s="2">
-        <v>240</v>
-      </c>
-      <c r="W42" s="2">
-        <v>2</v>
-      </c>
-      <c r="X42" s="2">
+      <c r="AD42" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF42" s="2">
         <v>3</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="AG42" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="Z42" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AF42" s="2">
-        <v>14</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>16</v>
-      </c>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2" t="s">
+      <c r="AJ42" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AJ42" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK42" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="AK42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
@@ -17365,21 +17346,20 @@
       <c r="KG42" s="2"/>
       <c r="KH42" s="2"/>
       <c r="KI42" s="2"/>
-      <c r="KJ42" s="2"/>
     </row>
-    <row r="43" ht="15.5" spans="1:296">
+    <row r="43" ht="15.5" spans="1:295">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -17393,13 +17373,13 @@
       <c r="I43" s="2"/>
       <c r="J43" s="10"/>
       <c r="K43" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L43" s="2">
         <v>2022</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N43" s="2">
         <v>2</v>
@@ -17412,65 +17392,65 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S43" s="2">
+        <v>24</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>240</v>
+      </c>
+      <c r="V43" s="2">
+        <v>2</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC43" s="2">
         <v>104</v>
       </c>
-      <c r="T43" s="2">
-        <v>24</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1</v>
-      </c>
-      <c r="V43" s="2">
-        <v>240</v>
-      </c>
-      <c r="W43" s="2">
+      <c r="AD43" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF43" s="2">
         <v>2</v>
       </c>
-      <c r="X43" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="2">
+      <c r="AG43" s="2">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="Z43" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AF43" s="2">
-        <v>14</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2" t="s">
+      <c r="AJ43" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AJ43" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK43" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL43" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="AK43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
@@ -17728,23 +17708,22 @@
       <c r="KG43" s="2"/>
       <c r="KH43" s="2"/>
       <c r="KI43" s="2"/>
-      <c r="KJ43" s="2"/>
     </row>
-    <row r="44" ht="15.5" spans="1:296">
+    <row r="44" ht="15.5" spans="1:295">
       <c r="A44" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -17756,19 +17735,19 @@
         <v>0</v>
       </c>
       <c r="I44" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="L44" s="2">
         <v>2022</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2">
         <v>1</v>
@@ -17780,62 +17759,62 @@
         <v>14</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S44" s="2">
+        <v>65</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="2">
+        <v>360</v>
+      </c>
+      <c r="V44" s="2">
+        <v>3</v>
+      </c>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC44" s="2">
         <v>328</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44" s="2">
-        <v>360</v>
-      </c>
-      <c r="W44" s="2">
-        <v>3</v>
-      </c>
-      <c r="X44" s="2">
+      <c r="AD44" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="2">
         <v>40</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="AG44" s="2">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ44" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="AE44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK44" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL44" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
@@ -18093,21 +18072,20 @@
       <c r="KG44" s="2"/>
       <c r="KH44" s="2"/>
       <c r="KI44" s="2"/>
-      <c r="KJ44" s="2"/>
     </row>
-    <row r="45" ht="15.5" spans="1:296">
+    <row r="45" ht="15.5" spans="1:295">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -18119,19 +18097,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="L45" s="2">
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N45" s="2">
         <v>1</v>
@@ -18143,62 +18121,62 @@
         <v>14</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S45" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T45" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U45" s="2">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="V45" s="2">
-        <v>360</v>
-      </c>
-      <c r="W45" s="2">
         <v>3</v>
       </c>
-      <c r="X45" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>11</v>
-      </c>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2" t="s">
+      <c r="AJ45" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="AJ45" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK45" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
@@ -18456,21 +18434,20 @@
       <c r="KG45" s="2"/>
       <c r="KH45" s="2"/>
       <c r="KI45" s="2"/>
-      <c r="KJ45" s="2"/>
     </row>
-    <row r="46" ht="15.5" spans="1:296">
+    <row r="46" ht="15.5" spans="1:295">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -18484,13 +18461,13 @@
       <c r="I46" s="2"/>
       <c r="J46" s="10"/>
       <c r="K46" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L46" s="2">
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N46" s="2">
         <v>1</v>
@@ -18502,62 +18479,62 @@
         <v>14</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S46" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T46" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="V46" s="2">
-        <v>360</v>
-      </c>
-      <c r="W46" s="2">
         <v>3</v>
       </c>
-      <c r="X46" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y46" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI46" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>6</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>12</v>
-      </c>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2" t="s">
+      <c r="AJ46" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AJ46" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK46" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL46" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -18815,21 +18792,20 @@
       <c r="KG46" s="2"/>
       <c r="KH46" s="2"/>
       <c r="KI46" s="2"/>
-      <c r="KJ46" s="2"/>
     </row>
-    <row r="47" ht="15.5" spans="1:296">
+    <row r="47" ht="15.5" spans="1:295">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -18843,13 +18819,13 @@
       <c r="I47" s="2"/>
       <c r="J47" s="10"/>
       <c r="K47" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L47" s="2">
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N47" s="2">
         <v>1</v>
@@ -18861,62 +18837,62 @@
         <v>14</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S47" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="T47" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="V47" s="2">
-        <v>360</v>
-      </c>
-      <c r="W47" s="2">
         <v>3</v>
       </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>18</v>
       </c>
       <c r="AF47" s="2">
         <v>0</v>
       </c>
       <c r="AG47" s="2">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="AI47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ47" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AJ47" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK47" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL47" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
@@ -19174,21 +19150,20 @@
       <c r="KG47" s="2"/>
       <c r="KH47" s="2"/>
       <c r="KI47" s="2"/>
-      <c r="KJ47" s="2"/>
     </row>
-    <row r="48" ht="15.5" spans="1:296">
+    <row r="48" ht="15.5" spans="1:295">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -19200,19 +19175,19 @@
         <v>0</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L48" s="2">
         <v>2023</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2">
         <v>1</v>
@@ -19225,55 +19200,55 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S48" s="2">
-        <v>380</v>
-      </c>
-      <c r="T48" s="2">
         <v>12</v>
       </c>
-      <c r="U48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V48" s="2">
+      <c r="T48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" s="2">
         <v>96</v>
       </c>
-      <c r="W48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X48" s="2">
-        <v>32</v>
-      </c>
-      <c r="Y48" s="2">
-        <f t="shared" si="3"/>
-        <v>348</v>
+      <c r="V48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>380</v>
+      </c>
+      <c r="AD48" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="2">
         <v>32</v>
       </c>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AK48" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL48" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="AG48" s="2">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ48" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
@@ -19531,45 +19506,44 @@
       <c r="KG48" s="2"/>
       <c r="KH48" s="2"/>
       <c r="KI48" s="2"/>
-      <c r="KJ48" s="2"/>
     </row>
-    <row r="49" ht="31" spans="1:296">
+    <row r="49" ht="31" spans="1:295">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="L49" s="2">
         <v>2021</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N49" s="2">
         <v>1</v>
@@ -19581,55 +19555,55 @@
         <v>14</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S49" s="2">
-        <v>84</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" s="2">
+        <v>3</v>
       </c>
       <c r="U49" s="2">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="V49" s="2">
-        <v>320</v>
-      </c>
-      <c r="W49" s="2">
         <v>4</v>
       </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>84</v>
-      </c>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
+      <c r="AC49" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>70</v>
+      </c>
       <c r="AF49" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK49" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="AL49" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AI49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ49" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -19887,21 +19861,20 @@
       <c r="KG49" s="2"/>
       <c r="KH49" s="2"/>
       <c r="KI49" s="2"/>
-      <c r="KJ49" s="2"/>
     </row>
-    <row r="50" ht="15.5" spans="1:296">
+    <row r="50" ht="15.5" spans="1:295">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -19913,19 +19886,19 @@
         <v>1</v>
       </c>
       <c r="I50" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="L50" s="2">
         <v>2023</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2">
         <v>1</v>
@@ -19937,57 +19910,57 @@
         <v>14</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S50" s="2">
-        <v>20</v>
-      </c>
-      <c r="T50" s="2">
         <v>12</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>46</v>
+      <c r="T50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U50" s="2">
+        <v>960</v>
       </c>
       <c r="V50" s="2">
-        <v>960</v>
-      </c>
-      <c r="W50" s="2">
         <v>16</v>
       </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>20</v>
-      </c>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
+      <c r="AC50" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>8</v>
+      </c>
       <c r="AF50" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2">
-        <v>8</v>
-      </c>
-      <c r="AH50" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="AI50" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AJ50" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="AK50" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL50" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
@@ -20245,21 +20218,20 @@
       <c r="KG50" s="2"/>
       <c r="KH50" s="2"/>
       <c r="KI50" s="2"/>
-      <c r="KJ50" s="2"/>
     </row>
-    <row r="51" ht="15.5" spans="1:296">
+    <row r="51" ht="15.5" spans="1:295">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -20271,19 +20243,19 @@
         <v>0</v>
       </c>
       <c r="I51" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="L51" s="2">
         <v>2024</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N51" s="2">
         <v>1</v>
@@ -20295,61 +20267,61 @@
         <v>14</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S51" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="T51" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="V51" s="2">
-        <v>240</v>
-      </c>
-      <c r="W51" s="2">
         <v>5</v>
       </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>32</v>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>32</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH51" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AF51" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>27</v>
-      </c>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2" t="s">
+      <c r="AJ51" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="AJ51" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK51" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL51" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="AK51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
@@ -20607,45 +20579,44 @@
       <c r="KG51" s="2"/>
       <c r="KH51" s="2"/>
       <c r="KI51" s="2"/>
-      <c r="KJ51" s="2"/>
     </row>
-    <row r="52" ht="15.5" spans="1:296">
+    <row r="52" ht="15.5" spans="1:295">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H52" s="4">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="L52" s="2">
         <v>2024</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N52" s="2">
         <v>1</v>
@@ -20657,50 +20628,50 @@
         <v>14</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S52" s="2">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="T52" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="V52" s="2">
-        <v>360</v>
-      </c>
-      <c r="W52" s="2">
         <v>0</v>
       </c>
+      <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2">
+      <c r="AC52" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD52" s="2">
         <v>49</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AE52" s="2">
         <v>21</v>
       </c>
-      <c r="AH52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="AI52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ52" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="AJ52" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="AK52" s="10" t="s">
-        <v>392</v>
-      </c>
+      <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
@@ -20959,27 +20930,36 @@
       <c r="KG52" s="2"/>
       <c r="KH52" s="2"/>
       <c r="KI52" s="2"/>
-      <c r="KJ52" s="2"/>
     </row>
-    <row r="53" ht="15.5" spans="1:296">
+    <row r="53" ht="15.5" spans="1:295">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -20999,11 +20979,10 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2" t="s">
-        <v>394</v>
-      </c>
+      <c r="AI53" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ53" s="10"/>
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
@@ -21263,50 +21242,99 @@
       <c r="KG53" s="2"/>
       <c r="KH53" s="2"/>
       <c r="KI53" s="2"/>
-      <c r="KJ53" s="2"/>
     </row>
-    <row r="54" ht="15.5" spans="1:296">
+    <row r="54" ht="15.5" spans="1:295">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="E54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" s="2">
+        <v>2024</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
+      <c r="Y54" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
+      <c r="AB54" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ54" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
@@ -21565,46 +21593,99 @@
       <c r="KG54" s="2"/>
       <c r="KH54" s="2"/>
       <c r="KI54" s="2"/>
-      <c r="KJ54" s="2"/>
     </row>
-    <row r="55" ht="15.5" spans="1:296">
+    <row r="55" ht="15.5" spans="1:295">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2024</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
+      <c r="AB55" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ55" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
@@ -21863,9 +21944,8 @@
       <c r="KG55" s="2"/>
       <c r="KH55" s="2"/>
       <c r="KI55" s="2"/>
-      <c r="KJ55" s="2"/>
     </row>
-    <row r="56" ht="15.5" spans="1:296">
+    <row r="56" ht="15.5" spans="1:295">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -21875,7 +21955,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -21901,7 +21981,7 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
+      <c r="AJ56" s="10"/>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
@@ -22161,9 +22241,8 @@
       <c r="KG56" s="2"/>
       <c r="KH56" s="2"/>
       <c r="KI56" s="2"/>
-      <c r="KJ56" s="2"/>
     </row>
-    <row r="57" ht="15.5" spans="1:296">
+    <row r="57" ht="15.5" spans="1:295">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -22173,7 +22252,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -22199,7 +22278,7 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
+      <c r="AJ57" s="10"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
@@ -22459,9 +22538,8 @@
       <c r="KG57" s="2"/>
       <c r="KH57" s="2"/>
       <c r="KI57" s="2"/>
-      <c r="KJ57" s="2"/>
     </row>
-    <row r="58" ht="15.5" spans="1:296">
+    <row r="58" ht="15.5" spans="1:295">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -22471,7 +22549,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -22497,7 +22575,7 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
+      <c r="AJ58" s="10"/>
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
@@ -22757,9 +22835,8 @@
       <c r="KG58" s="2"/>
       <c r="KH58" s="2"/>
       <c r="KI58" s="2"/>
-      <c r="KJ58" s="2"/>
     </row>
-    <row r="59" ht="15.5" spans="1:296">
+    <row r="59" ht="15.5" spans="1:295">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -22769,7 +22846,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -22795,7 +22872,7 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
+      <c r="AJ59" s="10"/>
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
@@ -23055,9 +23132,8 @@
       <c r="KG59" s="2"/>
       <c r="KH59" s="2"/>
       <c r="KI59" s="2"/>
-      <c r="KJ59" s="2"/>
     </row>
-    <row r="60" ht="15.5" spans="1:296">
+    <row r="60" ht="15.5" spans="1:295">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -23067,7 +23143,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -23093,7 +23169,7 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
+      <c r="AJ60" s="10"/>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -23353,9 +23429,8 @@
       <c r="KG60" s="2"/>
       <c r="KH60" s="2"/>
       <c r="KI60" s="2"/>
-      <c r="KJ60" s="2"/>
     </row>
-    <row r="61" ht="15.5" spans="1:296">
+    <row r="61" ht="15.5" spans="1:295">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -23365,7 +23440,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -23391,7 +23466,7 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
+      <c r="AJ61" s="10"/>
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" s="2"/>
@@ -23651,9 +23726,8 @@
       <c r="KG61" s="2"/>
       <c r="KH61" s="2"/>
       <c r="KI61" s="2"/>
-      <c r="KJ61" s="2"/>
     </row>
-    <row r="62" ht="15.5" spans="1:296">
+    <row r="62" ht="15.5" spans="1:295">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -23663,7 +23737,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -23689,7 +23763,7 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
+      <c r="AJ62" s="10"/>
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" s="2"/>
@@ -23949,9 +24023,8 @@
       <c r="KG62" s="2"/>
       <c r="KH62" s="2"/>
       <c r="KI62" s="2"/>
-      <c r="KJ62" s="2"/>
     </row>
-    <row r="63" ht="15.5" spans="1:296">
+    <row r="63" ht="15.5" spans="1:295">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -23961,7 +24034,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -23987,7 +24060,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
+      <c r="AJ63" s="10"/>
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" s="2"/>
@@ -24247,9 +24320,8 @@
       <c r="KG63" s="2"/>
       <c r="KH63" s="2"/>
       <c r="KI63" s="2"/>
-      <c r="KJ63" s="2"/>
     </row>
-    <row r="64" ht="15.5" spans="1:296">
+    <row r="64" ht="15.5" spans="1:295">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -24259,7 +24331,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="10"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -24285,7 +24357,7 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
+      <c r="AJ64" s="10"/>
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
@@ -24545,9 +24617,8 @@
       <c r="KG64" s="2"/>
       <c r="KH64" s="2"/>
       <c r="KI64" s="2"/>
-      <c r="KJ64" s="2"/>
     </row>
-    <row r="65" ht="15.5" spans="1:296">
+    <row r="65" ht="15.5" spans="1:295">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -24557,7 +24628,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -24583,7 +24654,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
+      <c r="AJ65" s="10"/>
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
       <c r="AM65" s="2"/>
@@ -24843,9 +24914,8 @@
       <c r="KG65" s="2"/>
       <c r="KH65" s="2"/>
       <c r="KI65" s="2"/>
-      <c r="KJ65" s="2"/>
     </row>
-    <row r="66" ht="15.5" spans="1:296">
+    <row r="66" ht="15.5" spans="1:295">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -24855,7 +24925,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -24881,7 +24951,7 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
+      <c r="AJ66" s="10"/>
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
       <c r="AM66" s="2"/>
@@ -25141,9 +25211,8 @@
       <c r="KG66" s="2"/>
       <c r="KH66" s="2"/>
       <c r="KI66" s="2"/>
-      <c r="KJ66" s="2"/>
     </row>
-    <row r="67" ht="15.5" spans="1:296">
+    <row r="67" ht="15.5" spans="1:295">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -25153,7 +25222,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="J67" s="10"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -25179,7 +25248,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
+      <c r="AJ67" s="10"/>
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
       <c r="AM67" s="2"/>
@@ -25439,16 +25508,15 @@
       <c r="KG67" s="2"/>
       <c r="KH67" s="2"/>
       <c r="KI67" s="2"/>
-      <c r="KJ67" s="2"/>
     </row>
-    <row r="68" ht="15.5" spans="1:18">
+    <row r="68" ht="15.5" spans="1:36">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="J68" s="10"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -25457,11 +25525,20 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
+      <c r="AJ68" s="10"/>
+    </row>
+    <row r="69" ht="15.5" spans="13:13">
+      <c r="M69" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AL53" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AK55" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AD48:AE48"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="M52" r:id="rId1" display="Cognitive, Affective, &amp; Behavioral Neuroscience" tooltip="https://link.springer.com/journal/13415"/>
     <hyperlink ref="J2" r:id="rId2" display="merryndconstable@gmail.com"/>
@@ -25479,42 +25556,44 @@
     <hyperlink ref="J48" r:id="rId11" display="wf3126@mail.tsinghua.edu.cn" tooltip="mailto:wf3126@mail.tsinghua.edu.cn"/>
     <hyperlink ref="J50" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
     <hyperlink ref="J51" r:id="rId13" display="lfuentes@um.es"/>
-    <hyperlink ref="AK16" r:id="rId14" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
-    <hyperlink ref="AK17" r:id="rId14" display="https://osf.io/8bktn/"/>
-    <hyperlink ref="AK2" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AK3" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AK4" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AK5" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
-    <hyperlink ref="AK6" r:id="rId16" display="https://osf.io/5zaej/" tooltip="https://osf.io/5zaej/"/>
-    <hyperlink ref="AK7" r:id="rId17" display="https://osf.io/4zvkm/" tooltip="https://osf.io/4zvkm/"/>
-    <hyperlink ref="AK10" r:id="rId18" display="https://osf.io/khyjq/" tooltip="https://osf.io/khyjq/"/>
-    <hyperlink ref="AK18" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AK19" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AK20" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AK21" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
-    <hyperlink ref="AK22" r:id="rId20" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AK23" r:id="rId20" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AK24" r:id="rId20" display="https://osf.io/3ke4f/"/>
-    <hyperlink ref="AK38" r:id="rId21" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d" tooltip="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
-    <hyperlink ref="AK39" r:id="rId22" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
-    <hyperlink ref="AK25" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AK26" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AK27" r:id="rId23" display="https://osf.io/cj7fp/"/>
-    <hyperlink ref="AK29" r:id="rId24" display="https://osf.io/4n6j7/" tooltip="https://osf.io/4n6j7/"/>
-    <hyperlink ref="AK30" r:id="rId25" display="https://zenodo.org/records/8031086" tooltip="https://zenodo.org/records/8031086"/>
-    <hyperlink ref="AK40" r:id="rId26" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae." tooltip="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
-    <hyperlink ref="AK42" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW" tooltip="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="AK43" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
-    <hyperlink ref="AK44" r:id="rId28" display="https://doi.org/10.26180/20011142" tooltip="https://doi.org/10.26180/20011142"/>
-    <hyperlink ref="AK45" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AK46" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AK47" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
-    <hyperlink ref="AK48" r:id="rId30" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497" tooltip="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
-    <hyperlink ref="AL11" r:id="rId31" display="https://osf.io/bw27c"/>
-    <hyperlink ref="AK15" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="AK14" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025" tooltip="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
-    <hyperlink ref="AK51" r:id="rId33" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
-    <hyperlink ref="AK52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
+    <hyperlink ref="AJ16" r:id="rId14" display="https://osf.io/8bktn/" tooltip="https://osf.io/8bktn/"/>
+    <hyperlink ref="AJ17" r:id="rId14" display="https://osf.io/8bktn/"/>
+    <hyperlink ref="AJ2" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AJ3" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AJ4" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AJ5" r:id="rId15" display="https://osf.io/sejw7/" tooltip="https://osf.io/sejw7/"/>
+    <hyperlink ref="AJ6" r:id="rId16" display="https://osf.io/5zaej/" tooltip="https://osf.io/5zaej/"/>
+    <hyperlink ref="AJ7" r:id="rId17" display="https://osf.io/4zvkm/" tooltip="https://osf.io/4zvkm/"/>
+    <hyperlink ref="AJ10" r:id="rId18" display="https://osf.io/khyjq/" tooltip="https://osf.io/khyjq/"/>
+    <hyperlink ref="AJ18" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AJ19" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AJ20" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AJ21" r:id="rId19" display="https://osf.io/4srhn/?view_only=70ea4888bf524b598b0d61d04a54d9d9"/>
+    <hyperlink ref="AJ22" r:id="rId20" display="https://osf.io/3ke4f/" tooltip="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AJ23" r:id="rId20" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AJ24" r:id="rId20" display="https://osf.io/3ke4f/"/>
+    <hyperlink ref="AJ38" r:id="rId21" display="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d" tooltip="https://osf.io/2juxk/?view_only=b4e01124337a4801b4beb99dbe803b8d"/>
+    <hyperlink ref="AJ39" r:id="rId22" display="https://researchdata.bath.ac.uk/924/" tooltip="https://researchdata.bath.ac.uk/924/"/>
+    <hyperlink ref="AJ25" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AJ26" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AJ27" r:id="rId23" display="https://osf.io/cj7fp/"/>
+    <hyperlink ref="AJ29" r:id="rId24" display="https://osf.io/4n6j7/" tooltip="https://osf.io/4n6j7/"/>
+    <hyperlink ref="AJ30" r:id="rId25" display="https://zenodo.org/records/8031086" tooltip="https://zenodo.org/records/8031086"/>
+    <hyperlink ref="AJ40" r:id="rId26" display="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae." tooltip="https://osf.io/u9ty6/?view_only=9bdbbaf95f9a4d9c8bc53dd1a29563ae."/>
+    <hyperlink ref="AJ42" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW" tooltip="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="AJ43" r:id="rId27" display="https://doi.org/10.17605/OSF.IO/FE3JW"/>
+    <hyperlink ref="AJ44" r:id="rId28" display="https://doi.org/10.26180/20011142" tooltip="https://doi.org/10.26180/20011142"/>
+    <hyperlink ref="AJ45" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AJ46" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AJ47" r:id="rId29" display="https://osf.io/35wp9" tooltip="https://osf.io/35wp9"/>
+    <hyperlink ref="AJ48" r:id="rId30" display="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497" tooltip="https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497"/>
+    <hyperlink ref="AK11" r:id="rId31" display="https://osf.io/bw27c"/>
+    <hyperlink ref="AJ15" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="AJ14" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025" tooltip="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
+    <hyperlink ref="AJ51" r:id="rId33" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
+    <hyperlink ref="AJ52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
+    <hyperlink ref="AJ54" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
+    <hyperlink ref="AJ55" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AK$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AK$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="409">
   <si>
     <t>Note</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Questionnaire Data</t>
   </si>
   <si>
-    <t>EEG Data</t>
+    <t>EEG/fMRI Data</t>
   </si>
   <si>
     <t>Corresponding author</t>
@@ -1393,7 +1393,7 @@
     <t>https://doi.org/10.3758/s13415-024-01157-0.</t>
   </si>
   <si>
-    <t>Pa1E1</t>
+    <t>Pu1E1</t>
   </si>
   <si>
     <t>Pa1</t>
@@ -1402,7 +1402,7 @@
     <t>Wang_2016_EPHPP</t>
   </si>
   <si>
-    <t>Pa2E1</t>
+    <t>Pu2E1</t>
   </si>
   <si>
     <t>Pa2</t>
@@ -1432,7 +1432,19 @@
     <t>https://doi.org/10.17605/OSF.IO/XA4H8</t>
   </si>
   <si>
-    <t>Pa2E2</t>
+    <t>Pu2E2</t>
+  </si>
+  <si>
+    <t>Pu3E1</t>
+  </si>
+  <si>
+    <t>Pa3</t>
+  </si>
+  <si>
+    <t>Smith_2024_Cortex</t>
+  </si>
+  <si>
+    <t>https://osf.io/br98c/</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2153,9 +2165,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2503,11 +2512,11 @@
   <dimension ref="A1:KI69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI51" sqref="AI51"/>
+      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2650,7 +2659,7 @@
       <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="18" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
@@ -4557,7 +4566,7 @@
       <c r="AI7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>85</v>
       </c>
       <c r="AK7" s="2"/>
@@ -4919,7 +4928,7 @@
       <c r="AI8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AJ8" s="16" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>98</v>
       </c>
       <c r="AK8" s="2"/>
@@ -5243,7 +5252,7 @@
       <c r="V9" s="2">
         <v>7</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="15" t="s">
         <v>106</v>
       </c>
       <c r="X9" s="2"/>
@@ -5278,7 +5287,7 @@
       <c r="AI9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ9" s="16" t="s">
+      <c r="AJ9" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AK9" s="2" t="s">
@@ -6002,10 +6011,10 @@
       <c r="AI11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AJ11" s="16" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="AK11" s="14" t="s">
         <v>131</v>
       </c>
       <c r="AL11" s="2"/>
@@ -6364,7 +6373,7 @@
       <c r="AI12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AJ12" s="16" t="s">
+      <c r="AJ12" s="15" t="s">
         <v>130</v>
       </c>
       <c r="AK12" s="10" t="s">
@@ -6730,7 +6739,7 @@
       <c r="AI13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AJ13" s="16" t="s">
+      <c r="AJ13" s="15" t="s">
         <v>149</v>
       </c>
       <c r="AK13" s="2" t="s">
@@ -7098,7 +7107,7 @@
       <c r="AI14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AJ14" s="20" t="s">
+      <c r="AJ14" s="19" t="s">
         <v>162</v>
       </c>
       <c r="AK14" s="2" t="s">
@@ -7461,7 +7470,7 @@
       <c r="AI15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="AJ15" s="20" t="s">
         <v>162</v>
       </c>
       <c r="AK15" s="2" t="s">
@@ -12103,7 +12112,7 @@
       <c r="V28" s="2">
         <v>3</v>
       </c>
-      <c r="W28" s="17" t="s">
+      <c r="W28" s="16" t="s">
         <v>229</v>
       </c>
       <c r="X28" s="2"/>
@@ -12139,7 +12148,7 @@
       <c r="AI28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AJ28" s="16" t="s">
+      <c r="AJ28" s="15" t="s">
         <v>232</v>
       </c>
       <c r="AK28" s="2"/>
@@ -12846,10 +12855,10 @@
       <c r="AC30" s="2">
         <v>23</v>
       </c>
-      <c r="AD30" s="18" t="s">
+      <c r="AD30" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AE30" s="18"/>
+      <c r="AE30" s="17"/>
       <c r="AF30" s="2">
         <v>1</v>
       </c>
@@ -12863,7 +12872,7 @@
       <c r="AI30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AJ30" s="10" t="s">
+      <c r="AJ30" s="14" t="s">
         <v>252</v>
       </c>
       <c r="AK30" s="2" t="s">
@@ -15634,7 +15643,7 @@
       <c r="AI38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AJ38" s="20" t="s">
+      <c r="AJ38" s="19" t="s">
         <v>289</v>
       </c>
       <c r="AK38" s="2" t="s">
@@ -16367,7 +16376,7 @@
       <c r="AJ40" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="AK40" s="16" t="s">
+      <c r="AK40" s="15" t="s">
         <v>308</v>
       </c>
       <c r="AL40" s="2"/>
@@ -17793,10 +17802,10 @@
       <c r="AC44" s="2">
         <v>328</v>
       </c>
-      <c r="AD44" s="18" t="s">
+      <c r="AD44" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AE44" s="18"/>
+      <c r="AE44" s="17"/>
       <c r="AF44" s="2">
         <v>40</v>
       </c>
@@ -19227,10 +19236,10 @@
       <c r="AC48" s="2">
         <v>380</v>
       </c>
-      <c r="AD48" s="18" t="s">
+      <c r="AD48" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AE48" s="18"/>
+      <c r="AE48" s="17"/>
       <c r="AF48" s="2">
         <v>32</v>
       </c>
@@ -19242,7 +19251,7 @@
       <c r="AI48" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="AJ48" s="10" t="s">
+      <c r="AJ48" s="14" t="s">
         <v>353</v>
       </c>
       <c r="AK48" s="2" t="s">
@@ -19597,7 +19606,7 @@
       <c r="AI49" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AJ49" s="16" t="s">
+      <c r="AJ49" s="15" t="s">
         <v>361</v>
       </c>
       <c r="AK49" s="2" t="s">
@@ -21266,13 +21275,13 @@
       <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="13" t="s">
         <v>396</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="13" t="s">
         <v>398</v>
       </c>
       <c r="L54" s="2">
@@ -21617,13 +21626,13 @@
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="13" t="s">
         <v>396</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="13" t="s">
         <v>398</v>
       </c>
       <c r="L55" s="2">
@@ -21947,13 +21956,27 @@
     </row>
     <row r="56" ht="15.5" spans="1:295">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="10"/>
       <c r="K56" s="2"/>
@@ -21980,9 +22003,15 @@
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="2"/>
+      <c r="AI56" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ56" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK56" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
@@ -22244,10 +22273,14 @@
     </row>
     <row r="57" ht="15.5" spans="1:295">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -25531,7 +25564,7 @@
       <c r="M69" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AK55" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AK57" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -25594,6 +25627,7 @@
     <hyperlink ref="AJ52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
     <hyperlink ref="AJ54" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
     <hyperlink ref="AJ55" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
+    <hyperlink ref="AJ56" r:id="rId36" display="https://osf.io/br98c/" tooltip="https://osf.io/br98c/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="26120" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="414">
   <si>
     <t>Note</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>2(Self,Other)*2(Individual,Group)</t>
+  </si>
+  <si>
+    <t>geometric shape</t>
   </si>
   <si>
     <t>Constable_2019_EPHPP</t>
@@ -383,6 +386,9 @@
     <t>Oxford</t>
   </si>
   <si>
+    <t>geometric shape and face</t>
+  </si>
+  <si>
     <t>Mcivor_2020_EJN</t>
   </si>
   <si>
@@ -405,6 +411,9 @@
   </si>
   <si>
     <t>2(Strength)*2(Associ_x0002_ation)</t>
+  </si>
+  <si>
+    <t>grey scale squares</t>
   </si>
   <si>
     <t>Constable_2020_CE</t>
@@ -1175,6 +1184,9 @@
     <t>2matching(matched,nonmatching)*2shape(self-related,stranger-related)*60repetitions</t>
   </si>
   <si>
+    <t>random dots</t>
+  </si>
+  <si>
     <t>Vicovaro_2022_EPHPP</t>
   </si>
   <si>
@@ -1460,7 +1472,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,14 +1488,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体-简"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1493,12 +1505,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.05"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1519,6 +1525,18 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.05"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A2029"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1997,13 +2015,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2012,46 +2027,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2063,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,7 +2093,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2087,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2099,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2111,7 +2129,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2143,19 +2161,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2170,10 +2188,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2182,13 +2200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -2520,54 +2538,54 @@
   <sheetPr/>
   <dimension ref="A1:KJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
-    <col min="4" max="5" width="6.08333333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
+    <col min="4" max="5" width="6.08035714285714" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="17.4196428571429" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
-    <col min="10" max="10" width="40.0833333333333" customWidth="1"/>
-    <col min="11" max="11" width="23.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.5803571428571" customWidth="1"/>
+    <col min="10" max="10" width="40.0803571428571" customWidth="1"/>
+    <col min="11" max="11" width="23.4196428571429" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="67.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="67.0803571428571" customWidth="1"/>
     <col min="14" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="20.0833333333333" customWidth="1"/>
-    <col min="18" max="18" width="21.5833333333333" customWidth="1"/>
-    <col min="19" max="19" width="13.0833333333333" customWidth="1"/>
+    <col min="17" max="17" width="20.0803571428571" customWidth="1"/>
+    <col min="18" max="18" width="21.5803571428571" customWidth="1"/>
+    <col min="19" max="19" width="13.0803571428571" customWidth="1"/>
     <col min="20" max="20" width="14.25" customWidth="1"/>
-    <col min="21" max="21" width="12.9166666666667" customWidth="1"/>
+    <col min="21" max="21" width="12.9196428571429" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
-    <col min="23" max="23" width="41.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="41.6696428571429" customWidth="1"/>
     <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="25" width="28.4166666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="28.4196428571429" style="2" customWidth="1"/>
     <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5833333333333" customWidth="1"/>
+    <col min="27" max="27" width="17.5803571428571" customWidth="1"/>
     <col min="28" max="28" width="14.5" customWidth="1"/>
     <col min="29" max="29" width="11.75" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="9.925" customWidth="1"/>
+    <col min="31" max="31" width="9.92857142857143" customWidth="1"/>
     <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="7.58333333333333" customWidth="1"/>
-    <col min="34" max="34" width="118.833333333333" customWidth="1"/>
+    <col min="33" max="33" width="7.58035714285714" customWidth="1"/>
+    <col min="34" max="34" width="118.830357142857" customWidth="1"/>
     <col min="35" max="36" width="25.75" customWidth="1"/>
-    <col min="37" max="37" width="59.425" customWidth="1"/>
-    <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
+    <col min="37" max="37" width="59.4285714285714" customWidth="1"/>
+    <col min="38" max="38" width="68.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="17.6" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2689,7 @@
       <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
@@ -2681,7 +2699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:296">
+    <row r="2" ht="17.6" spans="1:296">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -2695,13 +2713,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2777,12 +2795,14 @@
       <c r="AH2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -3044,7 +3064,7 @@
       <c r="KI2" s="5"/>
       <c r="KJ2" s="5"/>
     </row>
-    <row r="3" ht="15.5" spans="1:296">
+    <row r="3" ht="17.6" spans="1:296">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -3052,19 +3072,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="5"/>
@@ -3136,12 +3156,14 @@
       <c r="AH3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
@@ -3403,7 +3425,7 @@
       <c r="KI3" s="5"/>
       <c r="KJ3" s="5"/>
     </row>
-    <row r="4" ht="15.5" spans="1:296">
+    <row r="4" ht="17.6" spans="1:296">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3411,19 +3433,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="5"/>
@@ -3495,12 +3517,14 @@
       <c r="AH4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -3762,7 +3786,7 @@
       <c r="KI4" s="5"/>
       <c r="KJ4" s="5"/>
     </row>
-    <row r="5" ht="15.5" spans="1:296">
+    <row r="5" ht="17.6" spans="1:296">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -3770,19 +3794,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="5"/>
@@ -3803,13 +3827,13 @@
         <v>4</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S5" s="5">
         <v>50</v>
@@ -3833,7 +3857,7 @@
         <v>48</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC5" s="5">
         <v>40</v>
@@ -3852,12 +3876,14 @@
         <v>40</v>
       </c>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
@@ -4127,21 +4153,21 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -4151,13 +4177,13 @@
         <v>41</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="5">
         <v>2020</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
@@ -4169,10 +4195,10 @@
         <v>14</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" s="5">
         <v>24</v>
@@ -4187,17 +4213,17 @@
         <v>4</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="5" t="s">
         <v>49</v>
@@ -4219,14 +4245,16 @@
         <v>92</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI6" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -4488,41 +4516,41 @@
       <c r="KI6" s="5"/>
       <c r="KJ6" s="5"/>
     </row>
-    <row r="7" ht="15.5" spans="1:296">
+    <row r="7" ht="17.6" spans="1:296">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" s="5">
         <v>2020</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
@@ -4535,7 +4563,7 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" s="5">
         <v>48</v>
@@ -4552,16 +4580,16 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC7" s="5">
         <v>46</v>
@@ -4580,12 +4608,14 @@
         <v>41</v>
       </c>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK7" s="16" t="s">
         <v>86</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -4847,45 +4877,45 @@
       <c r="KI7" s="5"/>
       <c r="KJ7" s="5"/>
     </row>
-    <row r="8" ht="31" spans="1:296">
+    <row r="8" ht="36" spans="1:296">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" s="5">
         <v>2020</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -4897,10 +4927,10 @@
         <v>14</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>46</v>
@@ -4917,13 +4947,13 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC8" s="5">
         <v>31</v>
@@ -4941,14 +4971,16 @@
         <v>31</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI8" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
@@ -5210,41 +5242,41 @@
       <c r="KI8" s="5"/>
       <c r="KJ8" s="5"/>
     </row>
-    <row r="9" ht="62" spans="1:296">
+    <row r="9" ht="71" spans="1:296">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="7">
+        <v>103</v>
+      </c>
+      <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" s="5">
         <v>2021</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
@@ -5257,7 +5289,7 @@
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" s="5">
         <v>12</v>
@@ -5272,20 +5304,20 @@
         <v>7</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC9" s="5">
         <v>40</v>
@@ -5303,15 +5335,17 @@
         <v>33</v>
       </c>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ9" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK9" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
@@ -5572,29 +5606,29 @@
       <c r="KI9" s="5"/>
       <c r="KJ9" s="5"/>
     </row>
-    <row r="10" ht="15.5" spans="1:296">
+    <row r="10" ht="17.6" spans="1:296">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6">
+        <v>116</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>41</v>
@@ -5606,7 +5640,7 @@
         <v>2020</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N10" s="5">
         <v>2</v>
@@ -5619,7 +5653,7 @@
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S10" s="5">
         <v>8</v>
@@ -5637,13 +5671,13 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC10" s="5">
         <v>56</v>
@@ -5662,14 +5696,16 @@
         <v>51</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI10" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="AJ10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK10" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -5931,45 +5967,45 @@
       <c r="KI10" s="5"/>
       <c r="KJ10" s="5"/>
     </row>
-    <row r="11" ht="31" spans="1:296">
+    <row r="11" ht="36" spans="1:296">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="6">
+        <v>125</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L11" s="5">
         <v>2020</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
@@ -5982,7 +6018,7 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S11" s="5">
         <v>10</v>
@@ -5997,20 +6033,20 @@
         <v>46</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC11" s="5">
         <v>26</v>
@@ -6029,15 +6065,17 @@
         <v>24</v>
       </c>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ11" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK11" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL11" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="AL11" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
@@ -6298,39 +6336,39 @@
       <c r="KI11" s="5"/>
       <c r="KJ11" s="5"/>
     </row>
-    <row r="12" ht="31" spans="1:296">
+    <row r="12" ht="36" spans="1:296">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6">
+        <v>125</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L12" s="5">
         <v>2020</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N12" s="5">
         <v>2</v>
@@ -6343,7 +6381,7 @@
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S12" s="5">
         <v>20</v>
@@ -6358,20 +6396,20 @@
         <v>2</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC12" s="5">
         <v>26</v>
@@ -6390,17 +6428,19 @@
         <v>25</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI12" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ12" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
@@ -6661,43 +6701,43 @@
       <c r="KI12" s="5"/>
       <c r="KJ12" s="5"/>
     </row>
-    <row r="13" ht="46.5" spans="1:296">
+    <row r="13" ht="53" spans="1:296">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="6">
+        <v>141</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="7">
+        <v>103</v>
+      </c>
+      <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L13" s="5">
         <v>2019</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N13" s="5">
         <v>1</v>
@@ -6709,10 +6749,10 @@
         <v>14</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S13" s="5">
         <v>48</v>
@@ -6729,16 +6769,16 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="5">
         <v>103</v>
@@ -6757,17 +6797,19 @@
         <v>103</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI13" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ13" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AK13" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
@@ -7028,45 +7070,45 @@
       <c r="KI13" s="5"/>
       <c r="KJ13" s="5"/>
     </row>
-    <row r="14" ht="28" spans="1:296">
+    <row r="14" ht="34" spans="1:296">
       <c r="A14" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="6">
+        <v>157</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" s="5">
         <v>2018</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
@@ -7078,10 +7120,10 @@
         <v>14</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S14" s="5">
         <v>24</v>
@@ -7096,20 +7138,20 @@
         <v>4</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="5">
         <v>19</v>
@@ -7128,15 +7170,17 @@
         <v>18</v>
       </c>
       <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ14" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AK14" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
@@ -7396,41 +7440,41 @@
       <c r="KI14" s="5"/>
       <c r="KJ14" s="5"/>
     </row>
-    <row r="15" ht="28" spans="1:296">
+    <row r="15" ht="34" spans="1:296">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="6">
+        <v>157</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="12"/>
       <c r="K15" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L15" s="5">
         <v>2018</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N15" s="5">
         <v>2</v>
@@ -7442,10 +7486,10 @@
         <v>14</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S15" s="5">
         <v>24</v>
@@ -7460,20 +7504,20 @@
         <v>4</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="5">
         <v>20</v>
@@ -7492,15 +7536,17 @@
         <v>18</v>
       </c>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ15" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AK15" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
@@ -7761,45 +7807,45 @@
       <c r="KI15" s="5"/>
       <c r="KJ15" s="5"/>
     </row>
-    <row r="16" ht="15.5" spans="1:296">
+    <row r="16" ht="17.6" spans="1:296">
       <c r="A16" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="6">
+        <v>170</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L16" s="5">
         <v>2021</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="5">
         <v>1</v>
@@ -7811,10 +7857,10 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S16" s="5">
         <v>12</v>
@@ -7829,18 +7875,18 @@
         <v>6</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC16" s="5">
         <v>30</v>
@@ -7859,17 +7905,19 @@
         <v>25</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI16" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="AI16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ16" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK16" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
@@ -8130,39 +8178,39 @@
       <c r="KI16" s="5"/>
       <c r="KJ16" s="5"/>
     </row>
-    <row r="17" ht="15.5" spans="1:296">
+    <row r="17" ht="17.6" spans="1:296">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="6">
+        <v>170</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="12"/>
       <c r="K17" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L17" s="5">
         <v>2021</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="5">
         <v>2</v>
@@ -8174,10 +8222,10 @@
         <v>14</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S17" s="5">
         <v>12</v>
@@ -8195,13 +8243,13 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC17" s="5">
         <v>30</v>
@@ -8220,17 +8268,19 @@
         <v>25</v>
       </c>
       <c r="AH17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="AK17" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
@@ -8491,37 +8541,37 @@
       <c r="KI17" s="5"/>
       <c r="KJ17" s="5"/>
     </row>
-    <row r="18" ht="15.5" spans="1:296">
+    <row r="18" ht="17.6" spans="1:296">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="6">
+        <v>182</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L18" s="5">
         <v>2021</v>
@@ -8537,10 +8587,10 @@
         <v>14</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S18" s="5">
         <v>12</v>
@@ -8557,16 +8607,16 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AC18" s="5">
         <v>13</v>
@@ -8585,15 +8635,17 @@
         <v>13</v>
       </c>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
+      <c r="AI18" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ18" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK18" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
@@ -8854,33 +8906,33 @@
       <c r="KI18" s="5"/>
       <c r="KJ18" s="5"/>
     </row>
-    <row r="19" ht="15.5" spans="1:296">
+    <row r="19" ht="17.6" spans="1:296">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="6">
+        <v>182</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L19" s="5">
         <v>2021</v>
@@ -8892,14 +8944,14 @@
       <c r="O19" s="5">
         <v>2</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>190</v>
+      <c r="P19" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S19" s="5">
         <v>12</v>
@@ -8916,16 +8968,16 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AC19" s="5">
         <v>27</v>
@@ -8944,15 +8996,17 @@
         <v>27</v>
       </c>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
+      <c r="AI19" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ19" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK19" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
@@ -9213,33 +9267,33 @@
       <c r="KI19" s="5"/>
       <c r="KJ19" s="5"/>
     </row>
-    <row r="20" ht="15.5" spans="1:296">
+    <row r="20" ht="17.6" spans="1:296">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="6">
+        <v>182</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="12"/>
       <c r="K20" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L20" s="5">
         <v>2021</v>
@@ -9255,10 +9309,10 @@
         <v>14</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S20" s="5">
         <v>12</v>
@@ -9275,16 +9329,16 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AC20" s="5">
         <v>27</v>
@@ -9303,15 +9357,17 @@
         <v>27</v>
       </c>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
+      <c r="AI20" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ20" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK20" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
@@ -9572,33 +9628,33 @@
       <c r="KI20" s="5"/>
       <c r="KJ20" s="5"/>
     </row>
-    <row r="21" ht="15.5" spans="1:296">
+    <row r="21" ht="17.6" spans="1:296">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="6">
+        <v>182</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="12"/>
       <c r="K21" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L21" s="5">
         <v>2021</v>
@@ -9614,10 +9670,10 @@
         <v>14</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S21" s="5">
         <v>12</v>
@@ -9634,16 +9690,16 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AC21" s="5">
         <v>26</v>
@@ -9662,15 +9718,17 @@
         <v>25</v>
       </c>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
+      <c r="AI21" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ21" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK21" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
@@ -9931,41 +9989,41 @@
       <c r="KI21" s="5"/>
       <c r="KJ21" s="5"/>
     </row>
-    <row r="22" ht="15.5" spans="1:296">
+    <row r="22" ht="17.6" spans="1:296">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L22" s="5">
         <v>2020</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -9978,7 +10036,7 @@
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S22" s="5">
         <v>84</v>
@@ -9995,16 +10053,16 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC22" s="5">
         <v>38</v>
@@ -10023,14 +10081,16 @@
         <v>34</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI22" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="AI22" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ22" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK22" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -10292,37 +10352,37 @@
       <c r="KI22" s="5"/>
       <c r="KJ22" s="5"/>
     </row>
-    <row r="23" ht="15.5" spans="1:296">
+    <row r="23" ht="17.6" spans="1:296">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>0</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="12"/>
       <c r="K23" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L23" s="5">
         <v>2020</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N23" s="5">
         <v>2</v>
@@ -10335,7 +10395,7 @@
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S23" s="5">
         <v>24</v>
@@ -10352,16 +10412,16 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC23" s="5">
         <v>33</v>
@@ -10380,14 +10440,16 @@
         <v>31</v>
       </c>
       <c r="AH23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="AK23" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -10649,37 +10711,37 @@
       <c r="KI23" s="5"/>
       <c r="KJ23" s="5"/>
     </row>
-    <row r="24" ht="15.5" spans="1:296">
+    <row r="24" ht="17.6" spans="1:296">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>0</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="12"/>
       <c r="K24" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L24" s="5">
         <v>2020</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N24" s="5">
         <v>3</v>
@@ -10692,7 +10754,7 @@
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S24" s="5">
         <v>24</v>
@@ -10709,16 +10771,16 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC24" s="5">
         <v>36</v>
@@ -10737,14 +10799,16 @@
         <v>35</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI24" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ24" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK24" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
@@ -11006,43 +11070,43 @@
       <c r="KI24" s="5"/>
       <c r="KJ24" s="5"/>
     </row>
-    <row r="25" ht="15.5" spans="1:296">
+    <row r="25" ht="17.6" spans="1:296">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="6">
+        <v>212</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L25" s="5">
         <v>2022</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N25" s="5">
         <v>1</v>
@@ -11054,7 +11118,7 @@
         <v>14</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5">
@@ -11073,13 +11137,13 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC25" s="5">
         <v>20</v>
@@ -11098,14 +11162,16 @@
         <v>20</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI25" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="AI25" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK25" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="AK25" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
@@ -11367,39 +11433,39 @@
       <c r="KI25" s="5"/>
       <c r="KJ25" s="5"/>
     </row>
-    <row r="26" ht="15.5" spans="1:296">
+    <row r="26" ht="17.6" spans="1:296">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="6">
+        <v>212</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>0</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="12"/>
       <c r="K26" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L26" s="5">
         <v>2022</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N26" s="5">
         <v>2</v>
@@ -11411,7 +11477,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5">
@@ -11427,18 +11493,18 @@
         <v>2</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC26" s="5">
         <v>24</v>
@@ -11457,14 +11523,16 @@
         <v>24</v>
       </c>
       <c r="AH26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK26" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK26" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
@@ -11726,39 +11794,39 @@
       <c r="KI26" s="5"/>
       <c r="KJ26" s="5"/>
     </row>
-    <row r="27" ht="15.5" spans="1:296">
+    <row r="27" ht="17.6" spans="1:296">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="6">
+        <v>212</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>0</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="12"/>
       <c r="K27" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L27" s="5">
         <v>2022</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N27" s="5">
         <v>3</v>
@@ -11770,7 +11838,7 @@
         <v>14</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5">
@@ -11786,18 +11854,18 @@
         <v>2</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC27" s="5">
         <v>25</v>
@@ -11816,14 +11884,16 @@
         <v>25</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI27" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="AI27" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ27" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AK27" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
@@ -12085,43 +12155,43 @@
       <c r="KI27" s="5"/>
       <c r="KJ27" s="5"/>
     </row>
-    <row r="28" ht="31" spans="1:296">
+    <row r="28" ht="53" spans="1:296">
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="6">
+        <v>228</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L28" s="5">
         <v>2021</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -12133,10 +12203,10 @@
         <v>14</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S28" s="5">
         <v>12</v>
@@ -12151,20 +12221,20 @@
         <v>3</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC28" s="5">
         <v>105</v>
@@ -12183,12 +12253,14 @@
         <v>105</v>
       </c>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
+      <c r="AI28" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ28" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK28" s="17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -12452,43 +12524,43 @@
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:296">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B29" s="5">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="6">
+        <v>238</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="7">
+        <v>103</v>
+      </c>
+      <c r="H29" s="8">
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L29" s="5">
         <v>2023</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -12501,7 +12573,7 @@
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S29" s="5">
         <v>1</v>
@@ -12518,16 +12590,16 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC29" s="5">
         <v>302</v>
@@ -12546,15 +12618,17 @@
         <v>299</v>
       </c>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ29" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK29" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
@@ -12815,39 +12889,39 @@
       <c r="KI29" s="5"/>
       <c r="KJ29" s="5"/>
     </row>
-    <row r="30" ht="15.5" spans="1:296">
+    <row r="30" ht="17.6" spans="1:296">
       <c r="A30" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B30" s="5">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="6">
+        <v>250</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L30" s="5">
         <v>2023</v>
@@ -12857,14 +12931,14 @@
         <v>1</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>46</v>
@@ -12879,26 +12953,26 @@
         <v>2</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC30" s="5">
         <v>23</v>
       </c>
-      <c r="AD30" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE30" s="19"/>
+      <c r="AD30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE30" s="3"/>
       <c r="AF30" s="5">
         <v>1</v>
       </c>
@@ -12907,17 +12981,19 @@
         <v>22</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI30" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ30" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK30" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="AK30" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
@@ -13178,35 +13254,35 @@
       <c r="KI30" s="5"/>
       <c r="KJ30" s="5"/>
     </row>
-    <row r="31" ht="15.5" spans="1:296">
+    <row r="31" ht="16" customHeight="1" spans="1:296">
       <c r="A31" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B31" s="5">
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="6">
+        <v>260</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="12"/>
       <c r="K31" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L31" s="5">
         <v>2014</v>
@@ -13222,10 +13298,10 @@
         <v>14</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -13237,13 +13313,13 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC31" s="5">
         <v>24</v>
@@ -13256,9 +13332,11 @@
         <v>24</v>
       </c>
       <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ31" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -13521,35 +13599,35 @@
       <c r="KI31" s="5"/>
       <c r="KJ31" s="5"/>
     </row>
-    <row r="32" ht="15.5" spans="1:296">
+    <row r="32" ht="17.6" spans="1:296">
       <c r="A32" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B32" s="5">
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="6">
+        <v>264</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>0</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="12"/>
       <c r="K32" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L32" s="5">
         <v>2015</v>
@@ -13565,10 +13643,10 @@
         <v>14</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -13580,13 +13658,13 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC32" s="5">
         <v>20</v>
@@ -13599,9 +13677,11 @@
         <v>20</v>
       </c>
       <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ32" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -13864,35 +13944,35 @@
       <c r="KI32" s="5"/>
       <c r="KJ32" s="5"/>
     </row>
-    <row r="33" ht="15.5" spans="1:296">
+    <row r="33" ht="17.6" spans="1:296">
       <c r="A33" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B33" s="5">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="6">
+        <v>264</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>0</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="12"/>
       <c r="K33" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L33" s="5">
         <v>2015</v>
@@ -13908,10 +13988,10 @@
         <v>14</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -13923,13 +14003,13 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC33" s="5">
         <v>21</v>
@@ -13942,9 +14022,11 @@
         <v>21</v>
       </c>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ33" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -14207,41 +14289,41 @@
       <c r="KI33" s="5"/>
       <c r="KJ33" s="5"/>
     </row>
-    <row r="34" ht="15.5" spans="1:296">
+    <row r="34" ht="17.6" spans="1:296">
       <c r="A34" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B34" s="5">
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="6">
+        <v>269</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>0</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="12"/>
       <c r="K34" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L34" s="5">
         <v>2014</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N34" s="5">
         <v>1</v>
@@ -14253,10 +14335,10 @@
         <v>14</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -14265,18 +14347,18 @@
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC34" s="5">
         <v>24</v>
@@ -14289,9 +14371,11 @@
         <v>24</v>
       </c>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ34" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
@@ -14554,41 +14638,41 @@
       <c r="KI34" s="5"/>
       <c r="KJ34" s="5"/>
     </row>
-    <row r="35" ht="15.5" spans="1:296">
+    <row r="35" ht="17.6" spans="1:296">
       <c r="A35" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="5">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="6">
+        <v>269</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>0</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="12"/>
       <c r="K35" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L35" s="5">
         <v>2014</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N35" s="5">
         <v>2</v>
@@ -14600,10 +14684,10 @@
         <v>14</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -14612,18 +14696,18 @@
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC35" s="5">
         <v>18</v>
@@ -14636,9 +14720,11 @@
         <v>18</v>
       </c>
       <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ35" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
@@ -14901,41 +14987,41 @@
       <c r="KI35" s="5"/>
       <c r="KJ35" s="5"/>
     </row>
-    <row r="36" ht="15.5" spans="1:296">
+    <row r="36" ht="17.6" spans="1:296">
       <c r="A36" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B36" s="5">
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="6">
+        <v>269</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>0</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="12"/>
       <c r="K36" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L36" s="5">
         <v>2014</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N36" s="5">
         <v>3</v>
@@ -14947,10 +15033,10 @@
         <v>14</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -14959,18 +15045,18 @@
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC36" s="5">
         <v>22</v>
@@ -14983,9 +15069,11 @@
         <v>22</v>
       </c>
       <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ36" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
@@ -15248,41 +15336,41 @@
       <c r="KI36" s="5"/>
       <c r="KJ36" s="5"/>
     </row>
-    <row r="37" ht="15.5" spans="1:296">
+    <row r="37" ht="17.6" spans="1:296">
       <c r="A37" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B37" s="5">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="6">
+        <v>269</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>0</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="12"/>
       <c r="K37" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" s="5">
         <v>2014</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N37" s="5">
         <v>4</v>
@@ -15294,10 +15382,10 @@
         <v>14</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -15306,18 +15394,18 @@
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA37" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC37" s="5">
         <v>20</v>
@@ -15330,9 +15418,11 @@
         <v>20</v>
       </c>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ37" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AK37" s="5"/>
       <c r="AM37" s="5"/>
@@ -15594,43 +15684,43 @@
       <c r="KI37" s="5"/>
       <c r="KJ37" s="5"/>
     </row>
-    <row r="38" ht="15.5" spans="1:296">
+    <row r="38" ht="34" spans="1:296">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="6">
+        <v>286</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="7">
         <v>1</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="10">
         <v>0</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L38" s="5">
         <v>2023</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
@@ -15643,7 +15733,7 @@
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5">
@@ -15658,16 +15748,16 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC38" s="5">
         <v>40</v>
@@ -15686,17 +15776,19 @@
         <v>37</v>
       </c>
       <c r="AH38" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI38" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ38" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AK38" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
@@ -15957,43 +16049,43 @@
       <c r="KI38" s="5"/>
       <c r="KJ38" s="5"/>
     </row>
-    <row r="39" ht="15.5" spans="1:296">
+    <row r="39" ht="17.6" spans="1:296">
       <c r="A39" s="5"/>
       <c r="B39" s="5">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="6">
+        <v>295</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="10">
         <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L39" s="5">
         <v>2023</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N39" s="5">
         <v>1</v>
@@ -16005,10 +16097,10 @@
         <v>14</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>46</v>
@@ -16026,13 +16118,13 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC39" s="5">
         <v>144</v>
@@ -16051,15 +16143,17 @@
         <v>142</v>
       </c>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
+      <c r="AI39" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ39" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AK39" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="AK39" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
@@ -16320,43 +16414,43 @@
       <c r="KI39" s="5"/>
       <c r="KJ39" s="5"/>
     </row>
-    <row r="40" ht="62" spans="1:296">
+    <row r="40" ht="71" spans="1:296">
       <c r="A40" s="5"/>
       <c r="B40" s="5">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="6">
+        <v>304</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="10">
         <v>0</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L40" s="5">
         <v>2021</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N40" s="5">
         <v>1</v>
@@ -16368,10 +16462,10 @@
         <v>14</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>46</v>
@@ -16386,22 +16480,22 @@
         <v>6</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC40" s="5">
         <v>109</v>
@@ -16420,15 +16514,17 @@
         <v>108</v>
       </c>
       <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
+      <c r="AI40" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ40" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AK40" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="AK40" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="AL40" s="17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
@@ -16689,41 +16785,41 @@
       <c r="KI40" s="5"/>
       <c r="KJ40" s="5"/>
     </row>
-    <row r="41" ht="15.5" spans="1:296">
-      <c r="A41" s="10" t="s">
-        <v>310</v>
+    <row r="41" ht="17.6" spans="1:296">
+      <c r="A41" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="B41" s="5">
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="6">
+        <v>315</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="7">
         <v>1</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="10">
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="10">
         <v>0</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="12"/>
       <c r="K41" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L41" s="5">
         <v>2023</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -16735,7 +16831,7 @@
         <v>14</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5">
@@ -16753,12 +16849,12 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AC41" s="5">
         <v>40</v>
@@ -16777,9 +16873,11 @@
         <v>39</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI41" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
@@ -17042,43 +17140,43 @@
       <c r="KI41" s="5"/>
       <c r="KJ41" s="5"/>
     </row>
-    <row r="42" ht="15.5" spans="1:296">
+    <row r="42" ht="17.6" spans="1:296">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="6">
+        <v>319</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="7">
         <v>1</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="10">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="10">
         <v>0</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L42" s="5">
         <v>2022</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N42" s="5">
         <v>1</v>
@@ -17091,7 +17189,7 @@
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S42" s="5">
         <v>24</v>
@@ -17106,20 +17204,20 @@
         <v>2</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="X42" s="5"/>
       <c r="Y42" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC42" s="5">
         <v>30</v>
@@ -17138,17 +17236,19 @@
         <v>27</v>
       </c>
       <c r="AH42" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI42" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="AJ42" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AK42" s="12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AL42" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
@@ -17409,39 +17509,39 @@
       <c r="KI42" s="5"/>
       <c r="KJ42" s="5"/>
     </row>
-    <row r="43" ht="15.5" spans="1:296">
+    <row r="43" ht="17.6" spans="1:296">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="6">
+        <v>319</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="10">
         <v>0</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="10">
         <v>0</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="12"/>
       <c r="K43" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L43" s="5">
         <v>2022</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N43" s="5">
         <v>2</v>
@@ -17454,7 +17554,7 @@
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S43" s="5">
         <v>24</v>
@@ -17469,20 +17569,20 @@
         <v>2</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="X43" s="5"/>
       <c r="Y43" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC43" s="5">
         <v>104</v>
@@ -17501,17 +17601,19 @@
         <v>102</v>
       </c>
       <c r="AH43" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI43" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="AJ43" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AK43" s="12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
@@ -17772,45 +17874,45 @@
       <c r="KI43" s="5"/>
       <c r="KJ43" s="5"/>
     </row>
-    <row r="44" ht="15.5" spans="1:296">
+    <row r="44" ht="17.6" spans="1:296">
       <c r="A44" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B44" s="5">
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="6">
+        <v>336</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="7">
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>1</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="10">
         <v>0</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>333</v>
+      <c r="I44" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L44" s="5">
         <v>2022</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N44" s="5">
         <v>1</v>
@@ -17822,10 +17924,10 @@
         <v>14</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>46</v>
@@ -17842,24 +17944,24 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC44" s="5">
         <v>328</v>
       </c>
-      <c r="AD44" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE44" s="19"/>
+      <c r="AD44" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE44" s="3"/>
       <c r="AF44" s="5">
         <v>40</v>
       </c>
@@ -17868,15 +17970,17 @@
         <v>288</v>
       </c>
       <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
+      <c r="AI44" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ44" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="AK44" s="16" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="AK44" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM44" s="5"/>
       <c r="AN44" s="5"/>
@@ -18137,43 +18241,43 @@
       <c r="KI44" s="5"/>
       <c r="KJ44" s="5"/>
     </row>
-    <row r="45" ht="15.5" spans="1:296">
+    <row r="45" ht="17.6" spans="1:296">
       <c r="A45" s="5"/>
       <c r="B45" s="5">
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="6">
+        <v>345</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="10">
         <v>0</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="10">
         <v>0</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L45" s="5">
         <v>2020</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N45" s="5">
         <v>1</v>
@@ -18185,10 +18289,10 @@
         <v>14</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S45" s="5">
         <v>24</v>
@@ -18205,12 +18309,12 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC45" s="5">
         <v>23</v>
@@ -18229,17 +18333,19 @@
         <v>18</v>
       </c>
       <c r="AH45" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI45" s="5"/>
+        <v>348</v>
+      </c>
+      <c r="AI45" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ45" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK45" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
+      </c>
+      <c r="AK45" s="15" t="s">
+        <v>350</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
@@ -18500,39 +18606,39 @@
       <c r="KI45" s="5"/>
       <c r="KJ45" s="5"/>
     </row>
-    <row r="46" ht="15.5" spans="1:296">
+    <row r="46" ht="17.6" spans="1:296">
       <c r="A46" s="5"/>
       <c r="B46" s="5">
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="6">
+        <v>345</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="10">
         <v>0</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="10">
         <v>0</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="12"/>
       <c r="K46" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L46" s="5">
         <v>2020</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N46" s="5">
         <v>1</v>
@@ -18544,10 +18650,10 @@
         <v>14</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S46" s="5">
         <v>24</v>
@@ -18564,12 +18670,12 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC46" s="5">
         <v>21</v>
@@ -18588,17 +18694,19 @@
         <v>18</v>
       </c>
       <c r="AH46" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI46" s="5"/>
+        <v>348</v>
+      </c>
+      <c r="AI46" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ46" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AK46" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AL46" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
@@ -18859,39 +18967,39 @@
       <c r="KI46" s="5"/>
       <c r="KJ46" s="5"/>
     </row>
-    <row r="47" ht="15.5" spans="1:296">
+    <row r="47" ht="17.6" spans="1:296">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="6">
+        <v>345</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="10">
         <v>0</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="10">
         <v>0</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="12"/>
       <c r="K47" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L47" s="5">
         <v>2020</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N47" s="5">
         <v>1</v>
@@ -18903,10 +19011,10 @@
         <v>14</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S47" s="5">
         <v>24</v>
@@ -18923,12 +19031,12 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC47" s="5">
         <v>18</v>
@@ -18947,17 +19055,19 @@
         <v>18</v>
       </c>
       <c r="AH47" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI47" s="5"/>
+        <v>348</v>
+      </c>
+      <c r="AI47" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ47" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AK47" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
@@ -19218,43 +19328,43 @@
       <c r="KI47" s="5"/>
       <c r="KJ47" s="5"/>
     </row>
-    <row r="48" ht="15.5" spans="1:296">
+    <row r="48" ht="17.6" spans="1:296">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="6">
+        <v>354</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="7">
         <v>1</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="10">
         <v>0</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="10">
         <v>0</v>
       </c>
-      <c r="I48" s="15" t="s">
-        <v>302</v>
+      <c r="I48" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L48" s="5">
         <v>2023</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N48" s="5">
         <v>1</v>
@@ -19267,7 +19377,7 @@
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S48" s="5">
         <v>12</v>
@@ -19284,20 +19394,20 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC48" s="5">
         <v>380</v>
       </c>
-      <c r="AD48" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE48" s="19"/>
+      <c r="AD48" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE48" s="3"/>
       <c r="AF48" s="5">
         <v>32</v>
       </c>
@@ -19306,15 +19416,17 @@
         <v>348</v>
       </c>
       <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
+      <c r="AI48" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ48" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AK48" s="16" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="AK48" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="AL48" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
@@ -19575,43 +19687,43 @@
       <c r="KI48" s="5"/>
       <c r="KJ48" s="5"/>
     </row>
-    <row r="49" ht="31" spans="1:296">
+    <row r="49" ht="36" spans="1:296">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="6">
+        <v>360</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="9">
+        <v>103</v>
+      </c>
+      <c r="H49" s="10">
         <v>0</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L49" s="5">
         <v>2021</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N49" s="5">
         <v>1</v>
@@ -19623,10 +19735,10 @@
         <v>14</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>46</v>
@@ -19662,15 +19774,17 @@
         <v>84</v>
       </c>
       <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
+      <c r="AI49" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ49" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AK49" s="17" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
@@ -19931,43 +20045,43 @@
       <c r="KI49" s="5"/>
       <c r="KJ49" s="5"/>
     </row>
-    <row r="50" ht="15.5" spans="1:296">
+    <row r="50" ht="17.6" spans="1:296">
       <c r="A50" s="5"/>
       <c r="B50" s="5">
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="6">
+        <v>368</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="10">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="7">
         <v>1</v>
       </c>
-      <c r="I50" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>366</v>
+      <c r="I50" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L50" s="5">
         <v>2023</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N50" s="5">
         <v>1</v>
@@ -19979,10 +20093,10 @@
         <v>14</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S50" s="5">
         <v>12</v>
@@ -20018,17 +20132,19 @@
         <v>20</v>
       </c>
       <c r="AH50" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI50" s="5"/>
+        <v>373</v>
+      </c>
+      <c r="AI50" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ50" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AK50" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AL50" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
@@ -20289,43 +20405,43 @@
       <c r="KI50" s="5"/>
       <c r="KJ50" s="5"/>
     </row>
-    <row r="51" ht="15.5" spans="1:296">
+    <row r="51" ht="17.6" spans="1:296">
       <c r="A51" s="5"/>
       <c r="B51" s="5">
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="6">
+        <v>377</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="10">
         <v>0</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="10">
         <v>0</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>374</v>
+      <c r="I51" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L51" s="5">
         <v>2024</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N51" s="5">
         <v>1</v>
@@ -20337,10 +20453,10 @@
         <v>14</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S51" s="5">
         <v>20</v>
@@ -20357,12 +20473,12 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AC51" s="5">
         <v>32</v>
@@ -20380,17 +20496,19 @@
         <v>32</v>
       </c>
       <c r="AH51" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI51" s="5"/>
+        <v>383</v>
+      </c>
+      <c r="AI51" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ51" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK51" s="12" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
@@ -20651,43 +20769,43 @@
       <c r="KI51" s="5"/>
       <c r="KJ51" s="5"/>
     </row>
-    <row r="52" ht="15.5" spans="1:296">
+    <row r="52" ht="18" spans="1:296">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="6">
+        <v>387</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="6">
+        <v>103</v>
+      </c>
+      <c r="H52" s="7">
         <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L52" s="5">
         <v>2024</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N52" s="5">
         <v>1</v>
@@ -20699,10 +20817,10 @@
         <v>14</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S52" s="5">
         <v>24</v>
@@ -20734,14 +20852,16 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="AI52" s="5"/>
+        <v>393</v>
+      </c>
+      <c r="AI52" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ52" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AK52" s="12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
@@ -21003,25 +21123,25 @@
       <c r="KI52" s="5"/>
       <c r="KJ52" s="5"/>
     </row>
-    <row r="53" ht="15.5" spans="1:296">
+    <row r="53" ht="17.6" spans="1:296">
       <c r="A53" s="5"/>
       <c r="B53" s="5">
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="6">
+      <c r="F53" s="7">
         <v>1</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="10">
         <v>0</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="10">
         <v>0</v>
       </c>
       <c r="I53" s="5"/>
@@ -21051,9 +21171,11 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
-      <c r="AI53" s="5"/>
+      <c r="AI53" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ53" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AK53" s="12"/>
       <c r="AL53" s="5"/>
@@ -21316,43 +21438,43 @@
       <c r="KI53" s="5"/>
       <c r="KJ53" s="5"/>
     </row>
-    <row r="54" ht="15.5" spans="1:296">
+    <row r="54" ht="17.6" spans="1:296">
       <c r="A54" s="5"/>
       <c r="B54" s="5">
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="6">
+        <v>400</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="10">
         <v>0</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="10">
         <v>0</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>397</v>
+      <c r="I54" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="L54" s="5">
         <v>2024</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N54" s="5">
         <v>1</v>
@@ -21365,7 +21487,7 @@
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -21374,12 +21496,12 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AC54" s="5">
         <v>40</v>
@@ -21397,17 +21519,17 @@
         <v>40</v>
       </c>
       <c r="AH54" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AK54" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
@@ -21668,43 +21790,43 @@
       <c r="KI54" s="5"/>
       <c r="KJ54" s="5"/>
     </row>
-    <row r="55" ht="15.5" spans="1:296">
+    <row r="55" ht="17.6" spans="1:296">
       <c r="A55" s="5"/>
       <c r="B55" s="5">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" s="6">
+        <v>400</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="10">
         <v>0</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="10">
         <v>0</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>397</v>
+      <c r="I55" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="L55" s="5">
         <v>2024</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N55" s="5">
         <v>2</v>
@@ -21717,7 +21839,7 @@
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -21726,12 +21848,12 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AC55" s="5">
         <v>40</v>
@@ -21749,17 +21871,17 @@
         <v>40</v>
       </c>
       <c r="AH55" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="AK55" s="12" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="AK55" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -22020,27 +22142,27 @@
       <c r="KI55" s="5"/>
       <c r="KJ55" s="5"/>
     </row>
-    <row r="56" ht="15.5" spans="1:296">
+    <row r="56" ht="17.6" spans="1:296">
       <c r="A56" s="5"/>
       <c r="B56" s="5">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="6">
+        <v>411</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="7">
         <v>1</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="10">
         <v>0</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="7">
         <v>1</v>
       </c>
       <c r="I56" s="5"/>
@@ -22069,15 +22191,17 @@
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
+      <c r="AI56" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ56" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AK56" s="12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -22338,15 +22462,15 @@
       <c r="KI56" s="5"/>
       <c r="KJ56" s="5"/>
     </row>
-    <row r="57" ht="15.5" spans="1:296">
+    <row r="57" ht="17.6" spans="1:296">
       <c r="A57" s="5"/>
       <c r="B57" s="5">
         <v>56</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="8" t="s">
-        <v>62</v>
+      <c r="E57" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -22640,7 +22764,7 @@
       <c r="KI57" s="5"/>
       <c r="KJ57" s="5"/>
     </row>
-    <row r="58" ht="15.5" spans="1:296">
+    <row r="58" ht="17.6" spans="1:296">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -22938,7 +23062,7 @@
       <c r="KI58" s="5"/>
       <c r="KJ58" s="5"/>
     </row>
-    <row r="59" ht="15.5" spans="1:296">
+    <row r="59" ht="17.6" spans="1:296">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -23236,7 +23360,7 @@
       <c r="KI59" s="5"/>
       <c r="KJ59" s="5"/>
     </row>
-    <row r="60" ht="15.5" spans="1:296">
+    <row r="60" ht="17.6" spans="1:296">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -23534,7 +23658,7 @@
       <c r="KI60" s="5"/>
       <c r="KJ60" s="5"/>
     </row>
-    <row r="61" ht="15.5" spans="1:296">
+    <row r="61" ht="17.6" spans="1:296">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -23832,7 +23956,7 @@
       <c r="KI61" s="5"/>
       <c r="KJ61" s="5"/>
     </row>
-    <row r="62" ht="15.5" spans="1:296">
+    <row r="62" ht="17.6" spans="1:296">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -24130,7 +24254,7 @@
       <c r="KI62" s="5"/>
       <c r="KJ62" s="5"/>
     </row>
-    <row r="63" ht="15.5" spans="1:296">
+    <row r="63" ht="17.6" spans="1:296">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -24428,7 +24552,7 @@
       <c r="KI63" s="5"/>
       <c r="KJ63" s="5"/>
     </row>
-    <row r="64" ht="15.5" spans="1:296">
+    <row r="64" ht="17.6" spans="1:296">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -24726,7 +24850,7 @@
       <c r="KI64" s="5"/>
       <c r="KJ64" s="5"/>
     </row>
-    <row r="65" ht="15.5" spans="1:296">
+    <row r="65" ht="17.6" spans="1:296">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -25024,7 +25148,7 @@
       <c r="KI65" s="5"/>
       <c r="KJ65" s="5"/>
     </row>
-    <row r="66" ht="15.5" spans="1:296">
+    <row r="66" ht="17.6" spans="1:296">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -25322,7 +25446,7 @@
       <c r="KI66" s="5"/>
       <c r="KJ66" s="5"/>
     </row>
-    <row r="67" ht="15.5" spans="1:296">
+    <row r="67" ht="17.6" spans="1:296">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -25620,7 +25744,7 @@
       <c r="KI67" s="5"/>
       <c r="KJ67" s="5"/>
     </row>
-    <row r="68" ht="15.5" spans="1:37">
+    <row r="68" ht="17.6" spans="1:37">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -25638,7 +25762,7 @@
       <c r="R68" s="5"/>
       <c r="AK68" s="12"/>
     </row>
-    <row r="69" ht="15.5" spans="13:13">
+    <row r="69" ht="17.6" spans="13:13">
       <c r="M69" s="5"/>
     </row>
   </sheetData>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26120" windowHeight="12300"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="424">
   <si>
     <t>Note</t>
   </si>
@@ -1411,7 +1411,7 @@
     <t>Pu1E1</t>
   </si>
   <si>
-    <t>Pa1</t>
+    <t>Pu1</t>
   </si>
   <si>
     <t>Wang_2016_EPHPP</t>
@@ -1420,7 +1420,7 @@
     <t>Pu2E1</t>
   </si>
   <si>
-    <t>Pa2</t>
+    <t>Pu2</t>
   </si>
   <si>
     <t>Mario Dalmaso</t>
@@ -1441,6 +1441,9 @@
     <t>2(Condition:self_Asian vs. self_White)*2(Trials:MatchingnNonmatching)*2(Identity:Self,Other)</t>
   </si>
   <si>
+    <t>voice</t>
+  </si>
+  <si>
     <t>Dalmaso_2024_CC</t>
   </si>
   <si>
@@ -1453,13 +1456,40 @@
     <t>Pu3E1</t>
   </si>
   <si>
-    <t>Pa3</t>
+    <t>Pu3</t>
   </si>
   <si>
     <t>Smith_2024_Cortex</t>
   </si>
   <si>
     <t>https://osf.io/br98c/</t>
+  </si>
+  <si>
+    <t>Pu4E1</t>
+  </si>
+  <si>
+    <t>Pu4</t>
+  </si>
+  <si>
+    <t>Neil W. Kirk</t>
+  </si>
+  <si>
+    <t>n.kirk@abertay.ac.uk</t>
+  </si>
+  <si>
+    <t>Neil W. Kirk et al.</t>
+  </si>
+  <si>
+    <t>British Journal of Psycholog y</t>
+  </si>
+  <si>
+    <t>Slef</t>
+  </si>
+  <si>
+    <t>Kirk_2025_BJP</t>
+  </si>
+  <si>
+    <t>https://osf.io/hr96d/</t>
   </si>
 </sst>
 </file>
@@ -1488,14 +1518,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体-简"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1505,6 +1535,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.05"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1525,12 +1561,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.05"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2015,7 +2045,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2161,19 +2191,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2188,10 +2218,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2203,14 +2233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2538,54 +2568,54 @@
   <sheetPr/>
   <dimension ref="A1:KJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AJ43" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI16" sqref="AI16"/>
+      <selection pane="bottomRight" activeCell="AL60" sqref="AL60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9.16964285714286" customWidth="1"/>
-    <col min="4" max="5" width="6.08035714285714" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
+    <col min="4" max="5" width="6.08333333333333" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.4196428571429" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="24.5803571428571" customWidth="1"/>
-    <col min="10" max="10" width="40.0803571428571" customWidth="1"/>
-    <col min="11" max="11" width="23.4196428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="10" max="10" width="40.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="23.4166666666667" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="67.0803571428571" customWidth="1"/>
+    <col min="13" max="13" width="67.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="20.0803571428571" customWidth="1"/>
-    <col min="18" max="18" width="21.5803571428571" customWidth="1"/>
-    <col min="19" max="19" width="13.0803571428571" customWidth="1"/>
+    <col min="17" max="17" width="20.0833333333333" customWidth="1"/>
+    <col min="18" max="18" width="21.5833333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.0833333333333" customWidth="1"/>
     <col min="20" max="20" width="14.25" customWidth="1"/>
-    <col min="21" max="21" width="12.9196428571429" customWidth="1"/>
+    <col min="21" max="21" width="12.9166666666667" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
-    <col min="23" max="23" width="41.6696428571429" customWidth="1"/>
+    <col min="23" max="23" width="41.6666666666667" customWidth="1"/>
     <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="25" width="28.4196428571429" style="2" customWidth="1"/>
+    <col min="25" max="25" width="28.4166666666667" style="2" customWidth="1"/>
     <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="17.5803571428571" customWidth="1"/>
+    <col min="27" max="27" width="17.5833333333333" customWidth="1"/>
     <col min="28" max="28" width="14.5" customWidth="1"/>
     <col min="29" max="29" width="11.75" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="9.92857142857143" customWidth="1"/>
+    <col min="31" max="31" width="9.925" customWidth="1"/>
     <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="7.58035714285714" customWidth="1"/>
-    <col min="34" max="34" width="118.830357142857" customWidth="1"/>
+    <col min="33" max="33" width="7.58333333333333" customWidth="1"/>
+    <col min="34" max="34" width="118.833333333333" customWidth="1"/>
     <col min="35" max="36" width="25.75" customWidth="1"/>
-    <col min="37" max="37" width="59.4285714285714" customWidth="1"/>
-    <col min="38" max="38" width="68.6428571428571" customWidth="1"/>
+    <col min="37" max="37" width="59.425" customWidth="1"/>
+    <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.6" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:296">
+    <row r="2" ht="15.5" spans="1:296">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -2713,13 +2743,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3064,7 +3094,7 @@
       <c r="KI2" s="5"/>
       <c r="KJ2" s="5"/>
     </row>
-    <row r="3" ht="17.6" spans="1:296">
+    <row r="3" ht="15.5" spans="1:296">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -3078,13 +3108,13 @@
         <v>39</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="5"/>
@@ -3425,7 +3455,7 @@
       <c r="KI3" s="5"/>
       <c r="KJ3" s="5"/>
     </row>
-    <row r="4" ht="17.6" spans="1:296">
+    <row r="4" ht="15.5" spans="1:296">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3439,13 +3469,13 @@
         <v>39</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="5"/>
@@ -3786,7 +3816,7 @@
       <c r="KI4" s="5"/>
       <c r="KJ4" s="5"/>
     </row>
-    <row r="5" ht="17.6" spans="1:296">
+    <row r="5" ht="15.5" spans="1:296">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -3800,13 +3830,13 @@
         <v>39</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="5"/>
@@ -4158,16 +4188,16 @@
       <c r="D6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -4516,7 +4546,7 @@
       <c r="KI6" s="5"/>
       <c r="KJ6" s="5"/>
     </row>
-    <row r="7" ht="17.6" spans="1:296">
+    <row r="7" ht="15.5" spans="1:296">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>6</v>
@@ -4528,13 +4558,13 @@
         <v>76</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -4614,7 +4644,7 @@
       <c r="AJ7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AK7" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AL7" s="5"/>
@@ -4877,7 +4907,7 @@
       <c r="KI7" s="5"/>
       <c r="KJ7" s="5"/>
     </row>
-    <row r="8" ht="36" spans="1:296">
+    <row r="8" ht="31" spans="1:296">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4890,16 +4920,16 @@
       <c r="D8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -5242,7 +5272,7 @@
       <c r="KI8" s="5"/>
       <c r="KJ8" s="5"/>
     </row>
-    <row r="9" ht="71" spans="1:296">
+    <row r="9" ht="62" spans="1:296">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>8</v>
@@ -5254,13 +5284,13 @@
         <v>102</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -5606,7 +5636,7 @@
       <c r="KI9" s="5"/>
       <c r="KJ9" s="5"/>
     </row>
-    <row r="10" ht="17.6" spans="1:296">
+    <row r="10" ht="15.5" spans="1:296">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>9</v>
@@ -5617,14 +5647,14 @@
       <c r="D10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -5704,7 +5734,7 @@
       <c r="AJ10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AK10" s="16" t="s">
         <v>122</v>
       </c>
       <c r="AL10" s="5"/>
@@ -5967,7 +5997,7 @@
       <c r="KI10" s="5"/>
       <c r="KJ10" s="5"/>
     </row>
-    <row r="11" ht="36" spans="1:296">
+    <row r="11" ht="31" spans="1:296">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
@@ -5980,16 +6010,16 @@
       <c r="D11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -6074,7 +6104,7 @@
       <c r="AK11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AL11" s="15" t="s">
+      <c r="AL11" s="16" t="s">
         <v>135</v>
       </c>
       <c r="AM11" s="5"/>
@@ -6336,7 +6366,7 @@
       <c r="KI11" s="5"/>
       <c r="KJ11" s="5"/>
     </row>
-    <row r="12" ht="36" spans="1:296">
+    <row r="12" ht="31" spans="1:296">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>11</v>
@@ -6347,16 +6377,16 @@
       <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="5"/>
@@ -6701,7 +6731,7 @@
       <c r="KI12" s="5"/>
       <c r="KJ12" s="5"/>
     </row>
-    <row r="13" ht="53" spans="1:296">
+    <row r="13" ht="46.5" spans="1:296">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>12</v>
@@ -6712,16 +6742,16 @@
       <c r="D13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -7070,7 +7100,7 @@
       <c r="KI13" s="5"/>
       <c r="KJ13" s="5"/>
     </row>
-    <row r="14" ht="34" spans="1:296">
+    <row r="14" ht="28" spans="1:296">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
@@ -7083,16 +7113,16 @@
       <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -7176,7 +7206,7 @@
       <c r="AJ14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AK14" s="21" t="s">
+      <c r="AK14" s="20" t="s">
         <v>166</v>
       </c>
       <c r="AL14" s="5" t="s">
@@ -7440,7 +7470,7 @@
       <c r="KI14" s="5"/>
       <c r="KJ14" s="5"/>
     </row>
-    <row r="15" ht="34" spans="1:296">
+    <row r="15" ht="28" spans="1:296">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -7453,16 +7483,16 @@
       <c r="D15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="I15" s="5"/>
@@ -7542,7 +7572,7 @@
       <c r="AJ15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AK15" s="22" t="s">
+      <c r="AK15" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AL15" s="5" t="s">
@@ -7807,7 +7837,7 @@
       <c r="KI15" s="5"/>
       <c r="KJ15" s="5"/>
     </row>
-    <row r="16" ht="17.6" spans="1:296">
+    <row r="16" ht="15.5" spans="1:296">
       <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
@@ -7820,16 +7850,16 @@
       <c r="D16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -7907,13 +7937,13 @@
       <c r="AH16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AI16" s="20" t="s">
+      <c r="AI16" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ16" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AK16" s="15" t="s">
+      <c r="AK16" s="16" t="s">
         <v>178</v>
       </c>
       <c r="AL16" s="5" t="s">
@@ -8178,7 +8208,7 @@
       <c r="KI16" s="5"/>
       <c r="KJ16" s="5"/>
     </row>
-    <row r="17" ht="17.6" spans="1:296">
+    <row r="17" ht="15.5" spans="1:296">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>16</v>
@@ -8189,16 +8219,16 @@
       <c r="D17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="5"/>
@@ -8270,7 +8300,7 @@
       <c r="AH17" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AI17" s="20" t="s">
+      <c r="AI17" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ17" s="5" t="s">
@@ -8541,7 +8571,7 @@
       <c r="KI17" s="5"/>
       <c r="KJ17" s="5"/>
     </row>
-    <row r="18" ht="17.6" spans="1:296">
+    <row r="18" ht="15.5" spans="1:296">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>17</v>
@@ -8552,16 +8582,16 @@
       <c r="D18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -8635,13 +8665,13 @@
         <v>13</v>
       </c>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="20" t="s">
+      <c r="AI18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AK18" s="15" t="s">
+      <c r="AK18" s="16" t="s">
         <v>190</v>
       </c>
       <c r="AL18" s="5" t="s">
@@ -8906,7 +8936,7 @@
       <c r="KI18" s="5"/>
       <c r="KJ18" s="5"/>
     </row>
-    <row r="19" ht="17.6" spans="1:296">
+    <row r="19" ht="15.5" spans="1:296">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>18</v>
@@ -8917,16 +8947,16 @@
       <c r="D19" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="5"/>
@@ -8944,7 +8974,7 @@
       <c r="O19" s="5">
         <v>2</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="13" t="s">
         <v>193</v>
       </c>
       <c r="Q19" s="5" t="s">
@@ -8996,7 +9026,7 @@
         <v>27</v>
       </c>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="20" t="s">
+      <c r="AI19" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ19" s="5" t="s">
@@ -9267,7 +9297,7 @@
       <c r="KI19" s="5"/>
       <c r="KJ19" s="5"/>
     </row>
-    <row r="20" ht="17.6" spans="1:296">
+    <row r="20" ht="15.5" spans="1:296">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>19</v>
@@ -9278,16 +9308,16 @@
       <c r="D20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="5"/>
@@ -9357,7 +9387,7 @@
         <v>27</v>
       </c>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="20" t="s">
+      <c r="AI20" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ20" s="5" t="s">
@@ -9628,7 +9658,7 @@
       <c r="KI20" s="5"/>
       <c r="KJ20" s="5"/>
     </row>
-    <row r="21" ht="17.6" spans="1:296">
+    <row r="21" ht="15.5" spans="1:296">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>20</v>
@@ -9639,16 +9669,16 @@
       <c r="D21" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="5"/>
@@ -9718,7 +9748,7 @@
         <v>25</v>
       </c>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="20" t="s">
+      <c r="AI21" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ21" s="5" t="s">
@@ -9989,7 +10019,7 @@
       <c r="KI21" s="5"/>
       <c r="KJ21" s="5"/>
     </row>
-    <row r="22" ht="17.6" spans="1:296">
+    <row r="22" ht="15.5" spans="1:296">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>21</v>
@@ -10001,13 +10031,13 @@
         <v>198</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -10083,7 +10113,7 @@
       <c r="AH22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AI22" s="20" t="s">
+      <c r="AI22" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ22" s="5" t="s">
@@ -10352,7 +10382,7 @@
       <c r="KI22" s="5"/>
       <c r="KJ22" s="5"/>
     </row>
-    <row r="23" ht="17.6" spans="1:296">
+    <row r="23" ht="15.5" spans="1:296">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>22</v>
@@ -10364,13 +10394,13 @@
         <v>198</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="5"/>
@@ -10442,7 +10472,7 @@
       <c r="AH23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AI23" s="20" t="s">
+      <c r="AI23" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ23" s="5" t="s">
@@ -10711,7 +10741,7 @@
       <c r="KI23" s="5"/>
       <c r="KJ23" s="5"/>
     </row>
-    <row r="24" ht="17.6" spans="1:296">
+    <row r="24" ht="15.5" spans="1:296">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>23</v>
@@ -10723,13 +10753,13 @@
         <v>198</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="5"/>
@@ -10801,7 +10831,7 @@
       <c r="AH24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AI24" s="20" t="s">
+      <c r="AI24" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ24" s="5" t="s">
@@ -11070,7 +11100,7 @@
       <c r="KI24" s="5"/>
       <c r="KJ24" s="5"/>
     </row>
-    <row r="25" ht="17.6" spans="1:296">
+    <row r="25" ht="15.5" spans="1:296">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>24</v>
@@ -11081,16 +11111,16 @@
       <c r="D25" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -11164,13 +11194,13 @@
       <c r="AH25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AI25" s="20" t="s">
+      <c r="AI25" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AK25" s="15" t="s">
+      <c r="AK25" s="16" t="s">
         <v>220</v>
       </c>
       <c r="AL25" s="5"/>
@@ -11433,7 +11463,7 @@
       <c r="KI25" s="5"/>
       <c r="KJ25" s="5"/>
     </row>
-    <row r="26" ht="17.6" spans="1:296">
+    <row r="26" ht="15.5" spans="1:296">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>25</v>
@@ -11444,16 +11474,16 @@
       <c r="D26" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="5"/>
@@ -11525,7 +11555,7 @@
       <c r="AH26" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AI26" s="20" t="s">
+      <c r="AI26" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ26" s="5" t="s">
@@ -11794,7 +11824,7 @@
       <c r="KI26" s="5"/>
       <c r="KJ26" s="5"/>
     </row>
-    <row r="27" ht="17.6" spans="1:296">
+    <row r="27" ht="15.5" spans="1:296">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>26</v>
@@ -11805,16 +11835,16 @@
       <c r="D27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="5"/>
@@ -11886,7 +11916,7 @@
       <c r="AH27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AI27" s="20" t="s">
+      <c r="AI27" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ27" s="5" t="s">
@@ -12155,7 +12185,7 @@
       <c r="KI27" s="5"/>
       <c r="KJ27" s="5"/>
     </row>
-    <row r="28" ht="53" spans="1:296">
+    <row r="28" ht="31" spans="1:296">
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <v>27</v>
@@ -12166,16 +12196,16 @@
       <c r="D28" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -12253,7 +12283,7 @@
         <v>105</v>
       </c>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="20" t="s">
+      <c r="AI28" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AJ28" s="5" t="s">
@@ -12535,16 +12565,16 @@
       <c r="D29" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -12889,7 +12919,7 @@
       <c r="KI29" s="5"/>
       <c r="KJ29" s="5"/>
     </row>
-    <row r="30" ht="17.6" spans="1:296">
+    <row r="30" ht="15.5" spans="1:296">
       <c r="A30" s="5" t="s">
         <v>248</v>
       </c>
@@ -12902,16 +12932,16 @@
       <c r="D30" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -12989,7 +13019,7 @@
       <c r="AJ30" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AK30" s="15" t="s">
+      <c r="AK30" s="16" t="s">
         <v>256</v>
       </c>
       <c r="AL30" s="5" t="s">
@@ -13267,16 +13297,16 @@
       <c r="D31" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
@@ -13599,7 +13629,7 @@
       <c r="KI31" s="5"/>
       <c r="KJ31" s="5"/>
     </row>
-    <row r="32" ht="17.6" spans="1:296">
+    <row r="32" ht="15.5" spans="1:296">
       <c r="A32" s="5" t="s">
         <v>258</v>
       </c>
@@ -13612,16 +13642,16 @@
       <c r="D32" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="5"/>
@@ -13944,7 +13974,7 @@
       <c r="KI32" s="5"/>
       <c r="KJ32" s="5"/>
     </row>
-    <row r="33" ht="17.6" spans="1:296">
+    <row r="33" ht="15.5" spans="1:296">
       <c r="A33" s="5" t="s">
         <v>258</v>
       </c>
@@ -13957,16 +13987,16 @@
       <c r="D33" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="5"/>
@@ -14289,7 +14319,7 @@
       <c r="KI33" s="5"/>
       <c r="KJ33" s="5"/>
     </row>
-    <row r="34" ht="17.6" spans="1:296">
+    <row r="34" ht="15.5" spans="1:296">
       <c r="A34" s="5" t="s">
         <v>267</v>
       </c>
@@ -14302,16 +14332,16 @@
       <c r="D34" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>1</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="5"/>
@@ -14638,7 +14668,7 @@
       <c r="KI34" s="5"/>
       <c r="KJ34" s="5"/>
     </row>
-    <row r="35" ht="17.6" spans="1:296">
+    <row r="35" ht="15.5" spans="1:296">
       <c r="A35" s="5" t="s">
         <v>276</v>
       </c>
@@ -14651,16 +14681,16 @@
       <c r="D35" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="5"/>
@@ -14987,7 +15017,7 @@
       <c r="KI35" s="5"/>
       <c r="KJ35" s="5"/>
     </row>
-    <row r="36" ht="17.6" spans="1:296">
+    <row r="36" ht="15.5" spans="1:296">
       <c r="A36" s="5" t="s">
         <v>279</v>
       </c>
@@ -15000,16 +15030,16 @@
       <c r="D36" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>1</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="5"/>
@@ -15336,7 +15366,7 @@
       <c r="KI36" s="5"/>
       <c r="KJ36" s="5"/>
     </row>
-    <row r="37" ht="17.6" spans="1:296">
+    <row r="37" ht="15.5" spans="1:296">
       <c r="A37" s="5" t="s">
         <v>282</v>
       </c>
@@ -15349,16 +15379,16 @@
       <c r="D37" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="5"/>
@@ -15684,7 +15714,7 @@
       <c r="KI37" s="5"/>
       <c r="KJ37" s="5"/>
     </row>
-    <row r="38" ht="34" spans="1:296">
+    <row r="38" ht="15.5" spans="1:296">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>37</v>
@@ -15695,16 +15725,16 @@
       <c r="D38" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -15784,7 +15814,7 @@
       <c r="AJ38" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AK38" s="21" t="s">
+      <c r="AK38" s="20" t="s">
         <v>293</v>
       </c>
       <c r="AL38" s="5" t="s">
@@ -16049,7 +16079,7 @@
       <c r="KI38" s="5"/>
       <c r="KJ38" s="5"/>
     </row>
-    <row r="39" ht="17.6" spans="1:296">
+    <row r="39" ht="15.5" spans="1:296">
       <c r="A39" s="5"/>
       <c r="B39" s="5">
         <v>38</v>
@@ -16060,16 +16090,16 @@
       <c r="D39" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>1</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -16149,7 +16179,7 @@
       <c r="AJ39" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AK39" s="15" t="s">
+      <c r="AK39" s="16" t="s">
         <v>302</v>
       </c>
       <c r="AL39" s="5" t="s">
@@ -16414,7 +16444,7 @@
       <c r="KI39" s="5"/>
       <c r="KJ39" s="5"/>
     </row>
-    <row r="40" ht="71" spans="1:296">
+    <row r="40" ht="62" spans="1:296">
       <c r="A40" s="5"/>
       <c r="B40" s="5">
         <v>39</v>
@@ -16425,16 +16455,16 @@
       <c r="D40" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -16520,7 +16550,7 @@
       <c r="AJ40" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AK40" s="15" t="s">
+      <c r="AK40" s="16" t="s">
         <v>311</v>
       </c>
       <c r="AL40" s="17" t="s">
@@ -16785,8 +16815,8 @@
       <c r="KI40" s="5"/>
       <c r="KJ40" s="5"/>
     </row>
-    <row r="41" ht="17.6" spans="1:296">
-      <c r="A41" s="6" t="s">
+    <row r="41" ht="15.5" spans="1:296">
+      <c r="A41" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B41" s="5">
@@ -16798,16 +16828,16 @@
       <c r="D41" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
       <c r="I41" s="5"/>
@@ -17140,7 +17170,7 @@
       <c r="KI41" s="5"/>
       <c r="KJ41" s="5"/>
     </row>
-    <row r="42" ht="17.6" spans="1:296">
+    <row r="42" ht="15.5" spans="1:296">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
         <v>41</v>
@@ -17151,16 +17181,16 @@
       <c r="D42" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>0</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -17509,7 +17539,7 @@
       <c r="KI42" s="5"/>
       <c r="KJ42" s="5"/>
     </row>
-    <row r="43" ht="17.6" spans="1:296">
+    <row r="43" ht="15.5" spans="1:296">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>42</v>
@@ -17520,16 +17550,16 @@
       <c r="D43" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>1</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>0</v>
       </c>
       <c r="I43" s="5"/>
@@ -17874,7 +17904,7 @@
       <c r="KI43" s="5"/>
       <c r="KJ43" s="5"/>
     </row>
-    <row r="44" ht="17.6" spans="1:296">
+    <row r="44" ht="15.5" spans="1:296">
       <c r="A44" s="5" t="s">
         <v>334</v>
       </c>
@@ -17887,19 +17917,19 @@
       <c r="D44" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>1</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>0</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="14" t="s">
         <v>337</v>
       </c>
       <c r="J44" s="12" t="s">
@@ -17976,7 +18006,7 @@
       <c r="AJ44" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AK44" s="15" t="s">
+      <c r="AK44" s="16" t="s">
         <v>343</v>
       </c>
       <c r="AL44" s="5" t="s">
@@ -18241,7 +18271,7 @@
       <c r="KI44" s="5"/>
       <c r="KJ44" s="5"/>
     </row>
-    <row r="45" ht="17.6" spans="1:296">
+    <row r="45" ht="15.5" spans="1:296">
       <c r="A45" s="5"/>
       <c r="B45" s="5">
         <v>44</v>
@@ -18252,16 +18282,16 @@
       <c r="D45" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>1</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>0</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>0</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -18341,7 +18371,7 @@
       <c r="AJ45" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="AK45" s="15" t="s">
+      <c r="AK45" s="16" t="s">
         <v>350</v>
       </c>
       <c r="AL45" s="5" t="s">
@@ -18606,7 +18636,7 @@
       <c r="KI45" s="5"/>
       <c r="KJ45" s="5"/>
     </row>
-    <row r="46" ht="17.6" spans="1:296">
+    <row r="46" ht="15.5" spans="1:296">
       <c r="A46" s="5"/>
       <c r="B46" s="5">
         <v>45</v>
@@ -18617,16 +18647,16 @@
       <c r="D46" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>1</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>0</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>0</v>
       </c>
       <c r="I46" s="5"/>
@@ -18967,7 +18997,7 @@
       <c r="KI46" s="5"/>
       <c r="KJ46" s="5"/>
     </row>
-    <row r="47" ht="17.6" spans="1:296">
+    <row r="47" ht="15.5" spans="1:296">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
         <v>46</v>
@@ -18978,16 +19008,16 @@
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>1</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>0</v>
       </c>
       <c r="I47" s="5"/>
@@ -19328,7 +19358,7 @@
       <c r="KI47" s="5"/>
       <c r="KJ47" s="5"/>
     </row>
-    <row r="48" ht="17.6" spans="1:296">
+    <row r="48" ht="15.5" spans="1:296">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
         <v>47</v>
@@ -19339,19 +19369,19 @@
       <c r="D48" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>1</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>0</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>0</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="15" t="s">
         <v>305</v>
       </c>
       <c r="J48" s="12" t="s">
@@ -19422,7 +19452,7 @@
       <c r="AJ48" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="AK48" s="15" t="s">
+      <c r="AK48" s="16" t="s">
         <v>358</v>
       </c>
       <c r="AL48" s="5" t="s">
@@ -19687,7 +19717,7 @@
       <c r="KI48" s="5"/>
       <c r="KJ48" s="5"/>
     </row>
-    <row r="49" ht="36" spans="1:296">
+    <row r="49" ht="31" spans="1:296">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <v>48</v>
@@ -19698,16 +19728,16 @@
       <c r="D49" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>0</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -20045,7 +20075,7 @@
       <c r="KI49" s="5"/>
       <c r="KJ49" s="5"/>
     </row>
-    <row r="50" ht="17.6" spans="1:296">
+    <row r="50" ht="15.5" spans="1:296">
       <c r="A50" s="5"/>
       <c r="B50" s="5">
         <v>49</v>
@@ -20056,22 +20086,22 @@
       <c r="D50" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>1</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>0</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>1</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="16" t="s">
         <v>370</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -20405,7 +20435,7 @@
       <c r="KI50" s="5"/>
       <c r="KJ50" s="5"/>
     </row>
-    <row r="51" ht="17.6" spans="1:296">
+    <row r="51" ht="15.5" spans="1:296">
       <c r="A51" s="5"/>
       <c r="B51" s="5">
         <v>50</v>
@@ -20416,19 +20446,19 @@
       <c r="D51" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>1</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>0</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>0</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="15" t="s">
         <v>378</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -20769,7 +20799,7 @@
       <c r="KI51" s="5"/>
       <c r="KJ51" s="5"/>
     </row>
-    <row r="52" ht="18" spans="1:296">
+    <row r="52" ht="15.5" spans="1:296">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>51</v>
@@ -20780,16 +20810,16 @@
       <c r="D52" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -21123,7 +21153,7 @@
       <c r="KI52" s="5"/>
       <c r="KJ52" s="5"/>
     </row>
-    <row r="53" ht="17.6" spans="1:296">
+    <row r="53" ht="15.5" spans="1:296">
       <c r="A53" s="5"/>
       <c r="B53" s="5">
         <v>52</v>
@@ -21135,13 +21165,13 @@
         <v>397</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>1</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>0</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>0</v>
       </c>
       <c r="I53" s="5"/>
@@ -21438,7 +21468,7 @@
       <c r="KI53" s="5"/>
       <c r="KJ53" s="5"/>
     </row>
-    <row r="54" ht="17.6" spans="1:296">
+    <row r="54" ht="15.5" spans="1:296">
       <c r="A54" s="5"/>
       <c r="B54" s="5">
         <v>53</v>
@@ -21449,25 +21479,25 @@
       <c r="D54" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>1</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>0</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>0</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="15" t="s">
         <v>401</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="15" t="s">
         <v>403</v>
       </c>
       <c r="L54" s="5">
@@ -21521,12 +21551,14 @@
       <c r="AH54" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="AI54" s="5"/>
+      <c r="AI54" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="AJ54" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" s="5" t="s">
         <v>114</v>
@@ -21790,36 +21822,36 @@
       <c r="KI54" s="5"/>
       <c r="KJ54" s="5"/>
     </row>
-    <row r="55" ht="17.6" spans="1:296">
+    <row r="55" ht="15.5" spans="1:296">
       <c r="A55" s="5"/>
       <c r="B55" s="5">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>1</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>0</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>0</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="15" t="s">
         <v>401</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="15" t="s">
         <v>403</v>
       </c>
       <c r="L55" s="5">
@@ -21873,12 +21905,14 @@
       <c r="AH55" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="AI55" s="5"/>
+      <c r="AI55" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="AJ55" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="AK55" s="15" t="s">
         <v>408</v>
+      </c>
+      <c r="AK55" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="AL55" s="5" t="s">
         <v>114</v>
@@ -22142,27 +22176,27 @@
       <c r="KI55" s="5"/>
       <c r="KJ55" s="5"/>
     </row>
-    <row r="56" ht="17.6" spans="1:296">
+    <row r="56" ht="15.5" spans="1:296">
       <c r="A56" s="5"/>
       <c r="B56" s="5">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E56" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>1</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>0</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>1</v>
       </c>
       <c r="I56" s="5"/>
@@ -22195,10 +22229,10 @@
         <v>155</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK56" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>179</v>
@@ -22462,29 +22496,59 @@
       <c r="KI56" s="5"/>
       <c r="KJ56" s="5"/>
     </row>
-    <row r="57" ht="17.6" spans="1:296">
+    <row r="57" ht="15.5" spans="1:296">
       <c r="A57" s="5"/>
       <c r="B57" s="5">
         <v>56</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="9" t="s">
+      <c r="C57" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L57" s="5">
+        <v>2024</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -22501,10 +22565,18 @@
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="5"/>
+      <c r="AI57" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ57" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK57" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL57" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
@@ -22764,7 +22836,7 @@
       <c r="KI57" s="5"/>
       <c r="KJ57" s="5"/>
     </row>
-    <row r="58" ht="17.6" spans="1:296">
+    <row r="58" ht="15.5" spans="1:296">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -23062,7 +23134,7 @@
       <c r="KI58" s="5"/>
       <c r="KJ58" s="5"/>
     </row>
-    <row r="59" ht="17.6" spans="1:296">
+    <row r="59" ht="15.5" spans="1:296">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -23360,7 +23432,7 @@
       <c r="KI59" s="5"/>
       <c r="KJ59" s="5"/>
     </row>
-    <row r="60" ht="17.6" spans="1:296">
+    <row r="60" ht="15.5" spans="1:296">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -23658,7 +23730,7 @@
       <c r="KI60" s="5"/>
       <c r="KJ60" s="5"/>
     </row>
-    <row r="61" ht="17.6" spans="1:296">
+    <row r="61" ht="15.5" spans="1:296">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -23956,7 +24028,7 @@
       <c r="KI61" s="5"/>
       <c r="KJ61" s="5"/>
     </row>
-    <row r="62" ht="17.6" spans="1:296">
+    <row r="62" ht="15.5" spans="1:296">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -24254,7 +24326,7 @@
       <c r="KI62" s="5"/>
       <c r="KJ62" s="5"/>
     </row>
-    <row r="63" ht="17.6" spans="1:296">
+    <row r="63" ht="15.5" spans="1:296">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -24552,7 +24624,7 @@
       <c r="KI63" s="5"/>
       <c r="KJ63" s="5"/>
     </row>
-    <row r="64" ht="17.6" spans="1:296">
+    <row r="64" ht="15.5" spans="1:296">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -24850,7 +24922,7 @@
       <c r="KI64" s="5"/>
       <c r="KJ64" s="5"/>
     </row>
-    <row r="65" ht="17.6" spans="1:296">
+    <row r="65" ht="15.5" spans="1:296">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -25148,7 +25220,7 @@
       <c r="KI65" s="5"/>
       <c r="KJ65" s="5"/>
     </row>
-    <row r="66" ht="17.6" spans="1:296">
+    <row r="66" ht="15.5" spans="1:296">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -25446,7 +25518,7 @@
       <c r="KI66" s="5"/>
       <c r="KJ66" s="5"/>
     </row>
-    <row r="67" ht="17.6" spans="1:296">
+    <row r="67" ht="15.5" spans="1:296">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -25744,7 +25816,7 @@
       <c r="KI67" s="5"/>
       <c r="KJ67" s="5"/>
     </row>
-    <row r="68" ht="17.6" spans="1:37">
+    <row r="68" ht="15.5" spans="1:37">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -25762,7 +25834,7 @@
       <c r="R68" s="5"/>
       <c r="AK68" s="12"/>
     </row>
-    <row r="69" ht="17.6" spans="13:13">
+    <row r="69" ht="15.5" spans="13:13">
       <c r="M69" s="5"/>
     </row>
   </sheetData>
@@ -25830,6 +25902,8 @@
     <hyperlink ref="AK54" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
     <hyperlink ref="AK55" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
     <hyperlink ref="AK56" r:id="rId36" display="https://osf.io/br98c/" tooltip="https://osf.io/br98c/"/>
+    <hyperlink ref="J57" r:id="rId37" display="n.kirk@abertay.ac.uk"/>
+    <hyperlink ref="AK57" r:id="rId38" display="https://osf.io/hr96d/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="430">
   <si>
     <t>Note</t>
   </si>
@@ -1490,6 +1490,24 @@
   </si>
   <si>
     <t>https://osf.io/hr96d/</t>
+  </si>
+  <si>
+    <t>Pu5E1</t>
+  </si>
+  <si>
+    <t>Pu5</t>
+  </si>
+  <si>
+    <t>Lee_2023_Cognition</t>
+  </si>
+  <si>
+    <t>Pu5E2</t>
+  </si>
+  <si>
+    <t>Pu6E1</t>
+  </si>
+  <si>
+    <t>Pu6</t>
   </si>
 </sst>
 </file>
@@ -2569,11 +2587,11 @@
   <dimension ref="A1:KJ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AJ43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AH40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL60" sqref="AL60"/>
+      <selection pane="bottomRight" activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -22838,9 +22856,15 @@
     </row>
     <row r="58" ht="15.5" spans="1:296">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="5">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -22872,7 +22896,9 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
+      <c r="AJ58" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="AK58" s="12"/>
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
@@ -23136,9 +23162,15 @@
     </row>
     <row r="59" ht="15.5" spans="1:296">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="5">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -23170,7 +23202,9 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
+      <c r="AJ59" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="AK59" s="12"/>
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
@@ -23434,9 +23468,15 @@
     </row>
     <row r="60" ht="15.5" spans="1:296">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="5">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AL$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Label!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="431">
   <si>
     <t>Note</t>
   </si>
@@ -1405,7 +1405,10 @@
     <t>Amodeo_2024_CABN</t>
   </si>
   <si>
-    <t>https://doi.org/10.3758/s13415-024-01157-0.</t>
+    <t>https://doi.org/10.3758/s13415-024-01157-0</t>
+  </si>
+  <si>
+    <t>All materials, datasets, and R scripts are available from the corresponding author on reasonable request. The experiment was not preregistered.</t>
   </si>
   <si>
     <t>Pu1E1</t>
@@ -2326,6 +2329,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
@@ -2587,11 +2597,11 @@
   <dimension ref="A1:KJ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ60" sqref="AJ60"/>
+      <selection pane="bottomRight" activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -20817,7 +20827,7 @@
       <c r="KI51" s="5"/>
       <c r="KJ51" s="5"/>
     </row>
-    <row r="52" ht="15.5" spans="1:296">
+    <row r="52" ht="31" spans="1:296">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>51</v>
@@ -20908,10 +20918,12 @@
       <c r="AJ52" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="AK52" s="12" t="s">
+      <c r="AK52" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="AL52" s="5"/>
+      <c r="AL52" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
@@ -21177,10 +21189,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6">
@@ -21223,7 +21235,7 @@
         <v>51</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK53" s="12"/>
       <c r="AL53" s="5"/>
@@ -21492,10 +21504,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>63</v>
@@ -21510,13 +21522,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L54" s="5">
         <v>2024</v>
@@ -21544,12 +21556,12 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC54" s="5">
         <v>40</v>
@@ -21567,16 +21579,16 @@
         <v>40</v>
       </c>
       <c r="AH54" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="AK54" s="12" t="s">
         <v>409</v>
+      </c>
+      <c r="AK54" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="AL54" s="5" t="s">
         <v>114</v>
@@ -21846,10 +21858,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>63</v>
@@ -21864,13 +21876,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L55" s="5">
         <v>2024</v>
@@ -21898,12 +21910,12 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC55" s="5">
         <v>40</v>
@@ -21921,16 +21933,16 @@
         <v>40</v>
       </c>
       <c r="AH55" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK55" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL55" s="5" t="s">
         <v>114</v>
@@ -22200,10 +22212,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>63</v>
@@ -22247,10 +22259,10 @@
         <v>155</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK56" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>179</v>
@@ -22520,10 +22532,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>63</v>
@@ -22538,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L57" s="5">
         <v>2024</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N57" s="5">
         <v>1</v>
@@ -22559,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>95</v>
@@ -22584,13 +22596,13 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK57" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL57" s="5" t="s">
         <v>114</v>
@@ -22860,10 +22872,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -22897,7 +22909,7 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AK58" s="12"/>
       <c r="AL58" s="5"/>
@@ -23166,10 +23178,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -23203,7 +23215,7 @@
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AK59" s="12"/>
       <c r="AL59" s="5"/>
@@ -23472,10 +23484,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -25878,7 +25890,7 @@
       <c r="M69" s="5"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AL57" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AL60" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -25938,7 +25950,7 @@
     <hyperlink ref="AK15" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
     <hyperlink ref="AK14" r:id="rId32" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025" tooltip="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0190679#sec025"/>
     <hyperlink ref="AK51" r:id="rId33" display="https://osf.io/tsvxy/?view_only=4314d303addf4dff9f443bea774a465a"/>
-    <hyperlink ref="AK52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0."/>
+    <hyperlink ref="AK52" r:id="rId34" display="https://doi.org/10.3758/s13415-024-01157-0" tooltip="https://doi.org/10.3758/s13415-024-01157-0"/>
     <hyperlink ref="AK54" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
     <hyperlink ref="AK55" r:id="rId35" display="https://doi.org/10.17605/OSF.IO/XA4H8" tooltip="https://doi.org/10.17605/OSF.IO/XA4H8"/>
     <hyperlink ref="AK56" r:id="rId36" display="https://osf.io/br98c/" tooltip="https://osf.io/br98c/"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -909,7 +909,7 @@
     <t>2(matching:match,mismatch)*2(reference:self,other)*3(moralcharacter:good,neutral,bad)</t>
   </si>
   <si>
-    <t>Hu_2023_PA</t>
+    <t>Hu_2023</t>
   </si>
   <si>
     <t>https://zenodo.org/records/8031086</t>
@@ -1265,7 +1265,7 @@
     <t>NeuroImage</t>
   </si>
   <si>
-    <t>Zhang_2022_NI</t>
+    <t>Zhang_2023_NI</t>
   </si>
   <si>
     <t>https://osf.io/hbrus/?view_only=98b2095f72e64fd382fc0d33de3f4497</t>
@@ -2596,12 +2596,12 @@
   <sheetPr/>
   <dimension ref="A1:KJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomRight" activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
